--- a/static/temp_save_request/temp_output.xlsx
+++ b/static/temp_save_request/temp_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK101"/>
+  <dimension ref="A1:AJ101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,11 +614,6 @@
           <t xml:space="preserve">Établissement co-accrédité </t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -801,9 +796,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK2" t="n">
-        <v>155</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -986,9 +978,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK3" t="n">
-        <v>156</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1171,9 +1160,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK4" t="n">
-        <v>157</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1356,9 +1342,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK5" t="n">
-        <v>158</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1541,9 +1524,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK6" t="n">
-        <v>159</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1726,9 +1706,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK7" t="n">
-        <v>160</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1911,9 +1888,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK8" t="n">
-        <v>161</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2096,9 +2070,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK9" t="n">
-        <v>162</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2281,9 +2252,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK10" t="n">
-        <v>163</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2466,9 +2434,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK11" t="n">
-        <v>164</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2651,9 +2616,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK12" t="n">
-        <v>165</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2836,9 +2798,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK13" t="n">
-        <v>166</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3021,9 +2980,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK14" t="n">
-        <v>167</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3206,9 +3162,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK15" t="n">
-        <v>168</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3391,9 +3344,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK16" t="n">
-        <v>169</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3576,9 +3526,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK17" t="n">
-        <v>170</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3761,9 +3708,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK18" t="n">
-        <v>171</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3946,9 +3890,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK19" t="n">
-        <v>172</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4131,9 +4072,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK20" t="n">
-        <v>173</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4316,9 +4254,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK21" t="n">
-        <v>174</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4501,9 +4436,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK22" t="n">
-        <v>175</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4687,9 +4619,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK23" t="n">
-        <v>176</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4872,9 +4801,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK24" t="n">
-        <v>177</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5057,9 +4983,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK25" t="n">
-        <v>178</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5242,9 +5165,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK26" t="n">
-        <v>179</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5427,9 +5347,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK27" t="n">
-        <v>180</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5612,9 +5529,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK28" t="n">
-        <v>181</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5797,9 +5711,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK29" t="n">
-        <v>182</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5982,9 +5893,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK30" t="n">
-        <v>183</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6167,9 +6075,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK31" t="n">
-        <v>184</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6352,9 +6257,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK32" t="n">
-        <v>185</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6537,9 +6439,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK33" t="n">
-        <v>186</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6722,9 +6621,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK34" t="n">
-        <v>187</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6907,9 +6803,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK35" t="n">
-        <v>188</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7092,9 +6985,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK36" t="n">
-        <v>189</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7277,9 +7167,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK37" t="n">
-        <v>190</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7462,9 +7349,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK38" t="n">
-        <v>191</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7647,9 +7531,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK39" t="n">
-        <v>192</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7832,9 +7713,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK40" t="n">
-        <v>193</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8017,9 +7895,6 @@
           <t xml:space="preserve"> Institut national des sciences appliquées Rouen Normandie (Saint-Etienne-du-Rouvray ; 1985-....)</t>
         </is>
       </c>
-      <c r="AK41" t="n">
-        <v>194</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8203,9 +8078,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK42" t="n">
-        <v>195</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8388,9 +8260,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK43" t="n">
-        <v>196</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8573,9 +8442,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK44" t="n">
-        <v>197</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8758,9 +8624,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK45" t="n">
-        <v>198</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8943,9 +8806,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK46" t="n">
-        <v>199</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9128,9 +8988,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK47" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9313,9 +9170,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK48" t="n">
-        <v>201</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9498,9 +9352,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK49" t="n">
-        <v>202</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9683,9 +9534,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK50" t="n">
-        <v>203</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9868,9 +9716,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK51" t="n">
-        <v>204</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10053,9 +9898,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK52" t="n">
-        <v>205</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10238,9 +10080,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK53" t="n">
-        <v>206</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10423,9 +10262,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK54" t="n">
-        <v>207</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10608,9 +10444,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK55" t="n">
-        <v>208</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10789,9 +10622,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK56" t="n">
-        <v>209</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10974,9 +10804,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK57" t="n">
-        <v>210</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11159,9 +10986,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK58" t="n">
-        <v>211</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11344,9 +11168,6 @@
           <t xml:space="preserve"> Université de Rouen Normandie (1966-....)</t>
         </is>
       </c>
-      <c r="AK59" t="n">
-        <v>212</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11529,9 +11350,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK60" t="n">
-        <v>213</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11714,9 +11532,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK61" t="n">
-        <v>214</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11899,9 +11714,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK62" t="n">
-        <v>215</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12084,9 +11896,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK63" t="n">
-        <v>216</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12269,9 +12078,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK64" t="n">
-        <v>217</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12454,9 +12260,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK65" t="n">
-        <v>218</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12639,9 +12442,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK66" t="n">
-        <v>219</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12824,9 +12624,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK67" t="n">
-        <v>220</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13009,9 +12806,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK68" t="n">
-        <v>221</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13194,9 +12988,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK69" t="n">
-        <v>222</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13379,9 +13170,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK70" t="n">
-        <v>223</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13564,9 +13352,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK71" t="n">
-        <v>224</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13749,9 +13534,6 @@
           <t xml:space="preserve"> Université de Rouen Normandie (1966-....)</t>
         </is>
       </c>
-      <c r="AK72" t="n">
-        <v>225</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13934,9 +13716,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK73" t="n">
-        <v>226</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14119,9 +13898,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK74" t="n">
-        <v>227</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14304,9 +14080,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK75" t="n">
-        <v>228</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14489,9 +14262,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK76" t="n">
-        <v>229</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -14674,9 +14444,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK77" t="n">
-        <v>230</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -14859,9 +14626,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK78" t="n">
-        <v>231</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15044,9 +14808,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK79" t="n">
-        <v>232</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15229,9 +14990,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK80" t="n">
-        <v>233</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -15414,9 +15172,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK81" t="n">
-        <v>234</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -15599,9 +15354,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK82" t="n">
-        <v>235</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -15784,9 +15536,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK83" t="n">
-        <v>236</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -15969,9 +15718,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK84" t="n">
-        <v>237</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -16154,9 +15900,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK85" t="n">
-        <v>238</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -16339,9 +16082,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK86" t="n">
-        <v>239</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -16524,9 +16264,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK87" t="n">
-        <v>240</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -16709,9 +16446,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK88" t="n">
-        <v>241</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -16894,9 +16628,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK89" t="n">
-        <v>242</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -17079,9 +16810,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK90" t="n">
-        <v>243</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -17264,9 +16992,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK91" t="n">
-        <v>244</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -17449,9 +17174,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK92" t="n">
-        <v>245</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -17634,9 +17356,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK93" t="n">
-        <v>246</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -17819,9 +17538,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK94" t="n">
-        <v>247</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -18005,9 +17721,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK95" t="n">
-        <v>248</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -18190,9 +17903,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK96" t="n">
-        <v>249</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -18375,9 +18085,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK97" t="n">
-        <v>250</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -18560,9 +18267,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK98" t="n">
-        <v>251</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -18745,9 +18449,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK99" t="n">
-        <v>252</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -18930,9 +18631,6 @@
           <t>Missing value</t>
         </is>
       </c>
-      <c r="AK100" t="n">
-        <v>253</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -19114,9 +18812,6 @@
         <is>
           <t>Missing value</t>
         </is>
-      </c>
-      <c r="AK101" t="n">
-        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/static/temp_save_request/temp_output.xlsx
+++ b/static/temp_save_request/temp_output.xlsx
@@ -466,67 +466,67 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Ecole(s) doctorale(s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Partenaire(s) de recherche</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>content</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Ecole(s) doctorale(s)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Partenaire(s) de recherche</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>url_these</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Jury</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Examinateurs / Examinatrices</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Rapporteurs / Rapporteuses</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Equipe de recherche</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Etablissement d'accueil</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Établissement co-accrédité</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Laboratoire</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Établissement co-accrédité</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>référent</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>établissement opérateur d'inscription</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>référent</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -548,57 +548,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Anita De Donato</t>
+          <t xml:space="preserve">  Thi tra my Bui</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Barbara Casciarri, Mauro Van Aken</t>
+          <t xml:space="preserve">  Khalil Hanna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Anthropologie</t>
+          <t xml:space="preserve">  Chimie</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 29/10/2018</t>
+          <t xml:space="preserve">  Inscription en doctorat le 22/11/2022</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 8 en cotutelle avec Università degli studi di Milano - Bicocca</t>
+          <t xml:space="preserve">  Université de Rennes (2023-....)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cette thèse porte sur l'analyse de la gestion de l'eau potable et de l’eau de source utilisée pour l'irrigation dans le village rural de Wādī Fūkīn (Cisjordanie). Il s’agit d’une étude des dialectiques entre des stratégies de pouvoir globales, coloniales et nationales mises en place à travers des politiques hydrauliques et des pratiques locales de résistance, qui définissent les significations de communauté, localité, de l'État et de la citoyenneté. Cette étude montre que les Palestiniens sont soumis à une condition de “pluralisme d'État” produite par le chevauchement et l'interaction entre les structures de pouvoir de l'État israélien, de l'ANP (Autorité Nationale Palestinienne) et du système du développement. Les projets de modernisation des réseaux d'eau potable de l’État d’Israël et ceux de l'ANP, ainsi que les techniques d'agriculture et d’irrigation intensives promues par les acteurs du développement sont considérés comme des dispositifs techno-politiques visant à l’instauration des ordres politiques et économiques particuliers.Les agriculteurs locaux résistent à ces stratégies de pouvoir en mettant en valeur leur système de gestion de l’eau et leur savoir-faire agricole, qui expriment de revendications d'autonomie et de justice socio-écologique.L'analyse de la gestion locale de l’eau de source révèle le caractère « moderne » des formes d'appartenance tribale, qui sont montrées comme un langage de solidarité pour lutter pour l'autodétermination face aux structures de pouvoir israéliennes et de l'ANP. Cette étude est une contribution au débat sur les relations entre l’organisation politique tribale et l'État moderne.</t>
+          <t xml:space="preserve">  Science de la Matière, des Molécules et Matériaux</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Spring Water : the Lifeblood of the Village of Wadi Fukin (West Bank)</t>
+          <t xml:space="preserve">  Equipe de recherche </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>The effects of fluid flow on chemical reactions at water/mineral interfaces</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Cette thèse porte sur l'analyse de la gestion de l'eau ... sur les relations entre l’organisation politique tribale et l'État moderne.</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -658,57 +658,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jean-Philippe Heuzé</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  M. Leveque</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences biologiques et fondamentales appliquées. Psychologie</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1995</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Dijon</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Notre travail présente trois démarches originales d'implication psychologique auprès d'équipes nationales de water-polo. Nous privilégions une perspective systémique de la préparation psychologique et adoptons une attitude clinique pour comprendre chaque sujet, comme l'équipe, dans sa totalité, en situation, en évolution et en interaction. Notre méthodologie comporte une phase d'imprégnation et d'investigation, suivie d'une phase de restitution et de contribution à l'optimisation des performances des joueurs. Pour chacune de nos implications, nous exposons et discutons les résultats de notre investigation. Puis nous décrivons les stratégies mises en oeuvre auprès de chacune de ces équipes. Notre conclusion générale suggère des éléments d'une meta-analyse de l'intervention du psychologue auprès d'athlètes.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Implication psychologique auprès d'équipes nationales dans un sport collectif. L'exemple du water-polo</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Grain legumes are cultivated for their protein-rich seeds, used for feed or food. These species do not need N fertilizers, thanks to their ability to fix atmospheric N2 in symbiosis with soil bacteria (rhizobia) in newly-formed root organs called nodules. With a functional-structural approach focused on the nodulated root system, we will investigate transient nutrient deficiencies and drought effect on root architecture, water and nutrient uptake, and rhizodeposition. The molecular underlying regulations will be deciphered by multi-omics approaches including RNAseq and metabolomics analysis.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Vers l'optimisation de l'architecture du système racinaire nodulé des légumineuses pour l'acquisition de l'eau et de l'azote en conditions de sécheresse</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Notre travail présente trois démarches originales d'implication psychologique auprès d'équipes ... des éléments d'une meta-analyse de l'intervention du psychologue auprès d'athlètes.</t>
+          <t>Grain legumes are cultivated for their protein-rich seeds, used for ... be deciphered by multi-omics approaches including RNAseq and metabolomics analysis.</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -768,12 +768,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Olga Leshchishina</t>
+          <t xml:space="preserve">  Lucia Benavente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Alain Campargue, Olga Naumenko</t>
+          <t xml:space="preserve">  Pierre Aimar, Patrice Bacchin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -783,52 +783,52 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Physique de la matière condensée et du rayonnement</t>
+          <t xml:space="preserve">  Génie des procédés et de l'environnement</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 26/08/2011</t>
+          <t xml:space="preserve">  Soutenance le 03/11/2016</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Grenoble en cotutelle avec Institute of atmospheric optics (Tomsk, Russia)</t>
+          <t xml:space="preserve">  Toulouse 3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>The present thesis is devoted to two major atmospheric species – water and oxygen. The absorption spectrum of the 1Delta band of six oxygen isotopologues near was recorded by very high sensitivity CW-CRDS at room temperature and at 80 K. The magnetic dipole-allowed (0-0) band is observed for 16O2, 16O18O, 16O17O, 17O18O, 18O2 and 17O2. The first laboratory detection of extremely weak quadrupole transitions in the (0-0) band of 18O2, 16O17O, 17O2 is reported together with the (1-1) hot band of 16O2, 18O2, 16O17O and 17O2. The partly resolved hyperfine structure of the 16O17O, 17O18O, 17O2 transitions is analysed. These measurements combined with microwave and Raman data available in the literature led to the determination of the best to date spectroscopic constants for the six oxygen isotopologues, including the 17O hyperfine coupling parameters for the 1Delta state. The high resolution absorption spectra of water isotopologues (D216O, HD16O and H218O) were recorded by ICLAS and FTS in the 8800–14100 cm-1 region. The spectrum analysis based on high accuracy variational calculations provided a considerable amount of new energy levels for each of the isotopologues under consideration. The experimental energy levels derived in this study and available in the literature allowed calculating the line positions at the level of experimental accuracy in the 6100–15200 cm-1 region that extends much further the range of the present recordings.</t>
+          <t xml:space="preserve">  École doctorale Mécanique, énergétique, génie civil et procédés (Toulouse)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Etude expérimentale et théorique su spectre d'absorption de la vapeur d'eau vers 800nm et de la bande a¹ÎgøX³Ôgñ de l'oxygène vers 1.27 micron par spectroscopie d'absorption à très haute sensibilité</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale physique (Grenoble, Isère, France ; 1991-....)</t>
+          <t>La pénurie d'eau est devenue un des problèmes clés à résoudre, et pour y faire face, il est nécessaire de disposer d'unités de traitement de l'eau efficaces. Au cours des dernières décennies la technologie des membranes est devenue l'une des techniques les plus prometteuses pour le traitement de l'eau. Néanmoins, les membranes ont une durée de vie limitée et sont, par ailleurs, sujettes à des phénomènes de colmatage - le dépôt, l'adsorption et l'absorption de particules dans la structure de la membrane -, ce qui réduit leur productivité, et augmente les coûts opérationnels. Une approche pour minimiser ce problème consiste à modifier des membranes hydrophobes, mécaniquement et chimiquement stables, en y greffant des matériaux amphiphiles afin de réduire le colmatage. L'objectif principal de ce travail est de caractériser les propriétés anti-colmatage des membranes de PVDF (Polyvinylidene fluoride) modifiées avec différents types de copolymères PS-PEGMA (Polystyrene - Poly(ethylene glycol) methacrylate), tout d'abord par l'utilisation de techniques classiques, puis, par le développement et / ou l'adaptation de techniques microfluidiques couplés à la microscopie à fluorescence et l'utilisation de la cartographie par microspectroscopie infrarouge à transformée de Fourier (IRTF). La cartographie IRTF a permis de quantifier localement le greffage et de mettre en évidence l'hétérogénéité du greffage sur la membrane. Ces cartes, représentant l'importance du greffage sur la membrane, ont par ailleurs été corrélées au dépôt de protéines sur la surface. Des systèmes microfluidiques ont également été développés pour caractériser sous microscope à fluorescence l'adsorption de protéines fluorescentes sur une membrane en présence d'un débit. Cette étude permet de suivre in situ et en dynamique l'adsorption (lors de cycles de filtration) et la désorption (lors de cycles de rinçage) de protéines sur la membrane. Ces mesures locales ont été mises en regard avec des mesures de permeabilité lors de cycles filtrations/rinçage mettant en évidence un rôle anti-fouling en particulier pour les copolymères tri-blocs ou pour les copolymères à enchaînement aléatoire.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Low fouling membranes for water and bio tech applications</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alain Campargue, Olga Naumenko, Aleksandr z. Fazliev</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andrey a. Vigasin, Laurence Regalia-Jarlot</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>The present thesis is devoted to two major atmospheric species ... that extends much further the range of the present recordings.</t>
+          <t>La pénurie d'eau est devenue un des problèmes clés à ... les copolymères tri-blocs ou pour les copolymères à enchaînement aléatoire.</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -878,12 +878,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Lionel Mercury</t>
+          <t xml:space="preserve">  François Joseph Chatelon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Yves Tardy, Philippe Vieillard</t>
+          <t xml:space="preserve">  Pierre Orenga</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -893,42 +893,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Matériaux, minéraux</t>
+          <t xml:space="preserve">  Mathématiques</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1997</t>
+          <t xml:space="preserve">  Soutenance en 1996</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Poitiers</t>
+          <t xml:space="preserve">  Corte</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>L'etude des equilibres mineraux - solution dans le domaine non sature des sols necessite de considerer l'etat particulier de l'eau. L'eau liquide liee, en conditions capillaires, est soumise a une pression generalement negative, en tout cas inferieure a celle de l'atmosphere. Une methode de calcul de toutes les proprietes thermodynamiques de l'eau, fondee sur cette realite physique, est proposee et discutee au chapitre 1, a partir de la regression des donnees etablies a pression positive. Le chapitre 2 presente le calcul des proprietes thermodynamiques de la plupart des polymorphes de la glace. La notion d'&lt;&lt;&lt;&gt;ice-like water&lt;&gt;&gt;&gt; peut alors etre clairement definie, au chapitre 3, et appliquee a l'eau de constitution des hydrates et des hydroxydes. . . .</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Equilibres minéraux-solutions en milieu non saturé des sols : thermodynamique de l'eau capillaire et modélisation physicochimique</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Ce mémoire est consacré à l'étude d'un problème de shallow water en mer ouverte. Dans une première partie, nous exposons brièvement la modélisation du problème en formulation hauteur-vitesse. Puis, nous présentons un résultat d'existence de solutions faibles : nous montrons que si les données sont bien choisies, le problème variationnel associé admet des solutions. Pour démontrer ce théorème, nous donnons d'abord les estimations à priori vérifiées par les solutions, puis nous construisons des solutions approchées vérifiant ces majorations. Le point le plus délicat de cette démonstration est le passage à la limite. Les conditions aux limites envisagées sont de deux types. Des résultats d'existence sont énoncés dans le cas de conditions aux limites, utilisées habituellement en océanographie physique, portant sur la vitesse normale avec conditions de dissipation. Nous envisageons également le cas de conditions aux limites classiques de Dirichlet. Ensuite, à l'aide de résultats de régularité, nous montrons l'unicité des solutions. Ces résultats de régularité sont obtenus en utilisant une décomposition orthogonale particulière de l'espace de travail. Ces résultats permettent d'obtenir les majorations nécessaires à l'obtention de l'existence de solutions faibles d'un problème de shallow water bicouche. La méthode originale de résolution numérique est une méthode itérative combinant la méthode de Galerkin (associée à une base spéciale judicieusement choisie) et la méthode des caractéristiques. Dans un domaine à géométrie simplifiée, nous avons utilisé un cas analytique pour valider l'algorithme de résolution puis nous avons réalisé un calcul du champ de vitesse et de la hauteur d'eau lorsque le principal forcing extérieur est le vent.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Analyse d'un problème de shallow water</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>L'etude des equilibres mineraux - solution dans le domaine non ... de constitution des hydrates et des hydroxydes. . . .</t>
+          <t>Ce mémoire est consacré à l'étude d'un problème de shallow ... hauteur d'eau lorsque le principal forcing extérieur est le vent.</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -988,12 +988,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  João Guilherme Caldas Steinstraesser</t>
+          <t xml:space="preserve">  Pierre Morel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Antoine Rousseau, Vincent Guinot</t>
+          <t xml:space="preserve">  Pierre Bertrand, Etienne Gravier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1003,57 +1003,57 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques et modélisation</t>
+          <t xml:space="preserve">  Physique</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 01/10/2021</t>
+          <t xml:space="preserve">  Soutenance le 04/07/2008</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Montpellier</t>
+          <t xml:space="preserve">  Nancy 1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cette thèse de doctorat porte sur l’étude du couplage des modèles de Saint-Venant non linéaires à différentes échelles, appliqué à la simulation numérique d’inondations urbaines. Des simulations précises dans ce domaine ont, en général, un coût computationnel prohibitif dû aux petites tailles de maille nécessaires pour la discrétisation spatiale de la géométrie urbaine et, par conséquent, les petits pas de temps restreints par des conditions de stabilité. Au cours des deux dernières décennies, des modèles de Saint-Venant à porosité ont été proposés comme une alternative, s’agissant des modèles à échelle élargie utilisant des mailles et des pas de temps plus grands, et capables de fournir des bonnes approximations globales aux solutions des modèles fins, avec un temps de calcul considérablement plus petit. Néanmoins, certains phénomènes à petite échelle ne sont pas capturés par ce type de modèle. Nous cherchons donc à formuler un modèle numérique couplant les modèles à petite et à large échelle, afin d’obtenir des solutions plus précises à l’intérieur des zones urbaines, toujours avec des temps de calcul plus petits par rapport à la simulation des modèles fins. La ligne directrice de ce travail est l’utilisation de méthodes itératives de parallélisation en temps, du type prédicteur-correcteur, qui s’adaptent naturellement à cette formulation fin/grossier. Nous nous concentrons sur la méthode Pararéel (parareal method), une des méthodes de parallélisation en temps les plus connues. Comme défi majeur, la parallélisation en temps présente en général des instabilités et une convergence lente dans le cadre de la résolution de problèmes hyperboliques ou dominés par l'advection, comme les équations de Saint-Venant. Nous considérons donc une variante de la méthode qui incorpore des modèles d’ordre réduit (Reduced-Order models - ROMs) formulés à la volée au cours des itérations de la méthode Pararéel, utilisant la décomposition orthogonale aux valeurs propres (Proper Orthogonal Decomposition - POD) et la méthode d'interpolation empirique (Empirical Interpolation Method - EIM), et capable d’améliorer la stabilité et la convergence de la méthode pour la résolution de problèmes hyperboliques non linéaires. Nous étudions les limitations de cette méthode Pararéel basée sur des ROMs et nous proposons des modifications qui fournissent des améliorations additionnelles à la stabilité et la convergence : l’enrichissement des données d’entrée pour les techniques de réduction de modèle ; la formulation des ROMs locaux en temps ; et l’incorporation d’une méthode Pararéel adaptative proposée récemment dans la littérature. La méthode Pararéel originale et celle basée sur des modèles réduits, y compris les modifications proposées, sont comparées et évaluées en termes de stabilité, convergence vers la solution du modèle fin et accélération de la simulation numérique obtenue dans une implémentation parallèle. Dans un premier temps, les méthodes et améliorations proposées sont formulées, étudiées et implémentées en considérant des simulations numériques couplant les équations de Saint-Venant classiques (sans le concept de porosité) à différentes échelles. Après cette étude initiale, nous appliquons les méthodes au couplage des équations classiques et des équations à porosité, pour la simulation d’inondations urbaines.</t>
+          <t xml:space="preserve">  EMMA - Ecole Doctorale Energie - Mécanique - Matériaux</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Couplage de modèles 'shallow water' à porosité à différentes échelles en présence d'anisotropie</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Information, Structures, Systèmes (Montpellier ; 2015-....)</t>
+          <t>Ce travail a porté sur l'étude des instabilités de gradient de température ioniques (ITG) en géométrie cylindrique, le champ magnétique étant supposé constant et dirigé selon l'axe du cylindre. Une fonction de distribution discrète en forme de marche d'escalier est utilisée pour décrire la direction de vitesse parallèle au champ magnétique. L'équation de Vlasov se résume à un système de type multi fluides couplés par l'équation de quasi neutralité. Chaque fluide est décrit par un système fermé d'équations (continuité, Euler et fermeture adiabatique), caractéristiques d'un fluide incompressible, d'où la dénomination de sac d'eau ou "water bag". Le recours à cette description water bag est particulièrement intéressant dans le cas de problèmes à une seule dimension en vitesse. Ainsi, dans le cas des plasmas fortement magnétisés, un modèle water bag peut se combiner avantageusement aux modèles dits girocinétiques. Les paramètres associés a la représentation water bag ont pu être identifiés et reliés aux grandeurs macroscopiques par le biais d'une méthode originale d'équivalence au sens des moments. L'analyse water bag des ITG a permis de valider le modèle et les méthodes choisies. Ce travail a également permis de montrer que le concept de water bag peut sans problème prendre en compte des effets variés comme ceux liés a l'introduction d?un rayon de Larmor fini, tout comme à la description d'un plasma composé de plusieurs espèces d'ions.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Le modèle « water bag » appliqué aux équations cinétiques des plasmas de Tokamak</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>Missing Value</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Antoine Rousseau, Vincent Guinot, Sandra Soares-Frazão, Martin Gander, Cristián ESCAURIAZA, Olga Mula Hernandez, Laurent Debreu</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martin Gander, Cristián ESCAURIAZA</t>
+          <t xml:space="preserve"> Dominique Escande, Giovanni Manfredi, Xavier Garbet</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Littoral, Environnement, Modèles et Outils Numériques (Montpellier)</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Cette thèse de doctorat porte sur l’étude du couplage des ... et des équations à porosité, pour la simulation d’inondations urbaines.</t>
+          <t>Ce travail a porté sur l'étude des instabilités de gradient ... à la description d'un plasma composé de plusieurs espèces d'ions.</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1098,12 +1098,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thanh Don Nguyen</t>
+          <t xml:space="preserve">  Stéphane Pous</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Denis Dartus, Van Lai Hoang</t>
+          <t xml:space="preserve">  Xavier Carton, Pascal Lazure</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1113,42 +1113,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Hydrologie, Hydrochimie, Sol, Environnement</t>
+          <t xml:space="preserve">  Océanographie physique et Environnement</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 09/11/2012</t>
+          <t xml:space="preserve">  Soutenance en 2005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Toulouse, INPT en cotutelle avec Université de Technologie de Hanoï. Vietnam</t>
+          <t xml:space="preserve">  Brest</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nous analysons dans cette thèse différents aspects associés à la modélisation des écoulements à surface libre en eaux peu profondes (Shallow Water). Nous étudions tout d’abord le système d’équations de Saint-Venant à deux dimensions et leur résolution par la méthode numérique des volumes finis, en portant une attention particulière sur les aspects hyperboliques et conservatifs. Ces schémas permettent de traiter les équilibres stationnaires, les interfaces sec/mouillé et aussi de modéliser des écoulements subcritique, transcritique et supercritique. Nous présentons ensuite la théorie de la méthode d’assimilation variationnelle de données adaptée à ce type d’écoulement. Son application au travers des études de sensibilité est longuement discutée dans le cadre de l'hydraulique à surface libre. Après cette partie à caractère théorique, la partie tests commence par une qualification de l’ensemble des méthodes numériques qui sont implémentées dans le code DassFlow, développé à l’Université de Toulouse, principalement à l’IMT mais aussi à l’IMFT. Ce code résout les équations Shallow Water par une méthode de volumes finis et est validé par comparaison avec les solutions analytiques pour des cas tests classiques. Ces mêmes résultats sont comparés avec un autre code d’hydraulique à surface libre aux éléments finis en deux dimensions, Telemac 2D. Une particularité notable du code DassFlow est de permettre l’assimilation variationnelle de données grâce au code adjoint permettant le calcul du gradient de la fonction coût. Ce code adjoint a été obtenu en utilisant l'outil de différentiation automatique Tapenade (Inria). Nous testons ensuite sur un cas réel, hydrauliquement complexe, différentes qualités de Modèles Numériques de Terrain (MNT) et de bathymétrie du lit d’une rivière. Ces informations proviennent soit d’une base de données classique type IGN, soit d’informations LIDAR à très haute résolution. La comparaison des influences respectives de la bathymétrie, du maillage et du type de code utilisé, sur la dynamique d’inondation est menée très finement. Enfin nous réalisons des études cartographiques de sensibilité aux paramètres du modèle sur DassFlow. Ces cartes montrent l’influence respective des différents paramètres ou de la localisation des points de mesure virtuels. Cette localisation optimale de ces points est nécessaire pour une future assimilation de données efficiente.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Impact de la résolution et de la précision de la topographie sur la modélisation de la dynamique d’invasion d’une crue en plaine inondable</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences de l’univers, de l’environnement et de l’espace (Toulouse)</t>
+          <t>La circulation dans les golfes Persique et d'Oman est un système complexe et mal connu qui résulte de l'interaction de nombreux forçages à différentes échelles de temps. A l'échelle de quelques heures , la marée joue un rôle important. A l'échelle saisonnière et inter-annuelle, une circulation thermohaline, typique d'un bassin de concentration, se met en place. Elle est caractérisée par une circulation cyclonique à forte variabilité saisonnière et par l'interaction de deux masses d'eaux : une eau dense formée dans le Golfe Persique (Persian Gulfe Water) qui s'écoule sous la forme d'une veine dans le Golfe d'Oman et une eau plus légère en provenance des couches de surface de l'Océan Indien (Indian Ocean surface water). L'analyse des données de la campagne GOGP99, réalisée en automne 1999, montre l'existence des deux masses d'eaux PGW et IOSW, ainsi qu'une variabilité temporelle et spatiale importante des structures hydrologiques et courantologiques, l'évolution des caractéristiques de la veine d'eau PGW jusqu'en mer d'Arabie est précisée. Un modèle réaliste de la circulation dans les deux golfes est développé pour comprendre les différents aspects de la dynamique. La circulation dans le golfe persique, les interactions entre les masses d'eau PGW et IOSW, la formation puis le développement de l'eau PGW dans le Golfe d'Oman sont détaillés et une variabilité importante est mise en évidence. Une étude de processus précise la part des différents forçages. L'importance de la paramétrisation des flux de chaleur est mise en évidence. Finalement,une étude de sensibilité à la variation de certains forçages (fleuve, évaporation) et à la paramétrisation de la turbulence est réalisée.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Dynamique océanique dans les golfes Persiques et d'Oman</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Nous analysons dans cette thèse différents aspects associés à la ... points est nécessaire pour une future assimilation de données efficiente.</t>
+          <t>La circulation dans les golfes Persique et d'Oman est un ... évaporation) et à la paramétrisation de la turbulence est réalisée.</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1208,68 +1208,67 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Rudy Klein</t>
+          <t xml:space="preserve">  Séka Simplice Kouassi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Alain Ghizzo, Etienne Gravier</t>
+          <t xml:space="preserve">  Sylvie Rossignol, Jonas Andji</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Physique des plasmas</t>
+          <t xml:space="preserve">  Matériaux céramiques et traitements de surface</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 19/09/2006
-Soutenance le 12/11/2009</t>
+          <t xml:space="preserve">  Soutenance en 2011</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université de Lorraine</t>
+          <t xml:space="preserve">  Limoges en cotutelle avec Abidjan</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Le modèle gyro-water-bag appliqué à l'étude des instabilités dans les plasmas magnétisés</t>
+          <t xml:space="preserve">  autre partenaire </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Energie, Mécanique, Matériaux</t>
+          <t>L’utilisation des déchets de verre comme renforts ou liant (solution de water glass), pour l’élaboration de nouveaux matériaux, implique une meilleure compréhension de la réactivité des espèces siliceuses en milieu basique. Pour répondre à ces préoccupations, deux types d’études ont été développées : l’attaque basique de verre et la synthèse de matériaux consolidés à base de gel silicatés. Les diverses analyses (suivis gravimétrique et chimique, spectroscopie infrarouge, microscopie électronique à balayage) en fonction des différents paramètres (température, granulométrie du verre, agitation, nature de la base, temps. . ) ont révélé qu’il était possible de maîtriser la dissolution du verre et donc le rapport molaire Si/Na de la solution de water glass. Les études de consolidation des systèmes granulaires (silice-sable-gel) ont permis d’identifier des domaines dépendant de la granulométrie de SiO2. Les mécanismes de consolidation se font par une compétition entre du séchage par capillarité et des réactions de polycondensation entrainant des mécanismes de dissolution / précipitation des composés siliceux.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
+          <t>Etude de la dissolution d'un réseau silicaté en présence d'une solution alcaline</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Etienne Gravier, Yanick Sarazin</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peter Beyer, Jean-marcel Rax</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1279,7 +1278,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UNIVERSITE DE LORRAINE</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1304,7 +1303,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>L’utilisation des déchets de verre comme renforts ou liant (solution ... entrainant des mécanismes de dissolution / précipitation des composés siliceux.</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1319,12 +1318,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Monruedee Asavaplungkul Saisingha</t>
+          <t xml:space="preserve">  Nicole Haroun</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Édith Parlier-Renault</t>
+          <t xml:space="preserve">  Jean-François Landrier, Lourdes Mounien</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1334,57 +1333,57 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Histoire de l'art</t>
+          <t xml:space="preserve">  Biologie santé. Pathologie vasculaire et nutrition</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 15/04/2015</t>
+          <t xml:space="preserve">  Soutenance le 22/07/2022</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 4</t>
+          <t xml:space="preserve">  Aix-Marseille</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Le Râmakîen est une des œuvres littéraires les plus importantes du royaume thaïlandais. Reprenant l’épopée indienne de Vâlmîki, le Râmâyana, il revêt une grande importance à la cour royale et sa popularité est considérable dans toute l’Asie du Sud-Est. Au Wat Phra Kèo, ses épisodes ont été intégralement illustrés sur le mur de la galerie. La thèse ne prend en compte que les parties figurant les dix incarnations de Viṣṇu et la naissance des dieux hindous et des personnages de l’épopée. Ces épisodes nous amènent au prélude du Râmakîen et l’étude s’arrête au moment du retour du roi Jânaka à Mithilâ. Il nous a fallu opérer des rapprochements entre ces peintures et le Tamrâ Thewarûp, les albums d’iconographie brahmanique, ainsi que le Tamrâ Thewapâng, recueil de légendes sur la naissance des dieux et les incarnations de Viṣṇu. Ces rapprochements étaient nécessaires car tous les épisodes représentés à Wat Phra Kèo ne sont pas racontés dans le Râmakîen tel que le relate la version du roi Râma I. L’omniprésence des scènes empruntées à l’épopée, en particulier celles des dix incarnations de Viṣṇu et des dieux hindous dans les temples importants de Bangkok fondés par les rois ou par leurs proches au début de la période de Ratanakosin, s’explique par la grande importance accordée par ces souverains à l’incarnation de Viṣṇu en Râma. Le royaume thaïlandais adopta par ailleurs les rites brahmaniques pratiqués à la cour khmère. Une récapitulation des témoignages iconographiques sur l’épopée au Cambodge, au Laos et au Myanmar complète notre étude.</t>
+          <t xml:space="preserve">  École Doctorale Sciences de la Vie et de la Santé (Marseille)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Le Râmâyana dans les peintures du temple du Buddha d'Émeraude (Wat Phra Kèo) à Bangkok : sources, contexte, prolongements</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Histoire de l’art et archéologie (Paris ; 1992-....)</t>
+          <t>La VD joue un rôle crucial dans le développement périnatal. Mais la VDD est devenue un problème de santé publique mondial, en particulier chez les femmes enceintes. De plus, il existe un lien entre la VD et le WAT, et du foie puisque de faibles concentrations de 25(OH)D sont lié à l'obésité et à la SH. L'objectif de cette thèse est de souligner les interactions qui existent entre la VDD maternelle et un régime HF et la programmation potentielle d'une inflammation dans le WAT et la présence d'une accumulation de lipides conduisant à une NAFLD chez la progéniture. D'abord chez les adultes avec LF ou HF, l'adiposité, les niveaux d'expression des ARN et des miARN et les voies de signalisation ont été étudiés dans le WAT. Chez les mâles VDD HF l'adiposité et l'expression des ARN et des miARN liés à l'inflammation ont augmenté, avec une surexpression des voies inflammatoires, surtout la voie de signalisation NF-kB. Par contre chez les femelles VDD pas de modifications significative des voies inflammatoires n'ont été observée. Nous avons ensuite étudié l'effet de la VDD maternelle sur l'accumulation des lipides hépatiques. Chez les adultes, les profils morphologiques, histologiques, et lipidomique du foie ont été étudiés. En résumé, nos résultats révèlent une relation entre une augmentation de la masse lipidique totale, une réduction de la quantité de TG et une augmentation des lipides membranaires chez les mâles VDD HF, alors que le résultats des femelles n'était pas modifié. Ainsi la VDD maternelle avec à un HF active la voie inflammatoire dans le WAT de la progéniture et entraîne une programmation du métabolisme lipidique hépatique, d'une manière dépendante du sexe.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
+          <t>Carence maternelle en vitamine D chez la souris : conséquences sur l'inflammation du tissu adipeux blanc et la stéatose hépatique dans la descendance</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>Missing Value</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Gilles Delouche, Valérie Zaleski</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Christine Feillet-Coudray</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Jérémie Talvas, Catherine Riva-Lavieille</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1414,7 +1413,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Le Râmakîen est une des œuvres littéraires les plus importantes ... au Cambodge, au Laos et au Myanmar complète notre étude.</t>
+          <t>La VD joue un rôle crucial dans le développement périnatal. ... programmation du métabolisme lipidique hépatique, d'une manière dépendante du sexe.</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1429,12 +1428,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Meissa M'Baye</t>
+          <t xml:space="preserve">  Jean-Philippe Heuzé</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Christophe Berthon, Diaraf Seck</t>
+          <t xml:space="preserve">  M. Leveque</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1444,52 +1443,52 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques appliquées</t>
+          <t xml:space="preserve">  Sciences biologiques et fondamentales appliquées. Psychologie</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 24/03/2022</t>
+          <t xml:space="preserve">  Soutenance en 1995</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Nantes Université en cotutelle avec Université Cheikh Anta Diop (Dakar, Sénégal ; 1957-....)</t>
+          <t xml:space="preserve">  Dijon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Le but de ce travail est de construire une nouvelle classe de schémas de type Godunov préservant toutes les solutions stationnaires du système de Saint-Venant avec terme source de topographie. Dans un premier temps, nous rappelons des éléments sur les propriétés et l’algèbre du modèle étudié. Ensuite, nous dérivons deux schémas de type Godunov. Le premier schéma préserve la positivé de la hauteur d’eau, capture toutes les solutions stationnaires et traite les transitions entre zones mouillées et zones sèches. Cependant, ce schéma capture également des chocs stationnaires non entropiques. Le deuxième schéma développé permet de corriger le défaut d’entropie. Ce schéma préserve la positivé de la hauteur d’eau et capture toutes les solutions stationnaires sans transition de régime entre écoulement fluvial et écoulement torrentiel. De plus, ce second schéma ne capture pas les chocs stationnaires non entropiques. Des critères de stabilité faible entropique ont été établis pour les deux schémas. Enfin, nous proposons une extension du second ordre de type MUSCL qui préserve tous les états stationnaires et des expériences numériques sont présentées afin de confirmer nos propos.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Contributions aux schémas préservant des solutions stationnaires à vitesse non nulle pour les équations shallow-water.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Mathématiques et sciences et technologies de l'information et de la communication (Rennes)</t>
+          <t>Notre travail présente trois démarches originales d'implication psychologique auprès d'équipes nationales de water-polo. Nous privilégions une perspective systémique de la préparation psychologique et adoptons une attitude clinique pour comprendre chaque sujet, comme l'équipe, dans sa totalité, en situation, en évolution et en interaction. Notre méthodologie comporte une phase d'imprégnation et d'investigation, suivie d'une phase de restitution et de contribution à l'optimisation des performances des joueurs. Pour chacune de nos implications, nous exposons et discutons les résultats de notre investigation. Puis nous décrivons les stratégies mises en oeuvre auprès de chacune de ces équipes. Notre conclusion générale suggère des éléments d'une meta-analyse de l'intervention du psychologue auprès d'athlètes.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Implication psychologique auprès d'équipes nationales dans un sport collectif. L'exemple du water-polo</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Françoise Foucher, Victor Michel-Dansac, Jean de Dieu Zabsonré</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jean-Marc Hérard, Ousmane Seydi</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1524,7 +1523,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Le but de ce travail est de construire une nouvelle ... des expériences numériques sont présentées afin de confirmer nos propos.</t>
+          <t>Notre travail présente trois démarches originales d'implication psychologique auprès d'équipes ... des éléments d'une meta-analyse de l'intervention du psychologue auprès d'athlètes.</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1539,72 +1538,72 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Andrea Dominguez palacios</t>
+          <t xml:space="preserve">  Anita De Donato</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Marie-noelle Simon, Jesus Gil</t>
+          <t xml:space="preserve">  Barbara Casciarri, Mauro Van Aken</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Biologie-Santé - Spécialité Recherche Clinique et Santé Publique</t>
+          <t xml:space="preserve">  Anthropologie</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 01/09/2023</t>
+          <t xml:space="preserve">  Soutenance le 29/10/2018</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Aix-Marseille</t>
+          <t xml:space="preserve">  Paris 8 en cotutelle avec Università degli studi di Milano - Bicocca</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>L'objectif de ce projet est d'évaluer l'efficacité de l'expression dépendante du promoteur p21 de la transcriptase inverse de la télomérase (TERT) et des sénolytiques pour traiter les troubles métaboliques causés par un régime riche en graisses (HFD). Les régimes riches en graisses conduisent à une accumulation de cellules sénescentes dans le tissu adipeux blanc (WAT), entraînant une inflammation accrue et des troubles métaboliques tels que l'insulino-résistance. La phase initiale du projet vise à étudier le rôle de la télomérase dans l'atténuation des dommages causés par le HFD. Le raccourcissement des télomères a été identifié depuis longtemps comme un facteur majeur conduisant à la sénescence cellulaire, principalement par l'activation de la voie p21-p53 (Wang et al., 2021a). De plus, des recherches récentes suggèrent que l'attrition des télomères chez les progéniteurs des adipocytes peut prédisposer les individus à des maladies métaboliques (Gao et al., 2020). Des études ont montré que l'élimination des cellules p21high (Cdkn1a) peut améliorer l'inflammation du WAT et la sensibilité à l'insuline chez les souris obèses (Wang et al., 2021b). Cependant, on sait encore peu de choses sur le fait de contrecarrer le raccourcissement des télomères et s'il pourrait avoir des effets bénéfiques similaires. Le laboratoire CRCM a généré deux modèles de souris appelés p21+/Tert et p21+/TertCi qui expriment soit la télomérase inverse de la télomérase (Tert) soit une Tert inactive catalytiquement (TertCi) sous le contrôle du promoteur p21 (Cdkn1a). Les souris p21+/Tert possèdent un allèle produisant à la fois p21 et mCherry (un chromatophore) et un autre allèle produisant la télomérase (TERT). En conséquence, ces souris présentent une accumulation réduite de cellules sénescentes, et l'expression accrue de la télomérase permet le maintien des télomères à une longueur constante. Bien que ces souris aient montré des résultats prometteurs dans le traitement des maladies pulmonaires, il reste à savoir si cettes strategies peuvent également être efficaces dans le traitement des troubles métaboliques. Dans cette étude, les souris p21+/mCh sous un régime standard seront utilisées comme groupe témoin, tandis que les souris p21+/mCh, p21+/Tert et p21+/TertCi sous un HFD seront comparées sur une période de huit semaines. L'analyse du tissu adipeux sera effectuée par analyse de cellules uniques pour caractériser la fraction stromale du tissu adipeux blanc (WAT) chez les souris p21+/Tert et p21+/TertCi soumises au HFD. Les données obtenues à partir de ces résultats aideront à déterminer les mécanismes sous-jacents responsables de la réduction de l'expression des gènes inflammatoires et des interactions potentielles entre les types de cellules, en mettant particulièrement l'accent sur les cellules souches mésenchymateuses du tissu adipeux (AdMSCs) et les populations de macrophages. Pendant la deuxième phase du projet, l'efficacité des sénolytiques, en particulier des inhibiteurs de COPI, pour réduire les conséquences de la sénescence cellulaire accrue causée par le HFD, sera évaluée. Les sénolytiques ont montré des résultats prometteurs dans l'élimination sélective des cellules sénescentes et ont un potentiel pour traiter les maladies liées à l'âge. L'équipe du Dr Gil a développé une nouvelle classe de sénolytiques, les inhibiteurs de COPI, qui se sont révélés efficaces contre un large spectre de cellules sénescentes in vitro. Cependant, leur efficacité in vivo doit encore être testée. Cette étude analysera également les effets des inhibiteurs de COPI sur des souris obèses induites par un régime alimentaire, en explorant leur impact sur le foie et en comparant leurs effets avec les souris p21+/Tert et p21+/TertCi. Pour la dernière phase du projet, le foie des mêmes modèles de souris nourris avec un HFD prolongé sera analysé. Des analyses histologiques, de RNA-seq, des télomères et de la télomérase seront réalisées dans le tissu hépatique par l'équipe du CRCM, tandis que l'équipe du LMS se concentrera sur l'expression de p21 et p16, la sénescence cellulaire et l'inflammation. De manière similaire à l'analyse du WAT, le paysage immunitaire dans le foie de chaque groupe de souris nourries avec un SD ou un HFD sera étudié en utilisant des analyses de cellules uniques et la cytométrie en flux. Les résultats de cette analyse seront utiles pour traiter des maladies telles que la stéatose hépatique non alcoolique (NAFLD). Dans l'ensemble, ce projet vise à révéler de nouvelles perspectives sur les liens mécaniques entre le vieillissement et l'obésité pour promouvoir un vieillissement en bonne santé.</t>
+          <t xml:space="preserve">  École doctorale Sciences sociales (Saint-Denis, Seine-Saint-Denis ; 2000-....)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Traitement des troubles métaboliques causés par les régimes riches en matières grasses avec l'expression dépendante du promoteur p21 de TERT ou NMT1</t>
+          <t xml:space="preserve">  Equipe de recherche </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École Doctorale Sciences de la Vie et de la Santé (Marseille)</t>
+          <t>Cette thèse porte sur l'analyse de la gestion de l'eau potable et de l’eau de source utilisée pour l'irrigation dans le village rural de Wādī Fūkīn (Cisjordanie). Il s’agit d’une étude des dialectiques entre des stratégies de pouvoir globales, coloniales et nationales mises en place à travers des politiques hydrauliques et des pratiques locales de résistance, qui définissent les significations de communauté, localité, de l'État et de la citoyenneté. Cette étude montre que les Palestiniens sont soumis à une condition de “pluralisme d'État” produite par le chevauchement et l'interaction entre les structures de pouvoir de l'État israélien, de l'ANP (Autorité Nationale Palestinienne) et du système du développement. Les projets de modernisation des réseaux d'eau potable de l’État d’Israël et ceux de l'ANP, ainsi que les techniques d'agriculture et d’irrigation intensives promues par les acteurs du développement sont considérés comme des dispositifs techno-politiques visant à l’instauration des ordres politiques et économiques particuliers.Les agriculteurs locaux résistent à ces stratégies de pouvoir en mettant en valeur leur système de gestion de l’eau et leur savoir-faire agricole, qui expriment de revendications d'autonomie et de justice socio-écologique.L'analyse de la gestion locale de l’eau de source révèle le caractère « moderne » des formes d'appartenance tribale, qui sont montrées comme un langage de solidarité pour lutter pour l'autodétermination face aux structures de pouvoir israéliennes et de l'ANP. Cette étude est une contribution au débat sur les relations entre l’organisation politique tribale et l'État moderne.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Spring Water : the Lifeblood of the Village of Wadi Fukin (West Bank)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Cédric Parizot, Paola Sacchi</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRCM - E10 - Télomères et Chromatine</t>
+          <t xml:space="preserve"> Pierre Blanc</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1634,7 +1633,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>L'objectif de ce projet est d'évaluer l'efficacité de l'expression dépendante ... vieillissement et l'obésité pour promouvoir un vieillissement en bonne santé.</t>
+          <t>Cette thèse porte sur l'analyse de la gestion de l'eau ... sur les relations entre l’organisation politique tribale et l'État moderne.</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1649,12 +1648,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ANNE LE CALVE</t>
+          <t xml:space="preserve">  Isabelle Coste-Villena</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Louis Danicher</t>
+          <t xml:space="preserve">  Jean-Michel Pinon</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1664,42 +1663,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences et techniques</t>
+          <t xml:space="preserve">  Médecine. Biologie parasitaire</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1999</t>
+          <t xml:space="preserve">  Soutenance en 2004</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université Louis Pasteur (Strasbourg) (1971-2008)</t>
+          <t xml:space="preserve">  Reims</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Des procedes de synthese par polycondensation interfaciale ont ete mis au point pour obtenir des microcapsules ( = 1-10 m) et des minicapsules ( = 100-300 m) en polyamide semi-aromatique (pa 6-t) formees soit a partir d'une dispersion inverse (water-in-oil) soit a partir d'une dispersion directe (oil-in-water) grace a l'emploi de tensioactifs appropries. Des montages specifiques ont ete elabores pour synthetiser des membranes modeles plus faciles a caracteriser, realisables avec ou sans tensioactif : les millicapsules ( = 1-5 mm) et les films plans ( = ). La determination des caracteristiques de ces membranes (capsules et films plans) a ete effectuee : distribution en taille et composition en poids des capsules, morphologie et epaisseur de la membrane, caracteristiques intrinseques du polyamide lineaire semi-cristallin (longueur des chaines, temperature de transition vitreuse et de fusion). Cette etude a ete realisee en observant l'influence du temps de reaction, du taux de reticulation du polyamide et de la presence ou non du tensioactif. La permeabilite et la resistance mecanique des mini- et des microcapsules inverses ont egalement ete etudiees en fonction du diametre des capsules, de leur epaisseur et de la presence d'une fraction de reticulant dans leur membrane. Des minicapsules immergees dans une solution aqueuse de polyoxyethylene ont permis d'extraire ce solute. Le suivi de la liberation de macromolecules de polyacrylamide ou de polysaccharide, prealablement encapsulees, a montre que la diffusion de ces polymeres a travers la membrane des capsules depend de leur epaisseur et de leur diametre. Finalement, des observations qualitatives de la resistance mecanique de la membrane des mini- et des microcapsules inverses soumises a une irradiation ultrasonore et a d'autres sollicitations ont ete effectuees.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Synthese par polycondensation interfaciale de microcapsules en polyamide. Relations entre la structure controlee de la membrane et ses proprietes</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Waterborne parasitic diseases are well identified, but they are few evaluated at present in France. Detection of main parasites, as Cryptosporidium oocysts and Giardia cysts, in water is well standardized. Because convergent problematic between oocysts of Cryptosporidium and Toxoplasma gondii we evaluate its implication in waterborne parasitic risks. After an experimental evaluation of risk, we describe the strategy to rapid detection of T. Gondii oocysts in water. We developed a methodology used for Cryptosporidium and Giardia detection: filtration of water samples, purification and elution of parasites, detection by bioassay and molecular biology. We then applied and validated this method in experimental and environmental conditions. We report our experience of 3 years survey in Champagne-Ardenne Region. Toxoplasmic DNA was present in 5% of samples. We purpose techniques assays for development of sentry detection method valuable in environmental conditions by sanitary authorities.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Risques environnementaux parasitaires d'origine hydrique et incidence de Toxoplasma Gondii</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1744,7 +1743,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Des procedes de synthese par polycondensation interfaciale ont ete mis ... une irradiation ultrasonore et a d'autres sollicitations ont ete effectuees.</t>
+          <t>Waterborne parasitic diseases are well identified, but they are few ... sentry detection method valuable in environmental conditions by sanitary authorities.</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1759,67 +1758,67 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Lian Guey Ler</t>
+          <t xml:space="preserve">  Andrea Dominguez palacios</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Philippe Gourbesville, Gyewoon Choi</t>
+          <t xml:space="preserve">  Marie-noelle Simon, Jesus Gil</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences et technologies de l'information et de la communication</t>
+          <t xml:space="preserve">  Biologie-Santé - Spécialité Recherche Clinique et Santé Publique</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 11/06/2018</t>
+          <t xml:space="preserve">  Inscription en doctorat le 01/09/2023</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université Côte d'Azur (ComUE) en cotutelle avec Université nationale d'Incheon</t>
+          <t xml:space="preserve">  Aix-Marseille</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Les objectifs principaux de cette thèse sont d'identifier les défis et stratégies afin de mettre en œuvre des solutions de Résilience et de Smart Water Management au niveau des politiques et sur le terrain pour une gestion efficace de l'eau. Au cours de la prochaine décennie, plus de 4 milliard de personnes dans le monde vivront dans des zones de pénurie d'eau, et plus des deux tiers de la population mondiale seront confrontés à des conditions de stress hydrique. Cette pénurie d'eau future nécessite une action immédiate sur le développement des ressources, la réduction de la demande et une plus grande efficacité dans le traitement et la transmission. En outre, la gestion future des risques d'inondation nécessite des mesures immédiates dans les domaines de l'évaluation des risques, des systèmes de défense et d'atténuation, des systèmes de prévision et d'alerte, et des mesures institutionnelles et de gouvernance. Avec les impacts du changement climatique, les événements extrêmes seront plus fréquents et sévères. En conséquence, il est nécessaire d'adopter des stratégies alternatives plutôt qu’une approche traditionnelle « prédire et prévenir », qui se concentre principalement sur la réduction de la probabilité d'apparition de perturbations; ce type d'approche a souvent conduit à une construction extensive de digues de protection, à des protections contre les inondations et à d'autres solutions structurelles le long des rivières et des plaines inondables, créant un faux sentiment de sécurité qui augmente la vulnérabilité aux conséquences d'éventuelles inondations. La première moitié de la thèse explore diverses applications des stratégies de résilience aux inondations et les solutions disponibles qui sont et qui peuvent être mises en œuvre pour atténuer les impacts des inondations. L'efficacité des solutions de résilience aux inondations est également examinée, grâce à des simulations hydrologiques hydrauliques d'une étude de cas réelle en Corée du Sud. À partir de cette analyse, des conseils et des stratégies sont développées : la gestion intelligente de l'eau s’avère être un outil permettant la mise en œuvre de solutions de résilience aux inondations, et offrant d’importantes synergies avec les concepts de résilience aux inondations. La seconde moitié de la thèse explore le concept de Smart Water Management et examine les technologies nécessaires à sa mise en œuvre, ainsi que les défis et limites de ces technologies. Des études de cas sur des projets réussis de mise en œuvre de gestion intelligente de l’eau sont étudiées et utilisées pour valider l'orientation et les plans d'action pour la mise en œuvre de gestion intelligente de l’eau. De plus, un cadre de mise en œuvre du système d’eau intelligent pour une ville urbaine est proposé, comprenant le système de demande en eau et le système d'approvisionnement en eau, ainsi qu'un indicateur de détection de fuites pour le système d'approvisionnement en eau. Enfin, on examine l'importance des connexions intelligentes entre les différents domaines d'une ville intelligente avec le système d'eau intelligent et comment ces connexions se produisent dans le système d'eau intelligent.</t>
+          <t xml:space="preserve">  École Doctorale Sciences de la Vie et de la Santé (Marseille)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Résilience et smart water management : stratégies de mise en œuvre pour les villes intelligentes</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences et technologies de l'information et de la communication (Nice ; 1992-....)</t>
+          <t>L'objectif de ce projet est d'évaluer l'efficacité de l'expression dépendante du promoteur p21 de la transcriptase inverse de la télomérase (TERT) et des sénolytiques pour traiter les troubles métaboliques causés par un régime riche en graisses (HFD). Les régimes riches en graisses conduisent à une accumulation de cellules sénescentes dans le tissu adipeux blanc (WAT), entraînant une inflammation accrue et des troubles métaboliques tels que l'insulino-résistance. La phase initiale du projet vise à étudier le rôle de la télomérase dans l'atténuation des dommages causés par le HFD. Le raccourcissement des télomères a été identifié depuis longtemps comme un facteur majeur conduisant à la sénescence cellulaire, principalement par l'activation de la voie p21-p53 (Wang et al., 2021a). De plus, des recherches récentes suggèrent que l'attrition des télomères chez les progéniteurs des adipocytes peut prédisposer les individus à des maladies métaboliques (Gao et al., 2020). Des études ont montré que l'élimination des cellules p21high (Cdkn1a) peut améliorer l'inflammation du WAT et la sensibilité à l'insuline chez les souris obèses (Wang et al., 2021b). Cependant, on sait encore peu de choses sur le fait de contrecarrer le raccourcissement des télomères et s'il pourrait avoir des effets bénéfiques similaires. Le laboratoire CRCM a généré deux modèles de souris appelés p21+/Tert et p21+/TertCi qui expriment soit la télomérase inverse de la télomérase (Tert) soit une Tert inactive catalytiquement (TertCi) sous le contrôle du promoteur p21 (Cdkn1a). Les souris p21+/Tert possèdent un allèle produisant à la fois p21 et mCherry (un chromatophore) et un autre allèle produisant la télomérase (TERT). En conséquence, ces souris présentent une accumulation réduite de cellules sénescentes, et l'expression accrue de la télomérase permet le maintien des télomères à une longueur constante. Bien que ces souris aient montré des résultats prometteurs dans le traitement des maladies pulmonaires, il reste à savoir si cettes strategies peuvent également être efficaces dans le traitement des troubles métaboliques. Dans cette étude, les souris p21+/mCh sous un régime standard seront utilisées comme groupe témoin, tandis que les souris p21+/mCh, p21+/Tert et p21+/TertCi sous un HFD seront comparées sur une période de huit semaines. L'analyse du tissu adipeux sera effectuée par analyse de cellules uniques pour caractériser la fraction stromale du tissu adipeux blanc (WAT) chez les souris p21+/Tert et p21+/TertCi soumises au HFD. Les données obtenues à partir de ces résultats aideront à déterminer les mécanismes sous-jacents responsables de la réduction de l'expression des gènes inflammatoires et des interactions potentielles entre les types de cellules, en mettant particulièrement l'accent sur les cellules souches mésenchymateuses du tissu adipeux (AdMSCs) et les populations de macrophages. Pendant la deuxième phase du projet, l'efficacité des sénolytiques, en particulier des inhibiteurs de COPI, pour réduire les conséquences de la sénescence cellulaire accrue causée par le HFD, sera évaluée. Les sénolytiques ont montré des résultats prometteurs dans l'élimination sélective des cellules sénescentes et ont un potentiel pour traiter les maladies liées à l'âge. L'équipe du Dr Gil a développé une nouvelle classe de sénolytiques, les inhibiteurs de COPI, qui se sont révélés efficaces contre un large spectre de cellules sénescentes in vitro. Cependant, leur efficacité in vivo doit encore être testée. Cette étude analysera également les effets des inhibiteurs de COPI sur des souris obèses induites par un régime alimentaire, en explorant leur impact sur le foie et en comparant leurs effets avec les souris p21+/Tert et p21+/TertCi. Pour la dernière phase du projet, le foie des mêmes modèles de souris nourris avec un HFD prolongé sera analysé. Des analyses histologiques, de RNA-seq, des télomères et de la télomérase seront réalisées dans le tissu hépatique par l'équipe du CRCM, tandis que l'équipe du LMS se concentrera sur l'expression de p21 et p16, la sénescence cellulaire et l'inflammation. De manière similaire à l'analyse du WAT, le paysage immunitaire dans le foie de chaque groupe de souris nourries avec un SD ou un HFD sera étudié en utilisant des analyses de cellules uniques et la cytométrie en flux. Les résultats de cette analyse seront utiles pour traiter des maladies telles que la stéatose hépatique non alcoolique (NAFLD). Dans l'ensemble, ce projet vise à révéler de nouvelles perspectives sur les liens mécaniques entre le vieillissement et l'obésité pour promouvoir un vieillissement en bonne santé.</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  établissement de préparation </t>
+          <t>Traitement des troubles métaboliques causés par les régimes riches en matières grasses avec l'expression dépendante du promoteur p21 de TERT ou NMT1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Philippe Gourbesville, Gyewoon Choi, Manuel Gomez Valentin, Shie Yui Liong, Jung-Kyu Ahn, Philippe Audra, Dongwook Kim</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Manuel Gomez Valentin, Shie Yui Liong</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1829,12 +1828,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> CRCM - E10 - Télomères et Chromatine</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Polytech'Lab - Laboratoire de Polytech Nice-Sophia</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1854,7 +1853,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Les objectifs principaux de cette thèse sont d'identifier les défis ... comment ces connexions se produisent dans le système d'eau intelligent.</t>
+          <t>L'objectif de ce projet est d'évaluer l'efficacité de l'expression dépendante ... vieillissement et l'obésité pour promouvoir un vieillissement en bonne santé.</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1869,12 +1868,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sereyvathana Sok</t>
+          <t xml:space="preserve">  Laura Gouriou</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Dominique Wolbert</t>
+          <t xml:space="preserve">  Géraldine Gouhier</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1889,37 +1888,37 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 01/12/2023</t>
+          <t xml:space="preserve">  Inscription en doctorat le 28/09/2022</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université de Rennes (2023-....)</t>
+          <t xml:space="preserve">  Normandie</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t xml:space="preserve">  École doctorale normande de chimie (Caen)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Removal Organic Micropollutants by Coupling Simultaneous Continuous Adsorption and Sedimentation for Drinking Water Production</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Science de la Matière, des Molécules et Matériaux</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
+          <t>New Ferromagnetic nanoparticles for water remediation</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1944,7 +1943,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Université de Rouen Normandie (1966-....)</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1979,12 +1978,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Vivien Enjolras</t>
+          <t xml:space="preserve">  GERALDINE MATHIEU GIRARD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Anny Cazenave</t>
+          <t xml:space="preserve">  Jean-Pierre Raymond</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1994,42 +1993,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Océanographie et hydrologie spatiales</t>
+          <t xml:space="preserve">  Physique</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2007</t>
+          <t xml:space="preserve">  Soutenance en 1998</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Toulouse, ENSAE</t>
+          <t xml:space="preserve">  Toulouse 3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>L'observation des océans depuis l'espace s’appuie pour partie sur les radars altimètres, freinés dans leur efﬁcacité par le manque de couverture spatiale et le faible pouvoir résolvant. Nous étudions dans ce travail les solutions technologiques permettant d'améliorer les caractéristiques de fauchée et de résolution de ces instruments, en dégageant de nouvelles perspectives scientiﬁques, notamment dans les domaines de l’altimétrie méso échelle et de l'hydrologie. Ce travail est constitué de trois axes. Le premier axe vise à évaluer les performances de nouveaux instruments radar altimètres à fauchée élargie par technique d'interférométrie, principalement pour l'océanographie. Le concept initial de l'instrument WSOA (Wide Swath Ocean Altimeter) a été revisité, permettant de dégager un point de fonctionnement optimal, au prix d’un léger ajustement des paramètres d’orbite et de quelques paramètres instrumentaux, sans pour autant délaisser les technologies existantes. Le second axe de la thèse est consacré à l'hydrologie et à l’étude des eaux continentales. À travers la proposition de mission WatER (Water Elevation Recovery Satellite Mission) à l'Agence Spatiale Européenne, nous avons imaginé une mission virtuelle officiant sur trois zones distinctes en Europe. Nous avons montré que les objectifs scientiﬁques exigeant des mesures sufﬁsamment précises de hauteur (&lt; 10 cm) et de pente (&lt; 10 µrad) étaient remplis. Le troisième axe de la thèse s’est enﬁn attaché à la manière d'utiliser au mieux les données altimétriques traditionnelles sur les zones d’eaux continentales. Une nouvelle méthode de traitement des formes d’ondes altimétriques nadir a été ébauchée. Les premiers résultats sont encourageants et poussent à poursuivre le développement de cette méthode.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Évaluation des performances des nouveaux instruments radar altimètres imageurs interférométriques spatiaux : application à l'océanographie et à l'hydrologie</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Cette these est consacree a l'etude de problemes de controle frontiere (par des batteurs), pour des ecoulements dans un canal ouvert. Le modele est celui de la theorie shallow water (eau peu profonde) ou equations de saint-venant, muni de conditions de dirichlet non homogenes. Nous demontrons un resultat d'existence globale en temps pour les equations d'etat ecrites en coordonnees lagrangiennes de masse. Contrairement aux equations de la dynamique des gaz, (modele tres proche etudie entre autre par antontsev, kazhikov et monakhov), nous ne pouvons pas utiliser les methodes d'estimations a priori classiques. Ici, pour traiter les conditions aux limites non homogenes, nous supposons la hauteur d'eau bornee superieurement pour l'obtention d'une estimation d'energie. Les estimations sur la hauteur d'eau ne sont etablies qu'a posteriori. Nous etudions ensuite un probleme de controle associe a ces equations. Nous demontrons d'abord l'existence d'un controle optimal. Puis, des theoremes d'existence globale sont etablis pour les equations d'etat, obtenir d'estimations a priori globales, et nous utilisons alors une methode de point fixe. De ces resultats, nous deduisons des conditions necessaires d'optimalite. La deuxieme partie de ce travail est consacree a la mise en uvre d'un algorithme de calcul. Pour cela, nous discretisons les equations d'etat par un schema d'euler explicite en temps. En espace, la partie hyperbolique est discretisee par un schema de godunov, et la partie parabolique par un schema decentre amont. Nous developpons ensuite un algorithme de calcul de controles optimaux. Nous utilisons une methode de descente avec recherche du pas de descente par la methode de wolfe-powell. Les equations adjointes discretes sont deduites par une methode de lagrangien. Differents tests sont effectues sur le code de resolution directe. Pour les problemes de controle, nous cherchons a minimiser un critere mesurant la distance a un profil donne, et nous etudions en particulier des problemes de stabilisation.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Etude et controle des equations de la theorie shallow water en dimension un</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2074,7 +2073,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>L'observation des océans depuis l'espace s’appuie pour partie sur les ... encourageants et poussent à poursuivre le développement de cette méthode.</t>
+          <t>Cette these est consacree a l'etude de problemes de controle ... donne, et nous etudions en particulier des problemes de stabilisation.</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2089,57 +2088,57 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Hugo Laval</t>
+          <t xml:space="preserve">  Laurent Massé</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sylvain Chambon, Guillaume Wantz</t>
+          <t xml:space="preserve">  Jean-Claude Faugères</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Electronique</t>
+          <t xml:space="preserve">  Géologie et océanologie</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 25/10/2021</t>
+          <t xml:space="preserve">  Soutenance en 1993</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bordeaux</t>
+          <t xml:space="preserve">  Bordeaux 1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ce projet fait partie du projet ANR WATER-PV dédié au développement d'encre colloïdales en base aqueuse pour la fabrication de cellules photovoltaïques organiques à forte efficacité. Dans la première partie de ce travail de thèse, nous étudierons le transport de charge à l'échelle de la nanoparticule unique puis dans des assemblages de nanoparticules, en utilisant des transistors organiques à effet de champ. Dans la seconde partie, des cellules solaires organiques seront fabriquées à partir des dispersions aqueuses et leur performances corrélées au transport de charge étudié précédemment.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Contrôle de la morphologie de nanoparticules de semi-conducteurs organiques pour des cellules solaires photovoltaïques fabriquées par encres aqueuses.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale des sciences physiques et de l’ingénieur (Talence, Gironde ; 1995-....)</t>
+          <t>Des etudes sedimentologiques et geochimiques detaillees ont ete effectuees sur des prelevements realises dans les zones profondes de deux domaines oceaniques de l'atlantique ouest. Elles montrent que l'importance relative des facteurs controlant la repartition des flux sedimentes varie en fonction de l'aire geographique consideree. Le role de la morphologie et des variations climatiques est preferentiellement marque au niveau du prisme sud-barbade. En revanche, les circulations profondes, et en particulier l'antarctic bottom water en provenance des hautes latitudes sud, jouent un role majeur dans le bassin sud-bresilien. Une reconstitution paleohydrologique montre que les periodes d'intensification des circulations liees a cette masse d'eau montrent des liens complexes avec les changements climatiques globaux (periodes glaciaires et interglaciaires)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Sédimentation océanique profonde au quaternaire : flux sédimentés et paléocirculations dans l'Atlantique Sud-Ouest : bassin Sud-brésilien et prisme d'accrétion sud-Barbade</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2154,7 +2153,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÉLectronique ORGAnique (ELORGA)</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2184,7 +2183,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Ce projet fait partie du projet ANR WATER-PV dédié au ... et leur performances corrélées au transport de charge étudié précédemment.</t>
+          <t>Des etudes sedimentologiques et geochimiques detaillees ont ete effectuees sur ... complexes avec les changements climatiques globaux (periodes glaciaires et interglaciaires)</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2199,12 +2198,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Marko Stipaničev</t>
+          <t xml:space="preserve">  Marie Croquette</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Régine Basséguy</t>
+          <t xml:space="preserve">  Gérard Eldin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2214,42 +2213,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Génie des procédés et de l'environnement</t>
+          <t xml:space="preserve">  Océanographie physique</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 27/08/2013</t>
+          <t xml:space="preserve">  Soutenance en 2007</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Toulouse, INPT</t>
+          <t xml:space="preserve">  Toulouse 3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>L’objectif de ce projet, réalisé dans le cadre du réseau BIOCOR, est de fournir aux opérateurs intervenant dans les systèmes d’injection d’eau, un support amélioré d’aide à la décision. L’implication de composants biologiques dans la corrosion de l’acier au carbone ainsi que les synergies potentielles avec d’autres éléments (contrainte mécanique, propriétés intrinsèques du matériau…) ont été étudiées. Les travaux ont montré que la production du sulfure (une réelle menace pour l’acier) par voie biologique avait différentes origines dans l’eau de mer, les différents taux de production pouvant déterminer diverses cinétiques et morphologies de la corrosion. Les paramètres clé sont la disponibilité des accepteurs d’électrons et la température du milieu environnant. Les bactéries sulfato-réductrices (BSR) sont responsables d’attaques plus sévères que les bactéries sulfidogéniques ou du genre Clostridium, deux groupes identifiés dans le système étudié. L’activité microbienne affecte également les processus de minéralisation qui ont lieu naturellement à la surface de l’acier doux, conduisant à des architectures composées de minéraux à base de fer II et III, comme le sulfure de fer, la magnétite, les oxy-hydroxydes de fer, la chukanovite et la rouille verte (sulfatée ou carbonatée) ainsi que des dépôts calcaires. Les couches internes de ces structures peuvent constituer un habitat favorable, dans lequel les BSR peuvent se développer en utilisant le sulfate de la rouille verte sulfatée comme accepteur terminal d’électrons pour leur respiration dissimilatrice. Ce processus conduit à la dégradation continue de l’acier. Enfin, l’influence de la microstructure du matériau et l’impact du stress mécanique sur la biocorrosion ont été identifiés : les joints de grains et les inclusions jouent un rôle important dans les premières étapes de la corrosion, qui s’estompe avec le temps d’immersion. Un taux élevé de bactéries couplé à une contrainte mécanique conduit à une augmentation de la détérioration sans toutefois révéler des mécanismes nouveaux par rapport à l’absence de contrainte. De plus, l’activité sulfidogénique des bactéries ne semble pas conduire aux mécanismes de rupture par fissuration (Stress Corrosion Cracking). En conclusion, les résultats de ce travail indiquent les situations qui pourraient (ou non) conduire à s’écarter de la ‘fenêtre de sécurité’ pour un système donné.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Improved decision support within biocorrosion management for Oil and Gas water injection systems</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Mécanique, énergétique, génie civil et procédés (Toulouse)</t>
+          <t>La variabilité et la dynamique de l'upwelling côtier du Nord du Pérou au Sud du Chili (50°S) et des courants associés (CPCC Chile Peru coastal Current et PCUC Peru-Chile Undercurrent) ont été étudiées à l'aide de données satellites et de modèles numériques. Les caractéristiques des variations le long de la côte sont séparées par une zone de transition autour de 20°S où les vents, l'upwelling et le PCUC sont particulièrement faibles. Les origines des eaux du PCUC et de l'upwelling ont également été étudiées à l'aide d'outils lagrangiens et les transports ont été quantifiés. Trois sources ont été identifiées : l'EUC (Equatorial Undercurrent), les SSCC (Southern Sub-Surface Counter Current) et une troisième source au Sud du Chili, liée à l'ESPIW (Eastern South Pacific Intermediate Water).</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Contribution à l'étude de l'upwelling du Pérou Chili</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2294,7 +2293,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>L’objectif de ce projet, réalisé dans le cadre du réseau ... s’écarter de la ‘fenêtre de sécurité’ pour un système donné.</t>
+          <t>La variabilité et la dynamique de l'upwelling côtier du Nord ... du Chili, liée à l'ESPIW (Eastern South Pacific Intermediate Water).</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2309,12 +2308,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Christine Ranjan</t>
+          <t xml:space="preserve">  Hélène Giouse</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Hyacinthe Randriamahazaka</t>
+          <t xml:space="preserve">  Marcel Arnould</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2324,52 +2323,52 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Chimie</t>
+          <t xml:space="preserve">  Terre, océan, espace</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 25/10/2022</t>
+          <t xml:space="preserve">  Soutenance en 1987</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université Paris Cité</t>
+          <t xml:space="preserve">  Paris, ENMP</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Le défi important du XXIe siècle est le réchauffement climatique dû à des décennies d'industrialisation massive en utilisant des énergies fossiles. Cette prise de conscience sur ces questions environnementale s’est traduite par les engagements politiques pris lors de la conférence de Paris de 2015 sur les changements climatiques (COP21). Ainsi, le développement des énergies renouvelables devient une priorité absolue pour notre société. Dans ce contexte, il est primordial de développer d’une manière durable des systèmes de production et de stockage d’énergie. Parmi les dispositifs pouvant répondre à ce défi, les systèmes de stockage d'énergie électrochimique comme les batteries, les piles à combustible et les supercondensateurs jouent un rôle important. L'élément clé pour le développement du stockage d'énergie durable est l'étude des matériaux utilisés pour l'élaboration de l'électrode, car la nature des matériaux conditionne l'efficacité du dispositif. En effet, les systèmes de stockage d'énergie électrochimique mettent en jeu des réactions électrochimiques se déroulant sur les électrodes. Il est alors important d’optimiser les performances telle la capacité à stocker des charges et les propriétés catalytiques. De plus, les matériaux choisis doivent être non seulement abondants et peu onéreux, mais également respectant les contraintes environnementales. Afin d’améliorer les performances des systèmes électrochimiques de stockage d’énergie, on assiste à l'émergence d'un dispositif hybride combinant les propriétés des batteries (énergie élevée, mais faible puissance) et des supercondensateurs (forte puissance, mais faible énergie). Il s’agit de la supercabatterie qui permet d’obtenir une puissance et une énergie élevées. Ces propriétés permettront d'obtenir un appareil doté d’une durée de vie et d’une puissance d'impulsion plus longues. L'application de la supercabatterie est principalement les véhicules électriques ou hybrides. Toujours dans le besoin d’énergie pour le transport, on peut citer les piles à combustible à l’hydrogène qui nécessitent une approche durable pour la production de l’hydrogène. L’électrolyse de l’eau est une approche intéressante pour la production d’hydrogène en utilisant le surplus d’énergie obtenue par des sources d’énergies renouvelables telles que l’énergie solaire ou éolienne. Cependant, les cinétiques sont lentes et demandent une énergie d’activation élevée. Ainsi, il est important de développer des catalyseurs pour la réaction de dégagement d'hydrogène (HER) et la réaction de dégagement d'oxygène (OER) qui sont les réactions impliquées dans l’électrolyse de l'eau. Une autre réaction très étudiée est la réaction de réduction de l'oxygène (ORR) pour l'application de batteries de type métal-air</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Electrochemical investigation of functional interfaces and nanomaterials for energy storage : from supercabattery to water splitting</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Chimie physique et chimie analytique de Paris Centre (Paris ; 2000-....)</t>
+          <t>La presence d'argile dispersee dans les reservoirs de petrole greseux pose un probleme d'interpretation des diagraphies de resistivite a cause de leur conductivite de surface. On presente une revue bibliographique des phenomenes physiques mis en jeu au sein du reservoir et une analyse critique des formations existantes: on examine en particulier les formules de waxman et smits et celle du dual water. L'etude experimentale des proprietes petrophysiques des roches magasins met en evidence l'importance de la texture de l'argile. Une nouvelle equation "double conducteur-double effet" est proposee. Des mesures de resistivite sur echantillons partiellement satures en huile ont montre qu'il est necessaire de distinguer plusieurs domaines de saturation en eau avec des lois differentes</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Proprietes petrophysiques et resistivite des gres argileux petroliferes</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eun Ae Cho</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kwami Dodzi Zigah, Sara Cavaliere-Jaricot</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2404,7 +2403,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Le défi important du XXIe siècle est le réchauffement climatique ... de l'oxygène (ORR) pour l'application de batteries de type métal-air</t>
+          <t>La presence d'argile dispersee dans les reservoirs de petrole greseux ... plusieurs domaines de saturation en eau avec des lois differentes</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2419,57 +2418,57 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Saied Dardour</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Françoise Charbit, Philippe Moulin</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences de l'environnement</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2007</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Aix-Marseille 3</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ce travail porte sur la modélisation, la simulation et l'optimisation du couplage entre les réacteurs nucléaires, de type réacteur à eau sous pression et réacteur haute température modulaire, et les procédés de dessalement de type distillation à effets multiples et osmose inverse. Les concepts de réacteurs considérés dans cette étude sont PWR (Pressurized Water Reactor) et GTMHR (Gas Turbine Modular Helium Reactor). Les procédés de dessalement retenus sont MED (Multi Effect Distillation) et SWRO (Sea Water Reverse Osmosis). Ces configurations couplées n'ont pas fait l'objet d'études poussées jusqu'à présent. Un outil logiciel EXCELEES de modélisation thermodynamique des systèmes couplés, basé sur le solveur d'équations algébriques EES (Engineering Equation Solver), a été développé. Des modèles des systèmes de conversion d'énergie et des procédés de dessalement membranaires et à base de distillation ont été développés. Basés sur le premier et le deuxième principes de la thermodynamique, ces modèles ont permis de déterminer le point de fonctionnement optimal des systèmes couplés. L'analyse thermodynamique a été complétée par une première évaluation économique. Basée sur l'utilisation de l'outil logiciel DEEP de l'Agence Internationale à l'Energie Atomique, cette évaluation a confirmé l'intérêt d'utiliser ce type de réacteurs pour le dessalement. Un outil de modélisation des procédés thermiques de dessalement en régime dynamique a été également développé. Cet outil a été appliqué à l'étude de la dynamique d'une installation existante et a donné des résultats satisfaisants. Une première vérification de sûreté a été enfin effectuée. Les transitoires pouvant mettre en péril le système intégré ont été identifiés. Un ensemble de mesures visant à consolider la sûreté ont été proposés.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Contribution à l'optimisation du couplage des réacteurs nucléaires aux procédés de dessalement</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Les électrolytes de type "water-in-salt" sont composés d'un sel dissous en très grande quantité dans de l'eau, au point que celle-ci devient minoritaire. Parmi ceux-ci les mélanges employant le bis(trifluoromethane) sulfonimide de lithium (LiTFSI) en tant que sels sont très prometteurs pour des applications de stockage électrochimique de l'énergie. Cependant les propriétés des liquides et des interfaces qu'ils forment ne sont pas encore bien connues. Au cours de cette thèse, nous avons réalisé des simulations de dynamique moléculaire de water-in-salts à base de LiTFSI sur une large gamme de concentration. Sa validité est fortement conditionnée par le champ de forces utilisé pour représenter les interactions entre les atomes, c'est pourquoi dans un premier temps nous avons testé une série de champs de forces issus de la littérature. Celui permettant de reproduire au mieux des mesures de viscosité et de coefficients d'auto-diffusion a alors été retenu. Nous avons ainsi pu déterminer la variation de la coordinence des ions lithium vis-à-vis des molécules d'eau et des ions TFSI avec la concentration. Nous avons pu observer que pour les systèmes les plus concentrés, une déshydratation partielle des ions lithium a lieu, ce qui impacte fortement la viscosité du milieu. Nous avons ensuite simulé des interfaces entre ces liquides et des électrodes de carbone à différents potentiels, ce qui nous a permis de déterminer la capacité de stockage. Nous avons observé une forte dissymétrie entre les électrodes positives et négatives, qui sont attribuées à la différence de taille très marquée entre les cations et les anions.</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Électrolyte de type "water-in-salt" pour les supercondensateurs : étude par dynamique moléculaire</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2514,7 +2513,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Ce travail porte sur la modélisation, la simulation et l'optimisation ... de mesures visant à consolider la sûreté ont été proposés.</t>
+          <t>Les électrolytes de type "water-in-salt" sont composés d'un sel dissous ... de taille très marquée entre les cations et les anions.</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2529,72 +2528,72 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Xiaowei Liu</t>
+          <t xml:space="preserve">  Matthieu Brachet</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Alain Clappier</t>
+          <t xml:space="preserve">  Jean-Pierre Croisille</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences de l'univers</t>
+          <t xml:space="preserve">  Mathématiques</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 11/09/2021</t>
+          <t xml:space="preserve">  Soutenance le 03/07/2018</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Strasbourg</t>
+          <t xml:space="preserve">  Université de Lorraine</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t xml:space="preserve">  École doctorale IAEM Lorraine - Informatique, Automatique, Électronique - Électrotechnique, Mathématiques de Lorraine (1992-....)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Analysis of the impacts of droughts on the water quality of anthropogenically impacted catchments</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ED 413</t>
+          <t>L’enjeu de la simulation de la dynamique atmosphérique et océanographique a pris ces dernières années une importance accrue avec la question du réchauffement climatique. Le modèle à simuler est complexe. Il combine les équations de la mécanique des fluides avec celles de la thermodynamique. Au 19ème siècle, le mathématicien Adhémar Barré de Saint-Venant formule un système d’équations aux dérivées partielles décrivant les mouvements d’un fluide soumis à la gravité et de faible épaisseur. Il s’agit des équations Shallow Water. L’objectif de cette thèse est de développer et d’analyser un algorithme de résolution des équations Shallow Water sur une sphère en rotation. Dans un premier temps, j’étudie différents aspects mathématiques des opérateurs aux différences finis utilisés par la suite en géométrie sphérique. Les schémas aux différences obtenus sont utilisés pour résoudre l’équation de transport, l’équation des ondes et l’équation de Burgers. Les propriétés de stabilité précision et conservation sont analysées. Dans un second temps, la grille Cubed-Sphere est introduite et analysée. La structure de ce maillage est analogue à celle d’un cube. L'interprétation de la Cubed-Sphere à l’aide de grands cercles permet de construire des opérateurs sphériques discrets gradient, divergence et vorticité d'ordre au moins égal à 3 (en pratique d'ordre 4). La troisième partie de la thèse est dédiée à différents tests pour le système d’équations Shallow Water ainsi que pour l’équation d’advection. Les résultats démontrent une précision proche de celle obtenue par les algorithmes conservatifs d'ordre 4 les plus récents</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
+          <t>Schémas compacts hermitiens sur la Sphère : applications en climatologie et océanographie numérique</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Éric Blayo, Thomas Dubos, Didier Clamond, Dong Ye, Véronique Martin</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Éric Blayo, Thomas Dubos</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2624,7 +2623,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>L’enjeu de la simulation de la dynamique atmosphérique et océanographique ... obtenue par les algorithmes conservatifs d'ordre 4 les plus récents</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2639,12 +2638,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Nicole Haroun</t>
+          <t xml:space="preserve">  Sutha Leenawat</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jean-François Landrier, Lourdes Mounien</t>
+          <t xml:space="preserve">  Flora Blanchon</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2654,52 +2653,52 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Biologie santé. Pathologie vasculaire et nutrition</t>
+          <t xml:space="preserve">  Histoire de l'art et archéologie</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 22/07/2022</t>
+          <t xml:space="preserve">  Soutenance en 2001</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Aix-Marseille</t>
+          <t xml:space="preserve">  Paris 4</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>La VD joue un rôle crucial dans le développement périnatal. Mais la VDD est devenue un problème de santé publique mondial, en particulier chez les femmes enceintes. De plus, il existe un lien entre la VD et le WAT, et du foie puisque de faibles concentrations de 25(OH)D sont lié à l'obésité et à la SH. L'objectif de cette thèse est de souligner les interactions qui existent entre la VDD maternelle et un régime HF et la programmation potentielle d'une inflammation dans le WAT et la présence d'une accumulation de lipides conduisant à une NAFLD chez la progéniture. D'abord chez les adultes avec LF ou HF, l'adiposité, les niveaux d'expression des ARN et des miARN et les voies de signalisation ont été étudiés dans le WAT. Chez les mâles VDD HF l'adiposité et l'expression des ARN et des miARN liés à l'inflammation ont augmenté, avec une surexpression des voies inflammatoires, surtout la voie de signalisation NF-kB. Par contre chez les femelles VDD pas de modifications significative des voies inflammatoires n'ont été observée. Nous avons ensuite étudié l'effet de la VDD maternelle sur l'accumulation des lipides hépatiques. Chez les adultes, les profils morphologiques, histologiques, et lipidomique du foie ont été étudiés. En résumé, nos résultats révèlent une relation entre une augmentation de la masse lipidique totale, une réduction de la quantité de TG et une augmentation des lipides membranaires chez les mâles VDD HF, alors que le résultats des femelles n'était pas modifié. Ainsi la VDD maternelle avec à un HF active la voie inflammatoire dans le WAT de la progéniture et entraîne une programmation du métabolisme lipidique hépatique, d'une manière dépendante du sexe.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Carence maternelle en vitamine D chez la souris : conséquences sur l'inflammation du tissu adipeux blanc et la stéatose hépatique dans la descendance</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École Doctorale Sciences de la Vie et de la Santé (Marseille)</t>
+          <t>Au XIX ième siècle, la Thai͏̈lande dut faire face à la menace des puissances occidentales. Le Souverain thai͏̈ décida d'ouvrir son pays à toutes les connaissance occidentales pouvant civiliser son royaume. La réforme sociale et culturelle provoqua la découverte de l'art pictural occidental sous la forme de tableaux, d'estampes, de photographies et d'illustrations de livres déclenchant en Thai͏̈lande un nouveau mouvement de l'art pictural occidental. Ce nouveau style de peinture fut créé par le moine peintre Inkhong représentant des scènes symboliques des vertus du Bouddha dans le monastère Borom Niwat (1836). Impressionnés par ce nouveau style de peinture, les peintres réalisèrent de telles peintures murales dans tous les monastères de cette époque. Le Wat Sommanat Viharn (1853), le Wat Pathum Wanarum (1861) et le Wat Rajapradit (1864) en sont les meilleurs exemples. Leurs nouvelles caractéristiques sont adaptées du modèle occidental : l'utilisation es trois dimensions, la perspective dans le paysage, l'introduction de volumes, de profondeurs et de tonalités sombres.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>La peinture murale de l'école de Bangkok pendant la seconde moitié du XIXeme siècle</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christine Feillet-Coudray</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jérémie Talvas, Catherine Riva-Lavieille</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2734,7 +2733,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>La VD joue un rôle crucial dans le développement périnatal. ... programmation du métabolisme lipidique hépatique, d'une manière dépendante du sexe.</t>
+          <t>Au XIX ième siècle, la Thai͏̈lande dut faire face à ... paysage, l'introduction de volumes, de profondeurs et de tonalités sombres.</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2749,12 +2748,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  David Coulette</t>
+          <t xml:space="preserve">  Alexandre Paris</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Nicolas Besse</t>
+          <t xml:space="preserve">  Stéphane Abadie, Philippe Heinrich</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2764,52 +2763,52 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Physique</t>
+          <t xml:space="preserve">  Géosciences</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 06/12/2013</t>
+          <t xml:space="preserve">  Soutenance le 13/09/2021</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université de Lorraine</t>
+          <t xml:space="preserve">  Pau</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ce travail de recherche s'inscrit dans la problématique de la compréhension des phénomènes de transport turbulent de l'énergie et des particules au sein des plasmas de coeur des machines de fusion thermonucléaire par confinement magnétique. L'instabilité dite de gradient de température ionique, considérée comme une des sources majeures de transport turbulent, y est étudiée au moyen d'un modèle gyrocinétique. L'originalité de ce travail consiste en l'utilisation d'un modèle réduit, dit "Multi-Water-Bag", qui permet de réduire la dimension du problème tout en préservant les effets cinétiques. Ce modèle est développé dans deux types de géométries de champ de confinement. En géométrie cylindrique, l'évolution de l'instabilité est analysée au travers de trois modèles dynamiques : linéaire, quasi-linéaire et non-linéaire. L'analyse de stabilité linéaire permet d'obtenir les caractéristiques spectrales et géométriques de l'instabilité à partir d'une situation d'équilibre instable. Dans un deuxième temps, la confrontation par le biais de simulations numériques trois modèles dynamiques permet l'examen du développement de la turbulence, ainsi que les premières étapes de la saturation de l'instabilité. En géométrie torique, une analyse linéaire de stabilité est effectuée au moyen de deux méthodes, respectivement par intégration en temps et analyse spectrale, pour obtenir les caractéristiques des modes les plus instables. Pour chacune des géométries envisagées, les diverses méthodes numériques implémentées sont décrites et leurs performances évaluées. Une attention particulière est portée tout au long de ce travail à la mise en balance des coûts et bénéfices de la réduction Multi-Water-Bag</t>
+          <t xml:space="preserve">  École doctorale sciences exactes et leurs applications (Pau, Pyrénées Atlantiques ; 1995-)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Simulation numérique de modèles cinétiques réduits pour l'étude de la dynamique des plasmas de fusion par confinement magnétique</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  EMMA - Ecole Doctorale Energie - Mécanique - Matériaux</t>
+          <t>Les effondrements gravitaires sont la deuxième cause de génération de tsunamis après les séismes. Il est important de bien les comprendre afin de prévenir de futures catastrophes ou de développer les systèmes d’alerte. Pour cela, des modèles analogiques, en laboratoire, ou numériques sont utilisés. Dans la deuxième catégorie, de nombreux modèles existent et peuvent produire des résultats similaires pour un cas donné. Parmi eux, les modèles intégrés sur la profondeur qui utilisent par exemple les équations de type shallow water ou de Boussinesq, peuvent être opposés aux modèles Navier-Stokes. L’objectif de cette thèse est de comparer ces deux stratégies à l’aide de deux modèles spécifiques un modèle intégré sur la hauteur, AVALANCHE, et un modèle Navier-Stokes, OpenFOAM. Tout d’abord, les deux modèles sont calibrés grâce à deux benchmarks, un glissement subaérien et un submergé. Cette étude a montré que les deux modèles pouvaient reproduire les données expérimentales et que plusieurs combinaisons de paramètres permettaient d’obtenir les mêmes résultats. Ensuite, des études de sensibilité sont réalisées afin d’évaluer l’influence de la position initiale du glissement et de la pente, et d’observer le comportement des différentes équations (shallow water, Boussinesq ou Navier-Stokes) pendant les phases de génération et de propagation de la vague. Enfin, l’application des deux modèles à deux cas réels, le glissement et le tsunami du 17 juin 2017 dans le Karrat Fjord au Groenland et le tsunami généré par l’effondrement du volcan Anak Krakatau le 22 décembre 2018, en Indonésie, permet de les comparer entre eux.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Comparaison de modèles de tsunamis générés par glissements de terrain et exploration des champs d'application</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Özgür Gürcan, Simon Labrunie, Séraphin Mefire, Yanick Sarazin</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jacques Blum, Jean-Marcel Rax</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2844,7 +2843,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Ce travail de recherche s'inscrit dans la problématique de la ... en balance des coûts et bénéfices de la réduction Multi-Water-Bag</t>
+          <t>Les effondrements gravitaires sont la deuxième cause de génération de ... décembre 2018, en Indonésie, permet de les comparer entre eux.</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -2859,12 +2858,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Matthieu Brachet</t>
+          <t xml:space="preserve">  Thanh Don Nguyen</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jean-Pierre Croisille</t>
+          <t xml:space="preserve">  Denis Dartus, Van Lai Hoang</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2874,52 +2873,52 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques</t>
+          <t xml:space="preserve">  Hydrologie, Hydrochimie, Sol, Environnement</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 03/07/2018</t>
+          <t xml:space="preserve">  Soutenance le 09/11/2012</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université de Lorraine</t>
+          <t xml:space="preserve">  Toulouse, INPT en cotutelle avec Université de Technologie de Hanoï. Vietnam</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>L’enjeu de la simulation de la dynamique atmosphérique et océanographique a pris ces dernières années une importance accrue avec la question du réchauffement climatique. Le modèle à simuler est complexe. Il combine les équations de la mécanique des fluides avec celles de la thermodynamique. Au 19ème siècle, le mathématicien Adhémar Barré de Saint-Venant formule un système d’équations aux dérivées partielles décrivant les mouvements d’un fluide soumis à la gravité et de faible épaisseur. Il s’agit des équations Shallow Water. L’objectif de cette thèse est de développer et d’analyser un algorithme de résolution des équations Shallow Water sur une sphère en rotation. Dans un premier temps, j’étudie différents aspects mathématiques des opérateurs aux différences finis utilisés par la suite en géométrie sphérique. Les schémas aux différences obtenus sont utilisés pour résoudre l’équation de transport, l’équation des ondes et l’équation de Burgers. Les propriétés de stabilité précision et conservation sont analysées. Dans un second temps, la grille Cubed-Sphere est introduite et analysée. La structure de ce maillage est analogue à celle d’un cube. L'interprétation de la Cubed-Sphere à l’aide de grands cercles permet de construire des opérateurs sphériques discrets gradient, divergence et vorticité d'ordre au moins égal à 3 (en pratique d'ordre 4). La troisième partie de la thèse est dédiée à différents tests pour le système d’équations Shallow Water ainsi que pour l’équation d’advection. Les résultats démontrent une précision proche de celle obtenue par les algorithmes conservatifs d'ordre 4 les plus récents</t>
+          <t xml:space="preserve">  École doctorale Sciences de l’univers, de l’environnement et de l’espace (Toulouse)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schémas compacts hermitiens sur la Sphère : applications en climatologie et océanographie numérique</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale IAEM Lorraine - Informatique, Automatique, Électronique - Électrotechnique, Mathématiques de Lorraine (1992-....)</t>
+          <t>Nous analysons dans cette thèse différents aspects associés à la modélisation des écoulements à surface libre en eaux peu profondes (Shallow Water). Nous étudions tout d’abord le système d’équations de Saint-Venant à deux dimensions et leur résolution par la méthode numérique des volumes finis, en portant une attention particulière sur les aspects hyperboliques et conservatifs. Ces schémas permettent de traiter les équilibres stationnaires, les interfaces sec/mouillé et aussi de modéliser des écoulements subcritique, transcritique et supercritique. Nous présentons ensuite la théorie de la méthode d’assimilation variationnelle de données adaptée à ce type d’écoulement. Son application au travers des études de sensibilité est longuement discutée dans le cadre de l'hydraulique à surface libre. Après cette partie à caractère théorique, la partie tests commence par une qualification de l’ensemble des méthodes numériques qui sont implémentées dans le code DassFlow, développé à l’Université de Toulouse, principalement à l’IMT mais aussi à l’IMFT. Ce code résout les équations Shallow Water par une méthode de volumes finis et est validé par comparaison avec les solutions analytiques pour des cas tests classiques. Ces mêmes résultats sont comparés avec un autre code d’hydraulique à surface libre aux éléments finis en deux dimensions, Telemac 2D. Une particularité notable du code DassFlow est de permettre l’assimilation variationnelle de données grâce au code adjoint permettant le calcul du gradient de la fonction coût. Ce code adjoint a été obtenu en utilisant l'outil de différentiation automatique Tapenade (Inria). Nous testons ensuite sur un cas réel, hydrauliquement complexe, différentes qualités de Modèles Numériques de Terrain (MNT) et de bathymétrie du lit d’une rivière. Ces informations proviennent soit d’une base de données classique type IGN, soit d’informations LIDAR à très haute résolution. La comparaison des influences respectives de la bathymétrie, du maillage et du type de code utilisé, sur la dynamique d’inondation est menée très finement. Enfin nous réalisons des études cartographiques de sensibilité aux paramètres du modèle sur DassFlow. Ces cartes montrent l’influence respective des différents paramètres ou de la localisation des points de mesure virtuels. Cette localisation optimale de ces points est nécessaire pour une future assimilation de données efficiente.</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Impact de la résolution et de la précision de la topographie sur la modélisation de la dynamique d’invasion d’une crue en plaine inondable</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Éric Blayo, Thomas Dubos, Didier Clamond, Dong Ye, Véronique Martin</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Éric Blayo, Thomas Dubos</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2954,7 +2953,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>L’enjeu de la simulation de la dynamique atmosphérique et océanographique ... obtenue par les algorithmes conservatifs d'ordre 4 les plus récents</t>
+          <t>Nous analysons dans cette thèse différents aspects associés à la ... points est nécessaire pour une future assimilation de données efficiente.</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2969,12 +2968,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Julie Boisselier</t>
+          <t xml:space="preserve">  Valérie Zaleski</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Emmanuel Pauthe</t>
+          <t xml:space="preserve">  Flora Blanchon</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2984,52 +2983,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences de la vie et de la santé - Cergy</t>
+          <t xml:space="preserve">  Histoire de l'art</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 09/11/2016</t>
+          <t xml:space="preserve">  Soutenance en 2006</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Cergy-Pontoise</t>
+          <t xml:space="preserve">  Paris 4</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>En ingénierie tissulaire, la survie in vivo de cellules souches implantées au sein d’un biomatériau est limitée par les conditions d’un environnement ischémique qui se caractérise par un déficit en oxygène et en nutriments. Récemment, dans le cadre d’un projet de recherche dédié au développement d’un hydrogel composite à base de fibrine, biomatériau conçu pour améliorer la survie de cellules souches post-implantation, il a été mis en évidence la nécessité de contrôler dans le temps et l’espace la disponibilité du glucose au sein de ce matériau. Cet apport in situ de glucose est réalisé par dégradation contrôlée de l’amidon, un polymère de glucose. Cette production est assurée par action enzymatique d’un catalyseur spécifique de l’hydrolyse de l’amidon, l’amyloglucosidase (AMG).Toutefois, il convient de maitriser différents paramètres tels que la fuite de l’AMG en dehors de l’hydrogel ou encore sa perte d’activité au cours du temps. Dans ce contexte, l’encapsulation de l’AMG dans des nanoparticules d’un polymère biodégradable et biocompatible, ici l’acide poly(lactique-co-glycolique) (PLGA), devrait permettre le contrôle des paramètres susmentionnés.Des nanoparticules de type core-shell contenant l’AMG (NPe) ont été synthétisés par l’adaptation d’un protocole de double émulsion (water-oil-water). Différentes méthodes ont été développées pour déterminer les propriétés physico-chimiques et biochimiques des nanoparticules produites. Le protocole de synthèse a été optimisé afin de produire des nanoparticules reproductibles et stériles utilisables dans des hydrogels implantables in vivo.Le cahier des charges de l’hydrogel enrichi en amidon et en NPe impose un apport continu du glucose pendant 1 mois. La stabilité des nanoparticules a été étudiée en solution et dans les hydrogels. La production de glucose grâce à ces NPe a été investiguée en solution et en hydrogel mettant en avant l’intérêt de ces nanoparticules au sein du dispositif.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Mise en œuvre d’un système de confinement et de délivrance moléculaire pour la production in situ de glucose au sein d’un hydrogel conçu pour l'ingénierie tissulaire</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences et ingénierie (Cergy-Pontoise, Val d'Oise)</t>
+          <t>Un rappel des données utiles (échanges entre Ayuthayā et ses voisins, conclusions des historiens d’art et informations brutes livrées par les sources sur les wat) précède une description critique du décor des wat, mais aussi des vestiges à la lisière géographique ou historique du royaume, relevant des styles de Lopburī (mais restaurés après), d’Ū Thōng, de Thonburī, ou du Lān Nā. L’étude des êtres animés (Buddha, thevadā et créatures mineures de la mythologie : nāga, makara, hamsa, garuda. . . ), compliquée par le manque de données sur le bouddhisme et l’iconographie, les mutilations, la fragilité du matériau et sa facilité de facture, autorisant superposition de couches et de styles, combine typologie et situation des figures et s’appesantit sur celles non encore étudiées. Elle reflète bien l’intégration des traditions khmère, cinghalaise, de Sukhōthaï et du Lān Nā, mêlées au substrat môn, et manifeste l’importance de la cosmologie décrite par le Traïphūm, matérialisée sur les sanctuaires par les thēphanom. Tant certaines images du Buddha que celles de divinités dénotent de liens avec le Lān Nā, mais les images du Buddha au bras ramené contre la poitrine, figurées jusqu’à la fin du XVIIe siècle, auraient perpétué un trait iconographique ancien, antérieur à l’établissement de l’orthodoxie cinghalaise et refléteraient l’importance, soulignée par les études philologiques, du môn en Asie du Sud-est pré-cinghalaise. Le problème des décors attribués tantôt au XVIIe siècle ou au XVIIIe siècle, touchant les wat Laï, Phāï Lōm, Chulāmanī, Nakhorn Kōsā, Tawet, Chœng Thā ou Thammiarāt, a aussi été abordé, de même que la tendance à la désincarnation ou « végétalisation » des figures.</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Les êtres animés dans les décors de stuc du royaume d'Ayuthayā</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emmanuel Pauthe, Adeline Gand</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nicolas Blanchemain, Jean Coudane</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3064,7 +3063,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>En ingénierie tissulaire, la survie in vivo de cellules souches ... en avant l’intérêt de ces nanoparticules au sein du dispositif.</t>
+          <t>Un rappel des données utiles (échanges entre Ayuthayā et ses ... tendance à la désincarnation ou « végétalisation » des figures.</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -3079,12 +3078,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Peng Pu</t>
+          <t xml:space="preserve">  Paul Moal-Darrigade</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Eliane Sutter, Nadhira Laidani</t>
+          <t xml:space="preserve">  Emmanuelle Ducassou, Jacques Giraudeau</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3094,57 +3093,57 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Génie des procédés et Technologies avancées</t>
+          <t xml:space="preserve">  Sédimentologie marine et paléoclimats</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2012</t>
+          <t xml:space="preserve">  Soutenance le 18/03/2022</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 6 en cotutelle avec Universita Degti Studi di Trento</t>
+          <t xml:space="preserve">  Bordeaux</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Two types of TiO2 nano-tubular arrays with nanotubes (NT) aligned perpendicular to the titanium substrate were obtained by anodization of a titanium foil, in two different solutions (TiO2-NT(TB), TiO2-NT(EG)). In the dark, in the Na2SO4 solution, the EIS study of TiO2-NT (TB) anatase showed that a presence of a localized energy state in the gap which is the signature of the adsorption of molecular water. After UV exposure, the quasi irreversible disappearance of the localized energy states is related to photo-induced adsorbed water dissociation. Furthermore, the increase by a factor 112 of the capacity of the space charge layer was observed after UV exposure. This increase can be explained by the photo activation of the surface of NT, which was inactive before UV exposure. This activation is related to the dissociation of adsorbed molecular water and the insertion of hydrogen into the walls of NT. With a geometric model proposed, a carrier density of about 1018 cm-3 and 1020 cm-3 respectively before and after UV illumination were determined, confirming that the photo-induced activation of the wall of NT is linked to the phenomenon of doping due to hydrogen insertion. In the case of TiO2 –NT(EG), the contribution of adsorption of molecular water was not observed. The carrier density is about 1020cm-3 before and after illumination. In other words, these tubes of TiO2–NT(EG), are already activated before illumination. For a better identification of the chemical nature of the surface state in the case of TiO2–NT(TB), EIS measurements were performed in the same manner, but in acidic and basic media, in order to compare the behaviour to that observed in the Na2SO4 solution</t>
+          <t xml:space="preserve">  École doctorale Sciences et Environnements (Talence, Gironde ; 1999-....)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Etude électrochimique et photo-électrochimique des modes de conduction dans les films de TiO2 nanostructurés</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>La sédimentation de la pente moyenne du Golfe de Cadix est fortement influencée par l’écoulement d’un courant de fond d’origine méditerranéenne : la Mediterranean Outflow Water (MOW). La compréhension de la relation entre l’écoulement de la MOW, l’Atlantic Meridional Overturning Circulation (AMOC) et les variations climatiques en Atlantique Nord représente un enjeu majeur et complexe. Ces travaux de thèse, en étudiant les caractéristiques sédimentaires des sédiments des drifts contouritiques du Golfe de Cadix, corps sédimentaires propices à l’étude de la variabilité des courants de fond, visent à comprendre la dynamique de la MOW depuis le Pléistocène inférieur. Cette étude s’appuie essentiellement sur des archives sédimentaires prélevées lors de l’Expédition Integrated Ocean Drilling Program 339 « Mediterranean Outflow » (2011-2012) et valorise également des carottes sédimentaires collectées durant la mission océanographique CADISAR (2001). Ce travail a permis d’identifier les sources des minéraux argileux composant les dépôts du système contouritique de Cadix (apports fluviatiles du Guadalquivir et poussières éoliennes nord-africaines) et mis en évidence les rôles de la circulation océanique de surface et l’écoulement de la MOW, dans la distribution des minéraux argileux dans le Golfe de Cadix. Les assemblages ostracodiques, la minéralogie des argiles ainsi que les mesures granulométriques, effectués à haute résolution sur des archives sédimentaires prélevées à différentes bathymétries, ont permis d’affiner le schéma de circulation de la MOW dans le système contouritique de Cadix pour le dernier cycle climatique. Des séries sédimentaires plus anciennes couvrant l’intervalle des Stades Isotopiques Marins (MIS) 12-11 ont montré que le modèle de fonctionnement général établi demeurait valable mais d’intensité moindre, pour l’analogue climatique le plus récent. Enfin les mesures granulométriques et des cortèges argileux réalisées à haute résolution sur une longue série sédimentaire du drift de Faro, mises en âges par une stratigraphie isotopique inédite, ont permis de déterminer trois phases de construction du drift de Faro ainsi que de reconstruire la dynamique de la MOW depuis le Pléistocène inférieur (1,2 Ma).</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Dynamique de la Mediterranean Outflow Water dans le Golfe de Cadix depuis le Pléistocène.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Gemma Ercilla, Adriano R. Viana</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Francisco Javier Sierro</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3174,7 +3173,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Two types of TiO2 nano-tubular arrays with nanotubes (NT) aligned ... compare the behaviour to that observed in the Na2SO4 solution</t>
+          <t>La sédimentation de la pente moyenne du Golfe de Cadix ... dynamique de la MOW depuis le Pléistocène inférieur (1,2 Ma).</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -3189,57 +3188,57 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Elena Bouvier</t>
+          <t xml:space="preserve">  François Touron</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Kateryna Fatyeyeva, Stephane Marais</t>
+          <t xml:space="preserve">  Larbi Labraga</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Chimie</t>
+          <t xml:space="preserve">  Mécanique</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 19/09/2023</t>
+          <t xml:space="preserve">  Soutenance en 2011</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Normandie</t>
+          <t xml:space="preserve">  Valenciennes</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Polymer barrier performance towards small molecules( water and gases ) of materials used in pharmaceutical industry</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale normande de chimie (Caen)</t>
+          <t>Ce travail de thèse concerne la sécurité routière, on s’intéresse plus particulièrement à un phénomène gênant la visibilité du conducteur appelé le Water Pull Back. Ce terme désigne le retour d’un film d’eau sur la partie essuyée du pare-brise, à la suite du mouvement descendant de l’essuie-glace côté conducteur. L’objectif est de développer un modèle simplifié du Water Pull Back permettant des études paramétriques qualitatives. Une première version bidimensionnelle est construite, elle combine un maillage dynamique pour simuler le déplacement de l’essuie-glace, un modèle diphasique pour prendre en compte la phase aqueuse, et un modèle de turbulence URANS. Dans ce modèle, trois thèmes clés interviennent: l’écoulement séparé en aval de l’essuie-glace, le mouillage dynamique sur le pare-brise, et le cisaillement du film d’eau par l’écoulement d’air turbulent. Les capacités du code de calcul sont évaluées sur chacun de ces thèmes par comparaison entre numérique et expérimental. Ce processus permet d’identifier les algorithmes et maillages les plus performants à utiliser dans le modèle 2D Water Pull Back, mais il souligne également les limitations de la modélisation URANS 2D. Les validations expérimentales sont faites dans la soufflerie subsonique du laboratoire TEMPO et dans un canal diphasique dédié à l’étude des films cisaillés.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Étude d’un film d’eau cisaillé par un écoulement d’air turbulent dans le sillage d’un obstacle 2D : application aux essuie-glaces</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3269,7 +3268,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Université de Rouen Normandie (1966-....)</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -3284,7 +3283,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Ce travail de thèse concerne la sécurité routière, on s’intéresse ... dans un canal diphasique dédié à l’étude des films cisaillés.</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -3299,57 +3298,57 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Valérie Zaleski</t>
+          <t xml:space="preserve">  Miguel SAINZ MAñAS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Flora Blanchon</t>
+          <t xml:space="preserve">  Françoise Bataille, Cyril Caliot</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Histoire de l'art</t>
+          <t xml:space="preserve">  Sciences de l'Ingénieur</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2006</t>
+          <t xml:space="preserve">  Inscription en doctorat le 01/01/2022</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 4</t>
+          <t xml:space="preserve">  Perpignan</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Un rappel des données utiles (échanges entre Ayuthayā et ses voisins, conclusions des historiens d’art et informations brutes livrées par les sources sur les wat) précède une description critique du décor des wat, mais aussi des vestiges à la lisière géographique ou historique du royaume, relevant des styles de Lopburī (mais restaurés après), d’Ū Thōng, de Thonburī, ou du Lān Nā. L’étude des êtres animés (Buddha, thevadā et créatures mineures de la mythologie : nāga, makara, hamsa, garuda. . . ), compliquée par le manque de données sur le bouddhisme et l’iconographie, les mutilations, la fragilité du matériau et sa facilité de facture, autorisant superposition de couches et de styles, combine typologie et situation des figures et s’appesantit sur celles non encore étudiées. Elle reflète bien l’intégration des traditions khmère, cinghalaise, de Sukhōthaï et du Lān Nā, mêlées au substrat môn, et manifeste l’importance de la cosmologie décrite par le Traïphūm, matérialisée sur les sanctuaires par les thēphanom. Tant certaines images du Buddha que celles de divinités dénotent de liens avec le Lān Nā, mais les images du Buddha au bras ramené contre la poitrine, figurées jusqu’à la fin du XVIIe siècle, auraient perpétué un trait iconographique ancien, antérieur à l’établissement de l’orthodoxie cinghalaise et refléteraient l’importance, soulignée par les études philologiques, du môn en Asie du Sud-est pré-cinghalaise. Le problème des décors attribués tantôt au XVIIe siècle ou au XVIIIe siècle, touchant les wat Laï, Phāï Lōm, Chulāmanī, Nakhorn Kōsā, Tawet, Chœng Thā ou Thammiarāt, a aussi été abordé, de même que la tendance à la désincarnation ou « végétalisation » des figures.</t>
+          <t xml:space="preserve">  École doctorale Énergie environnement (Perpignan ; 1999-....)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Les êtres animés dans les décors de stuc du royaume d'Ayuthayā</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Dans les absorbeurs solaires classiques, le fluide caloporteur est chauffé au contact d'une paroi opaque métallique exposée au rayonnement solaire concentré (absorbeur surfacique). Le concept en rupture proposé consiste à remplacer ce tube métallique par un tube en verre et le caloporteur transparent (en général) dans le spectre solaire par une suspension de graphène dans l'eau. Dans ces conditions, l'absorption du rayonnement solaire ne se produit plus en surface mais dans le volume, il s'agit d'un absorbeur volumique. Des mesures préliminaires d'absorption spectrales réalisées avec de « l'eau de graphène » fournit par l'entreprise « Carbon Waters® » ont permis de valider le concept. Les travaux de thèse viseront à développer et évaluer la performance du collecteur solaire avec des modèles numériques ainsi qu'avec un prototype expérimental. L'étude d'un dispositif hydride CSP-PV sera aussi envisagé.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Développement d'un absorbeur solaire volumique utilisant un nanofluide pour un concentrateur linéaire</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3394,7 +3393,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Un rappel des données utiles (échanges entre Ayuthayā et ses ... tendance à la désincarnation ou « végétalisation » des figures.</t>
+          <t>Dans les absorbeurs solaires classiques, le fluide caloporteur est chauffé ... prototype expérimental. L'étude d'un dispositif hydride CSP-PV sera aussi envisagé.</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -3409,67 +3408,67 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Théodore Graul</t>
+          <t xml:space="preserve">  Sreypich Sinh</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ange Nzihou</t>
+          <t xml:space="preserve">  Anne Repellin</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Génie des Procédés et de l'Environnement</t>
+          <t xml:space="preserve">  Sciences de l'Univers et Environnement</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 05/12/2023</t>
+          <t xml:space="preserve">  Inscription en doctorat le 30/09/2022</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ecole nationale des Mines d'Albi-Carmaux</t>
+          <t xml:space="preserve">  Paris 12</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ce travail propose une approche innovante pour la production, caractérisation et utilisation de catalyseurs biosourcés pour des applications dans les domaines de l'énergie et de l'environnement, afin de réduire le coût et l'impact des catalyseurs commerciaux actuellement utilisés. Le travail développé ici promeut une approche d'économie circulaire dans la mesure où des plantes issues de la phytoremédiation ont été employées pour la production de catalyseurs biosourcés, respectueux de l'environnement. Ces catalyseurs ont été utilisés pour produire des vecteurs énergétiques tels que l'hydrogène à partir des réactions de gaz à l'eau direct (water-gas shift, WGS) et indirect (reverse water-gas shift, RWGS), et pour la décomposition des polluants de NOx (deNOx). Les catalyseurs biosourcés ont été produits à partir de saule et fougère avec un contenu contrôlé en métaux introduit par imprégnation avant ou après pyrolyse à 800°C afin d'imiter l'hyperaccumulation (&gt;3 g métal /kg biocarbone) dans un support carboné poreux. Les catalyseurs ainsi produits ont été testés pour les réactions de deNOx, ainsi que dans WGS et RWGS, et les dispositifs expérimentaux associés ont été développés et optimisés pendant la thèse. Ils ont été caractérisés en termes de composition, structure et stabilité thermique, ceci avant et après utilisation. Pour les trois réactions, les catalyseurs ont montré une sélectivité et une conversion élevées et maintenues dans les conditions de réaction, facilitées par le contenu en métaux catalytiques dont l'activité a été renforcée par les métaux inhérents. La présence de fonctions oxygénées de surface et d'une surface spécifique élevée (&lt;419 m²/g) ont amélioré l'adsorption et la dissociation des gaz réactifs grâce à des sites supplémentaires formés par réduction et à une meilleure activité électronique. Avec ces caractéristiques, les catalyseurs biosourcés ont montré des performances meilleures que celles de catalyseurs références de la littérature en raison d'une meilleure stabilité ou activité catalytiques (conversion maintenue pour plus de 120h, énergie d'activation entre 0.5 et 186 kJ/mol, constante cinétique entre 1.9 x 10^-9 et 4.3 x 10^12. Le catalyseur de saule imprégné au Ni avant pyrolyse et le catalyseur bimétallique (Ni/Fe) de fougère ont montré les meilleures performances pour les réactions de deNOx, et RWGS et WGS, respectivement.</t>
+          <t xml:space="preserve">  École doctorale Sciences, Ingénierie et Environnement (Champs-sur-Marne, Seine-et-Marne ; 2015-....)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Production de catalyseurs biosourcés pour élimination de NOx, WGS et RWGS</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Mécanique, énergétique, génie civil et procédés (Toulouse)</t>
+          <t>This project questions the importance of biodiversity in paddy fields in Cambodia. Its main hypothesis is that organisms belonging to the soil engineer functional group (earthworms and termites) positively impact rice growth and yield and its resistance to environmental stresses (such as drought). This question is crucial in Cambodia where the management of water is very problematic at the beginning of the rainy season, when rice growth can be severely constrained due to periods of drought that can affect the food and economic security of local populations.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>« Étude du lien entre biodiversité et productivité des rizières : le rôle des ingénieurs du sol »</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ange Nzihou, Marco Baratieri, Roger Gadiou, Pascal Fongarland, Laurent Van de Steene, María González Martínez</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marco Baratieri, Roger Gadiou</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3504,7 +3503,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Ce travail propose une approche innovante pour la production, caractérisation ... pour les réactions de deNOx, et RWGS et WGS, respectivement.</t>
+          <t>This project questions the importance of biodiversity in paddy fields ... can affect the food and economic security of local populations.</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -3519,12 +3518,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bahar Salavati</t>
+          <t xml:space="preserve">  Lazzat Amangaliyeva</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Daniel Schertzer</t>
+          <t xml:space="preserve">  Eric Van hullebusch, Hossein Davarzani</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3534,42 +3533,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences et Techniques de l'Environnement</t>
+          <t xml:space="preserve">  Sciences de l'univers</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 01/10/2011</t>
+          <t xml:space="preserve">  Inscription en doctorat le 12/01/2023</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris Est</t>
+          <t xml:space="preserve">  Université Paris Cité</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Managing water in urban areas has become a major concern due to increase of (peri-)urban population, continuous increase of pollution and increased exposure to climatic changes. In managing stormwater and wastewater and integrating the management train within urban green assets there exists a variety of modelling and planning tools that also remain very fragmented and still require deeper understanding of the multi-scale dynamics and interactions of urban water cycle processes. In urban modelling there are several software packages in public domain, like TREX to simulate the surface processes, SWMM to simulate the drainage and VS2DT to simulate the sub-surface processes. However there are significant gaps such as the integration of SUDS and FR elements, infiltration and interaction with urban ground water infrastructure, are just a few areas which should be further improved. With this prospective, Multi-Hydro has been developed at Leesu, to act as a catalyser in identifying gaps in exiting analytical and modelling tools, developing gluing routines that enable modelling of interactions of urban water systems components for the next generation of urban water systems'. Multi-Hydro is currently implemented at 10 m resolution on several case-study watersheds in Paris area. The input/output data of Multi-Hydro are in GIS format. Ongoing work demonstrated that hydrological responses to rainfall strongly depend on local characteristics of soil, such as water storage capacity and infiltration rates. The type and density of vegetation cover and land-use characteristics are also important to understand hydrologic response to rainfall. The goal of this PhD thesis is to increase knowledge on infiltration as one of hydrological aspect that influenced by land use change becomes an essential aspect to be considered in the (peri-)urban planning development. The measurement of the infiltration process and quantification of its spatial variability is difficult mainly due to inherent differences with the measurement methods and the scales at which they are applied. The PhD fellow will develop an effective method for estimating the distribution of the infiltration zones based on spatial analysis using Multi-Hydro and GIS technology. This will help to reveal linkage between infiltrations measured at the point or plot scales and the infiltration and runoff processes at watershed scale. Specific tasks are to:  perform literature review;  perform point scale infiltration measurements for selected types of land use within the case-study watersheds;  investigate the interactions between land-use type and infiltration measurements;  develop a schematisation procedure taking into account spatial differences in infiltration and land use;  develop an effective method for estimating the distribution of the infiltration zones based on spatial analysis using GIS technology;  use Multi-Hydro to quantify the effects of the spatial variability of infiltration rates on computed runoffs;  explore promising use of infiltration zone mapping for the (peri-)urban planning development.</t>
+          <t xml:space="preserve">  560 - SCIENCES DE LA TERRE ET DE L'ENVIRONNEMENT ET PHYSIQUE DE L'UNIVERS, PARIS</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>APPLICATION OF DIFFERENT SPATIAL ANALYSIS ON DEVELOPING INFILTRATION ZONE MAPPING</t>
+          <t xml:space="preserve">  Equipe de recherche </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  SIE - Sciences, Ingénierie et Environnement</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Characterization and remediation by non-Newtonian fluids of soils contaminated with light hydrocarbons under water table variations</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3584,7 +3583,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Equipe SIE</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3614,7 +3613,7 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Managing water in urban areas has become a major concern ... use of infiltration zone mapping for the (peri-)urban planning development.</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -3629,12 +3628,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pratikshya Joshi</t>
+          <t xml:space="preserve">  Xiaowei Liu</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Marion Prudent</t>
+          <t xml:space="preserve">  Alain Clappier</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3644,42 +3643,42 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences agronomiques</t>
+          <t xml:space="preserve">  Sciences de l'univers</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 01/10/2023</t>
+          <t xml:space="preserve">  Inscription en doctorat le 11/09/2021</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bourgogne Franche-Comté</t>
+          <t xml:space="preserve">  Strasbourg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Grain legumes are cultivated for their protein-rich seeds, used for feed or food. These species do not need N fertilizers, thanks to their ability to fix atmospheric N2 in symbiosis with soil bacteria (rhizobia) in newly-formed root organs called nodules. With a functional-structural approach focused on the nodulated root system, we will investigate transient nutrient deficiencies and drought effect on root architecture, water and nutrient uptake, and rhizodeposition. The molecular underlying regulations will be deciphered by multi-omics approaches including RNAseq and metabolomics analysis.</t>
+          <t xml:space="preserve">  ED 413</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Vers l'optimisation de l'architecture du système racinaire nodulé des légumineuses pour l'acquisition de l'eau et de l'azote en conditions de sécheresse</t>
+          <t xml:space="preserve">  Equipe de recherche </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Environnements, Santé (Dijon ; Besançon ; 2012-....)</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Analysis of the impacts of droughts on the water quality of anthropogenically impacted catchments</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3724,7 +3723,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Grain legumes are cultivated for their protein-rich seeds, used for ... be deciphered by multi-omics approaches including RNAseq and metabolomics analysis.</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -3739,67 +3738,67 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paul Moal-Darrigade</t>
+          <t xml:space="preserve">  Valentin Wiener</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Emmanuelle Ducassou, Jacques Giraudeau</t>
+          <t xml:space="preserve">  Christophe Genthon, Alexis Berne</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sédimentologie marine et paléoclimats</t>
+          <t xml:space="preserve">  Sciences du climat, de l'atmosphère et des océans, terrestres et planétaire</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 18/03/2022</t>
+          <t xml:space="preserve">  Inscription en doctorat le 01/10/2021</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bordeaux</t>
+          <t xml:space="preserve">  Sorbonne université</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>La sédimentation de la pente moyenne du Golfe de Cadix est fortement influencée par l’écoulement d’un courant de fond d’origine méditerranéenne : la Mediterranean Outflow Water (MOW). La compréhension de la relation entre l’écoulement de la MOW, l’Atlantic Meridional Overturning Circulation (AMOC) et les variations climatiques en Atlantique Nord représente un enjeu majeur et complexe. Ces travaux de thèse, en étudiant les caractéristiques sédimentaires des sédiments des drifts contouritiques du Golfe de Cadix, corps sédimentaires propices à l’étude de la variabilité des courants de fond, visent à comprendre la dynamique de la MOW depuis le Pléistocène inférieur. Cette étude s’appuie essentiellement sur des archives sédimentaires prélevées lors de l’Expédition Integrated Ocean Drilling Program 339 « Mediterranean Outflow » (2011-2012) et valorise également des carottes sédimentaires collectées durant la mission océanographique CADISAR (2001). Ce travail a permis d’identifier les sources des minéraux argileux composant les dépôts du système contouritique de Cadix (apports fluviatiles du Guadalquivir et poussières éoliennes nord-africaines) et mis en évidence les rôles de la circulation océanique de surface et l’écoulement de la MOW, dans la distribution des minéraux argileux dans le Golfe de Cadix. Les assemblages ostracodiques, la minéralogie des argiles ainsi que les mesures granulométriques, effectués à haute résolution sur des archives sédimentaires prélevées à différentes bathymétries, ont permis d’affiner le schéma de circulation de la MOW dans le système contouritique de Cadix pour le dernier cycle climatique. Des séries sédimentaires plus anciennes couvrant l’intervalle des Stades Isotopiques Marins (MIS) 12-11 ont montré que le modèle de fonctionnement général établi demeurait valable mais d’intensité moindre, pour l’analogue climatique le plus récent. Enfin les mesures granulométriques et des cortèges argileux réalisées à haute résolution sur une longue série sédimentaire du drift de Faro, mises en âges par une stratigraphie isotopique inédite, ont permis de déterminer trois phases de construction du drift de Faro ainsi que de reconstruire la dynamique de la MOW depuis le Pléistocène inférieur (1,2 Ma).</t>
+          <t xml:space="preserve">  École doctorale Sciences de l'environnement d'Île-de-France (Paris ; 1992-....)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dynamique de la Mediterranean Outflow Water dans le Golfe de Cadix depuis le Pléistocène.</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences et Environnements (Talence, Gironde ; 1999-....)</t>
+          <t>AWACA (Atmospheric Water Cycle over Antarctica : Past, Present and Future) est un nouveau projet financé par l'ERC visant à mieux observer, comprendre et modéliser l'eau dans l'atmosphère en interaction avec la surface de neige en Antarctique. Le but est d'accroître notre confiance dans les prévisions des changements futurs et l'impact sur le niveau mondial de la mer.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Météorologie de surface en Antarctique.</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gemma Ercilla, Adriano R. Viana</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Francisco Javier Sierro</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3809,7 +3808,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> EMC3</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3834,7 +3833,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>La sédimentation de la pente moyenne du Golfe de Cadix ... dynamique de la MOW depuis le Pléistocène inférieur (1,2 Ma).</t>
+          <t>AWACA (Atmospheric Water Cycle over Antarctica : Past, Present and ... futurs et l'impact sur le niveau mondial de la mer.</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -3849,12 +3848,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Youssef Bouargalne</t>
+          <t xml:space="preserve">  Alexandre Lillo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Carole Deleu</t>
+          <t xml:space="preserve">  Catherine Ribot, Jamie Benidickson</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3864,57 +3863,57 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Biologie et physiologie végétales</t>
+          <t xml:space="preserve">  Droit Public</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 10/06/2022</t>
+          <t xml:space="preserve">  Soutenance le 28/08/2020</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Rennes 1</t>
+          <t xml:space="preserve">  Montpellier en cotutelle avec Université d'Ottawa. Faculté de droit</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Les WSCPII, spécifiques des Brassicaceae, sont des protéines hydrosolubles non-photosynthétiques, qui peuvent se lier aux chlorophylles (Chls). Ces protéines font partie des inhibiteurs de protéases (IP) de type Kunitz et certaines sont surexprimées en réponse à des contraintes abiotiques. L’existence de telles protéines avec une double fonctionnalité de liaison aux Chls et/ou IP reste un sujet à débat et leurs rôles dans les processus physiologiques sont à ce jour très peu documentés. L’objectif de cette thèse est d’apporter des connaissances nouvelles sur ces protéines particulières par leur caractérisation fonctionnelle. Nous avons montré que BnD22, WSCPII majeure foliaire de colza, est une protéine bifonctionnelle capable d’inhiber les Cys protéases et de se lier aux Chls avec une affinité pour la Chla. Ces deux fonctions peuvent être simultanées avec un pouvoir d’inhibition accru lorsque les protéines sont complexées aux Chls. De plus, BnD22 n’est pas localisée dans le chloroplaste mais dans le réticulum endoplasmique et la vacuole. Par ailleurs, nos études phylogénétiques ont révélé chez le colza l’existence d’une famille multigénique divisée en groupes distincts en fonction de leur capacité ou non à se lier aux Chls. La présence des multicopies s’expliqueraient par des profils d'expression différents selon les organes et les stades de développement, et des propriétés fonctionnelles diverses ou redondantes. L’ensemble de ces travaux a permis de valider la diversité fonctionnelle naturelle (IP et/ou liaison aux Chls) des WSCPII du colza ce qui permettra à l’avenir de mieux appréhender les propriétés fonctionnelles des WSCPII et de comprendre leurs rôles physiologiques.</t>
+          <t xml:space="preserve">  École doctorale Droit et Science politique (Montpellier ; 2010-....)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Caractérisation fonctionnelle des protéines WSCP "Water Soluble Chlorophyll Proteins" du colza</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  EGAAL</t>
+          <t>Bien que le Canada soit perçu comme un pays riche en eau, ce statut privilégié doit être démystifié. Les problématiques à cet égard se multiplient : inondations printanières dans la vallée de l’Outaouais, sécheresses dans le sud des Prairies, phénomènes d’eutrophisation dans les Grands Lacs, contaminations du fleuve Saint-Laurent, qualité désastreuse de l’eau dans les réserves autochtones, etc. Les enjeux relatifs à l’eau ont des impacts de plus en plus larges. Leurs étendues géographiques s’accroissent et leurs répercussions sur l’environnement humain et non-humain s’aggravent. Il n’y a plus de doutes ; le Canada fait désormais face à une crise émergente de l’eau.D’un point de vue juridique, ces problématiques génèrent des défis extrêmement complexes. En effet, puisque chacun des ordres de gouvernements à une capacité d’agir à l’égard des questions relatives à l’eau, les mécanismes de gestion sont caractérisés par une nature profondément interjuridictionnelle. Il en résulte des initiatives sectorielles, une action fragmentée et un manque important d’harmonisation entre les acteurs de l’eau. Si le droit canadien de l’eau s’est largement développé à partir des années soixante, les outils législatifs, réglementaires et politiques demeurent multiples et dispersés. De ce fait, le Canada n’est toujours pas équipé pour pleinement répondre aux enjeux contemporains de l’eau et aux processus de gestion qu’ils requièrent. En raison de ce constat, des appels répétés en faveur d’une stratégie nationale de l’eau au Canada ont été formulés par la doctrine et les experts en la matière.Face à la nécessité de tenir compte des enjeux canadiens de l’eau, notre thèse cherche à déterminer de quelles manières il est possible de concilier la nécessaire mise en œuvre d’une stratégie nationale de l’eau au Canada avec les spécificités de l’environnement hydrosocial en présence. L’analyse conceptuelle de la gestion de l’eau et l’étude contextuelle de l’environnement hydrosocial canadien révèlent certains obstacles à la mise en œuvre d’une stratégie nationale : quelle échelle, quels agents et quelle logique de régulation devraient articuler la construction juridique d’un cadre de gestion de l’eau au Canada ? Afin de répondre à ces interrogations, nous avons élaboré douze principes directeurs visant à poser les pierres fondatrices d’un régime juridique de l’eau adapté aux réalités canadiennes. À l’heure où les réflexions gouvernementales sur une future agence canadienne de l’eau sont engagées, notre thèse préconise un modèle institutionnel pancanadien fondé sur l’échelle du bassin versant, issu de la coopération intergouvernementale et maintenu par une collaboration entre les acteurs de l’eau représentative des dynamiques territoriales.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>The Shape of Water : La construction d’un cadre juridique de gestion de l’eau au Canada</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Philippe Etienne, Françoise Le Caherec</t>
+          <t xml:space="preserve">  Examinateurs / Examinatrices </t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anne Repellin, Pierre Carol</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Florian Linditch, Geneviève Parent</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3944,7 +3943,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Les WSCPII, spécifiques des Brassicaceae, sont des protéines hydrosolubles non-photosynthétiques, ... propriétés fonctionnelles des WSCPII et de comprendre leurs rôles physiologiques.</t>
+          <t>Bien que le Canada soit perçu comme un pays riche ... collaboration entre les acteurs de l’eau représentative des dynamiques territoriales.</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -3959,27 +3958,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mohammad Slim</t>
+          <t xml:space="preserve">  Lionel Mercury</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Kwami Dodzi Zigah</t>
+          <t xml:space="preserve">  Yves Tardy, Philippe Vieillard</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Chimie théorique, physique, analytique</t>
+          <t xml:space="preserve">  Matériaux, minéraux</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 07/11/2023</t>
+          <t xml:space="preserve">  Soutenance en 1997</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3989,27 +3988,27 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Préparation and analysis of photoelectrodes for water splitting</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Rosalind Franklin (Poitiers ; 2022-....)</t>
+          <t>L'etude des equilibres mineraux - solution dans le domaine non sature des sols necessite de considerer l'etat particulier de l'eau. L'eau liquide liee, en conditions capillaires, est soumise a une pression generalement negative, en tout cas inferieure a celle de l'atmosphere. Une methode de calcul de toutes les proprietes thermodynamiques de l'eau, fondee sur cette realite physique, est proposee et discutee au chapitre 1, a partir de la regression des donnees etablies a pression positive. Le chapitre 2 presente le calcul des proprietes thermodynamiques de la plupart des polymorphes de la glace. La notion d'&lt;&lt;&lt;&gt;ice-like water&lt;&gt;&gt;&gt; peut alors etre clairement definie, au chapitre 3, et appliquee a l'eau de constitution des hydrates et des hydroxydes. . . .</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Equilibres minéraux-solutions en milieu non saturé des sols : thermodynamique de l'eau capillaire et modélisation physicochimique</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -4054,7 +4053,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>L'etude des equilibres mineraux - solution dans le domaine non ... de constitution des hydrates et des hydroxydes. . . .</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -4069,72 +4068,72 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Fanny Faroux</t>
+          <t xml:space="preserve">  Lian Guey Ler</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Claudine Eizykman, Dominique Fournier-willoughby</t>
+          <t xml:space="preserve">  Philippe Gourbesville, Gyewoon Choi</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Arts</t>
+          <t xml:space="preserve">  Sciences et technologies de l'information et de la communication</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 25/11/2010</t>
+          <t xml:space="preserve">  Soutenance le 11/06/2018</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 8</t>
+          <t xml:space="preserve">  Université Côte d'Azur (ComUE) en cotutelle avec Université nationale d'Incheon</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t xml:space="preserve">  École doctorale Sciences et technologies de l'information et de la communication (Nice ; 1992-....)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Une nouvelle forme du mauvais goût : l'oeuvre cinématographieque de John Waters 1969-2011.</t>
+          <t xml:space="preserve">  établissement de préparation </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ED Esthetique, sciences et technologie des Arts</t>
+          <t>Les objectifs principaux de cette thèse sont d'identifier les défis et stratégies afin de mettre en œuvre des solutions de Résilience et de Smart Water Management au niveau des politiques et sur le terrain pour une gestion efficace de l'eau. Au cours de la prochaine décennie, plus de 4 milliard de personnes dans le monde vivront dans des zones de pénurie d'eau, et plus des deux tiers de la population mondiale seront confrontés à des conditions de stress hydrique. Cette pénurie d'eau future nécessite une action immédiate sur le développement des ressources, la réduction de la demande et une plus grande efficacité dans le traitement et la transmission. En outre, la gestion future des risques d'inondation nécessite des mesures immédiates dans les domaines de l'évaluation des risques, des systèmes de défense et d'atténuation, des systèmes de prévision et d'alerte, et des mesures institutionnelles et de gouvernance. Avec les impacts du changement climatique, les événements extrêmes seront plus fréquents et sévères. En conséquence, il est nécessaire d'adopter des stratégies alternatives plutôt qu’une approche traditionnelle « prédire et prévenir », qui se concentre principalement sur la réduction de la probabilité d'apparition de perturbations; ce type d'approche a souvent conduit à une construction extensive de digues de protection, à des protections contre les inondations et à d'autres solutions structurelles le long des rivières et des plaines inondables, créant un faux sentiment de sécurité qui augmente la vulnérabilité aux conséquences d'éventuelles inondations. La première moitié de la thèse explore diverses applications des stratégies de résilience aux inondations et les solutions disponibles qui sont et qui peuvent être mises en œuvre pour atténuer les impacts des inondations. L'efficacité des solutions de résilience aux inondations est également examinée, grâce à des simulations hydrologiques hydrauliques d'une étude de cas réelle en Corée du Sud. À partir de cette analyse, des conseils et des stratégies sont développées : la gestion intelligente de l'eau s’avère être un outil permettant la mise en œuvre de solutions de résilience aux inondations, et offrant d’importantes synergies avec les concepts de résilience aux inondations. La seconde moitié de la thèse explore le concept de Smart Water Management et examine les technologies nécessaires à sa mise en œuvre, ainsi que les défis et limites de ces technologies. Des études de cas sur des projets réussis de mise en œuvre de gestion intelligente de l’eau sont étudiées et utilisées pour valider l'orientation et les plans d'action pour la mise en œuvre de gestion intelligente de l’eau. De plus, un cadre de mise en œuvre du système d’eau intelligent pour une ville urbaine est proposé, comprenant le système de demande en eau et le système d'approvisionnement en eau, ainsi qu'un indicateur de détection de fuites pour le système d'approvisionnement en eau. Enfin, on examine l'importance des connexions intelligentes entre les différents domaines d'une ville intelligente avec le système d'eau intelligent et comment ces connexions se produisent dans le système d'eau intelligent.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
+          <t>Résilience et smart water management : stratégies de mise en œuvre pour les villes intelligentes</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Philippe Gourbesville, Gyewoon Choi, Manuel Gomez Valentin, Shie Yui Liong, Jung-Kyu Ahn, Philippe Audra, Dongwook Kim</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Manuel Gomez Valentin, Shie Yui Liong</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4149,7 +4148,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Polytech'Lab - Laboratoire de Polytech Nice-Sophia</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -4164,7 +4163,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Les objectifs principaux de cette thèse sont d'identifier les défis ... comment ces connexions se produisent dans le système d'eau intelligent.</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -4179,12 +4178,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pierre Morel</t>
+          <t xml:space="preserve">  Olga Leshchishina</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pierre Bertrand, Etienne Gravier</t>
+          <t xml:space="preserve">  Alain Campargue, Olga Naumenko</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4194,57 +4193,57 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Physique</t>
+          <t xml:space="preserve">  Physique de la matière condensée et du rayonnement</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 04/07/2008</t>
+          <t xml:space="preserve">  Soutenance le 26/08/2011</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Nancy 1</t>
+          <t xml:space="preserve">  Grenoble en cotutelle avec Institute of atmospheric optics (Tomsk, Russia)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ce travail a porté sur l'étude des instabilités de gradient de température ioniques (ITG) en géométrie cylindrique, le champ magnétique étant supposé constant et dirigé selon l'axe du cylindre. Une fonction de distribution discrète en forme de marche d'escalier est utilisée pour décrire la direction de vitesse parallèle au champ magnétique. L'équation de Vlasov se résume à un système de type multi fluides couplés par l'équation de quasi neutralité. Chaque fluide est décrit par un système fermé d'équations (continuité, Euler et fermeture adiabatique), caractéristiques d'un fluide incompressible, d'où la dénomination de sac d'eau ou "water bag". Le recours à cette description water bag est particulièrement intéressant dans le cas de problèmes à une seule dimension en vitesse. Ainsi, dans le cas des plasmas fortement magnétisés, un modèle water bag peut se combiner avantageusement aux modèles dits girocinétiques. Les paramètres associés a la représentation water bag ont pu être identifiés et reliés aux grandeurs macroscopiques par le biais d'une méthode originale d'équivalence au sens des moments. L'analyse water bag des ITG a permis de valider le modèle et les méthodes choisies. Ce travail a également permis de montrer que le concept de water bag peut sans problème prendre en compte des effets variés comme ceux liés a l'introduction d?un rayon de Larmor fini, tout comme à la description d'un plasma composé de plusieurs espèces d'ions.</t>
+          <t xml:space="preserve">  École doctorale physique (Grenoble, Isère, France ; 1991-....)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Le modèle « water bag » appliqué aux équations cinétiques des plasmas de Tokamak</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  EMMA - Ecole Doctorale Energie - Mécanique - Matériaux</t>
+          <t>The present thesis is devoted to two major atmospheric species – water and oxygen. The absorption spectrum of the 1Delta band of six oxygen isotopologues near was recorded by very high sensitivity CW-CRDS at room temperature and at 80 K. The magnetic dipole-allowed (0-0) band is observed for 16O2, 16O18O, 16O17O, 17O18O, 18O2 and 17O2. The first laboratory detection of extremely weak quadrupole transitions in the (0-0) band of 18O2, 16O17O, 17O2 is reported together with the (1-1) hot band of 16O2, 18O2, 16O17O and 17O2. The partly resolved hyperfine structure of the 16O17O, 17O18O, 17O2 transitions is analysed. These measurements combined with microwave and Raman data available in the literature led to the determination of the best to date spectroscopic constants for the six oxygen isotopologues, including the 17O hyperfine coupling parameters for the 1Delta state. The high resolution absorption spectra of water isotopologues (D216O, HD16O and H218O) were recorded by ICLAS and FTS in the 8800–14100 cm-1 region. The spectrum analysis based on high accuracy variational calculations provided a considerable amount of new energy levels for each of the isotopologues under consideration. The experimental energy levels derived in this study and available in the literature allowed calculating the line positions at the level of experimental accuracy in the 6100–15200 cm-1 region that extends much further the range of the present recordings.</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Etude expérimentale et théorique su spectre d'absorption de la vapeur d'eau vers 800nm et de la bande a¹ÎgøX³Ôgñ de l'oxygène vers 1.27 micron par spectroscopie d'absorption à très haute sensibilité</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>Missing Value</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
           <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dominique Escande, Giovanni Manfredi, Xavier Garbet</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Alain Campargue, Olga Naumenko, Aleksandr z. Fazliev</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Andrey a. Vigasin, Laurence Regalia-Jarlot</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4274,7 +4273,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>Ce travail a porté sur l'étude des instabilités de gradient ... à la description d'un plasma composé de plusieurs espèces d'ions.</t>
+          <t>The present thesis is devoted to two major atmospheric species ... that extends much further the range of the present recordings.</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -4289,12 +4288,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Xavier Lhebrard</t>
+          <t xml:space="preserve">  Marc Pavec</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  François Bouchut</t>
+          <t xml:space="preserve">  Xavier Carton</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4304,52 +4303,52 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques</t>
+          <t xml:space="preserve">  Océanographie physique</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 27/04/2015</t>
+          <t xml:space="preserve">  Soutenance en 2007</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris Est</t>
+          <t xml:space="preserve">  Brest</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nous élaborons et analysons mathématiquement des approximations numériques par des méthodes de type volumes finis de solutions faibles de systèmes hyperboliques pour des écoulements géophysiques. Dans une première partie nous approchons les solutions du système de la magnétohydrodynamique en faible épaisseur avec un fond plat. Nous développons un schéma de type Godunov utilisant un solveur de Riemann approché défini via une méthode de relaxation. Des expressions explicites sont établies pour les vitesses de relaxation, qui permettent d'obtenir un schéma satisfaisant un ensemble de bonnes propriétés de consistance et de stabilité. Il conserve la masse, préserve la positivité de la hauteur de fluide, vérifie une inégalité d'entropie discrète, résout les discontinuités de contact même résonantes, donne des vitesses de propagations contrôlées par les données initiales. Des tests numériques sont effectués, validant les résultats théoriques énoncés. Dans une seconde partie nous approchons les solutions du système de la magnétohydrodynamique en faible épaisseur avec fond variable. Nous développons un schéma équilibre pour certains états stationnaires au repos. Nous utilisons la méthode de reconstruction hydrostatique, avec des états reconstruits pour la hauteur d'eau et les composantes du champ magnétique. Nous trouvons des termes correctifs pour les flux numériques par rapport au cadre habituel, et nous prouvons que le schéma obtenu préserve la positivité de la hauteur d'eau, vérifie une inégalité d'entropie semi-discrète et est consistant. Des tests numériques sont effectués, validant les résultats théoriques. Dans une troisième partie nous établissons la convergence d'un schéma cinétique avec reconstruction hydrostatique pour le système de Saint-Venant avec topographie. De nouvelles estimations sur le gradient des solutions approchées sont obtenues par l'analyse de la dissipation d'énergie. La convergence est obtenue par la méthode de compacité par compensation, sous des hypothèses sur les données initiales et la régularité du fond</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Analyse de quelques schémas numériques pour des problèmes de shallow water</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Mathématiques, Sciences et Technologies de l'Information et de la Communication (Champs-sur-Marne, Seine-et-Marne ; 2015-....)</t>
+          <t>Les écoulements côtiers sont soumis à diverses sources d’instabilités, à l’origine de la formation de structures cohérentes, telles des tourbillons, dont le rôle est essentiel dans la circulation océanique et le transfert de propriétés dans l’océan. Trois configurations idéalisées de courant côtiers (frontal, quasi-géostrophique et shallow-water) sont étudiées dans cette thèse. Le mécanisme bien connu de l’instabilité barocline est mis en évidence sur chacun de ces écoulements et un autre mécanisme, celui de l’instabilité paramétrique est proposé. Il concerne des écoulements dont l’un des paramètres est soumis à une oscillation périodique. Le paramètre variable est la vitesse du courant dans l’exemple frontal, le transport ou la vorticité potentielle barocline dans l’exemple quasi-géostrophique, le courant barotrope dans le modèle shallow-water. Des calculs analytiques permettent de comparer les taux de croissance de ces deux instabilités et de montrer l’amplification de l’instabilité paramétrique au voisinage de la marginalité des systèmes vis-à-vis de l’instabilité barocline. Il est montré par intégration numérique que les effets de l’instabilité paramétrique sont de mème nature que ceux de l’instabilité paramétrique sur la configuration quasi-géostrophique. Le modèle shallow-water présente un front de densité représentatif du front d’Ouessant, Il est montré à partir de simulations numériques MICOM que le mécanisme de l’instabilité barocline permet d’expliquer en grande partie les instabilités observées le long du front. Les effets de l’instabilité paramétrique sont identifiés, mais il semble que leur impact soit faible.</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Instabilités barocline et paramétrique des courants de bord, application au front d'Ouessant</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> François Bouchut, Jacques Sainte-Marie, Robert Eymard</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christophe Berthon, Christian Peter Klingenberg</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4384,7 +4383,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Nous élaborons et analysons mathématiquement des approximations numériques par des ... hypothèses sur les données initiales et la régularité du fond</t>
+          <t>Les écoulements côtiers sont soumis à diverses sources d’instabilités, à ... sont identifiés, mais il semble que leur impact soit faible.</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -4399,12 +4398,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Hui Zhu</t>
+          <t xml:space="preserve">  Son Ho van</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Nicolas Burq, Thomas Alazard</t>
+          <t xml:space="preserve">  Jean-Michel Herri, Baptiste Bouillot</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4414,57 +4413,57 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques fondamentales</t>
+          <t xml:space="preserve">  Génie des procédés</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 27/03/2019</t>
+          <t xml:space="preserve">  Soutenance le 19/07/2019</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université Paris-Saclay (ComUE)</t>
+          <t xml:space="preserve">  Lyon</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dans cette thèse, nous étudions les théories étroitement liées du contrôle, de la stabilisation et de la propagation des singularités, pour des équations aux dérivées partielles dispersives linéaires et non-linéaires. Les résultats principaux proviennent des travaux de l’auteur:[1] Zhu, H., 2016. Stabilization of damped waves on spheres and Zoll surfaces of revolution. ESAIM : Control, Optimisation and Calculus of Variations (ESAIM: COCV), à paraître.[2] Zhu, H., 2017. Control of three dimensional water waves. arXiv preprint arXiv:1712.06130.[3] Zhu, H., 2018. Propagation of singularities for gravity-capillary water waves. arXiv preprint arXiv:1810.09339.Dans [1], nous avons étudié la stabilisation des ondes amorties sur les surfaces de révolution de Zoll. Nous avons donné un exemple où la région d’amortissement est à la limite de la condition du contrôle géométrique, alors que les ondes amorties présentent une décroissance exponentielle uniforme de l’énergie. Cet exemple généralise un résultat de Lebeau. Dans [2], nous avons étudié la contrôlabilité du système des ondes de surface avec tension superficielle. Nous avons démontré, en dimensions arbitraires, la contrôlabilité exacte pour des petites données spatialement périodiques à condition du contrôle géométriques. Ce résultat généralise le travail de Alazard, Baldi et Han-Kwan en dimension deux. Dans [3], nous avons étudié la propagation des singularités pour des ondes de surface avec tension superficielle. Nous avons défini le front d’onde quasi-homogène, généralisant le front d’onde de Hörmander et le front d’onde homogène de Nakamura et démontré des résultats de propagation des fronts d’onde quasi-homogènes par le système des ondes de surface avec tension superficielle. Comme corollaires, nous avons obtenu des effets régularisants locaux et micro-locaux pour les données initiales présentant une décroissance spatiale suffisante.</t>
+          <t xml:space="preserve">  Ed Sis 488</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Contrôle, stabilisation et propagation des singularités pour des EDP dispersives</t>
+          <t xml:space="preserve">  établissement opérateur d'inscription </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale de mathématiques Hadamard (Orsay, Essonne ; 2015-....)</t>
+          <t>Ces travaux de thèse ont pour but de compléter les connaissances actuelles sur la cristallisation des hydrates de cyclopentane dans les domaines de la désalinisation et du traitement de l’eau.Une étude préliminaire montre que les hydrates de cyclopentane sont des composés intéressants pour le dessalement de l’eau, malgré un certain nombre de verrous.Afin de permettre un développement de la voie hydrate, de nombreuses données d’équilibre d’hydrates de cyclopentane en présence de sels ont été obtenues (NaCl, KCl, NaCl-KCl, CaCl2, MgCl2, MgCl2-NaCl, MgCl2-NaCl-KCl, ou Na2SO4). Ces dernières ont ensuite été modélisés selon quatre approches thermodynamiques. L’approche ABOC, corrélant la stœchiométrie des hydrates de cyclopentane à l’activité de l’eau présente d’excellents résultats (erreur &lt; 0.2°C). En plus de ces données, la précipitation des sels a été observée, ce qui offre la possibilité de récupérer ces derniers sous forme cristallisée, en plus du traitement de l’eau.Un travail plus fondamental a été mené sur les mécanismes de cristallisation, les vitesses de croissance des cristaux et la morphologie des hydrates de cyclopentane dans l’eau pure et en présence de sels.Pour terminer, le CO2 a été ajouté comme additif pour permettre d’abaisser les conditions de cristallisation, et de coupler le traitement de l’eau à la capture du dioxide de carbone. Un outil de modélisation thermodynamique basé sur l’approche de van der Waals a été utilisée pour simuler ces équilibres avec une précision moyenne de 0.4°C.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Crystallization of cyclopentane hydrates in presence of brine and carbon dioxide for water treatment and desalination</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
+          <t>Missing Value</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
           <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Nicolas Burq, Thomas Alazard, David Lannes, Jean-Marc Delort, Daniel Tătaru, Gigliola Staffilani, Frédéric Rousset</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jean-Marc Delort, Daniel Tătaru</t>
+          <t xml:space="preserve"> Jean-Michel Herri, Baptiste Bouillot, Christelle Goutaudier, Béatrice Biscans, Praveen Linga</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Béatrice Biscans, Praveen Linga</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4479,12 +4478,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> SPIN-ENSMSE - Centre Sciences des Processus Industriels et Naturels / SPIN-ENSMSE - Centre Sciences des Processus Industriels et Naturels / SPIN-ENSMSE</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Université Paris-Sud (1970-2019)</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -4494,7 +4493,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Dans cette thèse, nous étudions les théories étroitement liées du ... micro-locaux pour les données initiales présentant une décroissance spatiale suffisante.</t>
+          <t>Ces travaux de thèse ont pour but de compléter les ... pour simuler ces équilibres avec une précision moyenne de 0.4°C.</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -4509,12 +4508,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Xunde Li</t>
+          <t xml:space="preserve">  Christine Ranjan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Philippe Brasseur</t>
+          <t xml:space="preserve">  Hyacinthe Randriamahazaka</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4524,57 +4523,57 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences pharmaceutiques. Parasitologie</t>
+          <t xml:space="preserve">  Chimie</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2000</t>
+          <t xml:space="preserve">  Soutenance le 25/10/2022</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Rouen</t>
+          <t xml:space="preserve">  Université Paris Cité</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cryptosporidium parvum oocysts are widely distributed in the environment including natural waters and water supplies and causes both human and animal infection. Waterborne cryptosporidiosis has been identified as an emerging public health problem. This parasite is resistant to most currently used water disinfectants and no effective spécifie treatment has been available. Infectivity of oocysts recovered from waters should be evaluated for estimating the risks of contamination. Variable importance in outbreaks and significance in distribution had been documented for subgenotypes of C. Parvum. In the present study, A NMRI-suckling mice model was developed for evaluation of infectivity of C. Parvum oocysts and in vitro excystation was measured as viability. Infectivity of fourteen isolates of C. Panwm oocysts were investigated and all were infective to suckling mice. Influence of temperature and durations of storage on viability, infectivity and morphology of oocysts were studied. Infectivity of oocysts stored at +10°C decreased more rapidly than that of those stored at +4°C, more contracted size and more changes in external wall structure were observed on oocysts stored at +10°C. Using polypropylene cartridge filter and Gelman Envirochek capsule filters, local environmental waters and local distribution waters were filtered respectively. C. Parvum oocysts were detected in the condensed water samples by IFA. C. Parvum oocysts were also found from condensed mussel (Mytilus edulis) tissues by IFA, IMS and PCR-sequencing. Curative anticryptosporidial activity of nitazoxanide (NTZ) was evaluated in an immunosuppressed rat model and compared with the effects of sinefungin (SNF) and paromomycin (PRM). Although the inhibition rate was lower than that of SNF and PRM, NTZ exerted a long-lasting curative anti-C. Parrwm activity in the immunosuppressed rat. Using the 18S rDNA primers, PCR were performed on 6 isolates of C. Par-tiwm oocysts from clinic AIDS patients, 1 isolate from experimentally infected calf and 2 isolates from mussels. Séquence analysis were performed on the PCR products. Two isolates frome AIDS patients were human genotype (genotype 1), the other four isolates from AIDS patients and the isolates from calf were bovine (genotype 2). The two isolates from mussels were bovine genotype.</t>
+          <t xml:space="preserve">  École doctorale Chimie physique et chimie analytique de Paris Centre (Paris ; 2000-....)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cryptosporidium parvum et environnement : épidémiologie et contrôle de l'environnement hydrique</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Le défi important du XXIe siècle est le réchauffement climatique dû à des décennies d'industrialisation massive en utilisant des énergies fossiles. Cette prise de conscience sur ces questions environnementale s’est traduite par les engagements politiques pris lors de la conférence de Paris de 2015 sur les changements climatiques (COP21). Ainsi, le développement des énergies renouvelables devient une priorité absolue pour notre société. Dans ce contexte, il est primordial de développer d’une manière durable des systèmes de production et de stockage d’énergie. Parmi les dispositifs pouvant répondre à ce défi, les systèmes de stockage d'énergie électrochimique comme les batteries, les piles à combustible et les supercondensateurs jouent un rôle important. L'élément clé pour le développement du stockage d'énergie durable est l'étude des matériaux utilisés pour l'élaboration de l'électrode, car la nature des matériaux conditionne l'efficacité du dispositif. En effet, les systèmes de stockage d'énergie électrochimique mettent en jeu des réactions électrochimiques se déroulant sur les électrodes. Il est alors important d’optimiser les performances telle la capacité à stocker des charges et les propriétés catalytiques. De plus, les matériaux choisis doivent être non seulement abondants et peu onéreux, mais également respectant les contraintes environnementales. Afin d’améliorer les performances des systèmes électrochimiques de stockage d’énergie, on assiste à l'émergence d'un dispositif hybride combinant les propriétés des batteries (énergie élevée, mais faible puissance) et des supercondensateurs (forte puissance, mais faible énergie). Il s’agit de la supercabatterie qui permet d’obtenir une puissance et une énergie élevées. Ces propriétés permettront d'obtenir un appareil doté d’une durée de vie et d’une puissance d'impulsion plus longues. L'application de la supercabatterie est principalement les véhicules électriques ou hybrides. Toujours dans le besoin d’énergie pour le transport, on peut citer les piles à combustible à l’hydrogène qui nécessitent une approche durable pour la production de l’hydrogène. L’électrolyse de l’eau est une approche intéressante pour la production d’hydrogène en utilisant le surplus d’énergie obtenue par des sources d’énergies renouvelables telles que l’énergie solaire ou éolienne. Cependant, les cinétiques sont lentes et demandent une énergie d’activation élevée. Ainsi, il est important de développer des catalyseurs pour la réaction de dégagement d'hydrogène (HER) et la réaction de dégagement d'oxygène (OER) qui sont les réactions impliquées dans l’électrolyse de l'eau. Une autre réaction très étudiée est la réaction de réduction de l'oxygène (ORR) pour l'application de batteries de type métal-air</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Electrochemical investigation of functional interfaces and nanomaterials for energy storage : from supercabattery to water splitting</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Eun Ae Cho</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Kwami Dodzi Zigah, Sara Cavaliere-Jaricot</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4604,7 +4603,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Cryptosporidium parvum oocysts are widely distributed in the environment including ... (genotype 2). The two isolates from mussels were bovine genotype.</t>
+          <t>Le défi important du XXIe siècle est le réchauffement climatique ... de l'oxygène (ORR) pour l'application de batteries de type métal-air</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -4619,12 +4618,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Charbel Mouawad</t>
+          <t xml:space="preserve">  Julien Guilhermet</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Stéphane Desobry</t>
+          <t xml:space="preserve">  Michel Legrand, Didier Voisin</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4634,57 +4633,57 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Procédés biotechnologiques et alimentaires</t>
+          <t xml:space="preserve">  Sciences de l'univers</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 23/10/2007</t>
+          <t xml:space="preserve">  Soutenance le 28/09/2012</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Vandoeuvre-les-Nancy, INPL</t>
+          <t xml:space="preserve">  Grenoble</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Mass transfer intervening during the process of immersion influences the final composition of the product. These transfers primarily depend on the size of the immersed products, as well as temperature, the concentration and the nature of the solution of immersion. The main objective of this work is to study the mass transfer phenomena (water loss and solid gain) in solid/liquid system constituted of vegetable product (eggplant) immerged in salt solution. We determined the kinetic studies of eggplant in different salts solutions with two concentrations (saturation and 20%) at 3°C. The physicochemical properties of solution and salt such as molar concentration, molecular weight and ionic type affected the mechanism of water loss and solid gain. Knowledge about interaction ions/vegetable pectin is important for new product formulation. Determination of partition coefficient of ion in equilibrium system showed that the main physicochemical properties of ions and solution are ionic radius, electronegativity, ionic force and molar concentration. Mathematical predictive model was developed to predict the partition coefficient of ions in food/ solution system. Molecular dynamics simulations using a dynamic force field have been carried out to investigate the absorption of ions (K+, Na+, Ca2+, Mg2+, Cl-) in pectin/water/ion/aqueous solution system. Four systems were used. The results showed that the ionic type (cation and anion) influence the type and number of interactions between pectin-ion and water-ion and then offered an explicit description transfer phenomena and distribution of ions in the system solid/liquid</t>
+          <t xml:space="preserve">  École doctorale Sciences de la terre, de l’environnement et des planètes (Grenoble, Isère, France ; 1992-....)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Transfert de matière dans un système solide/liquide "ions/eau/pectine" : interactions, partage ionique et simulation par dynamique moléculaire</t>
+          <t xml:space="preserve">  Equipe de recherche </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  RP2E - Ecole Doctorale Sciences et Ingénierie des Ressources, Procédés, Produits, Environnement</t>
+          <t>Les aérosols atmosphériques jouent un rôle important à la surface de la Terre. Ils influencent les propriétés radiatives de l'atmosphère et représentent des composés importants pour les questions de qualité de l'air et de santé publique dans les régions polluées. Suite à la forte diminution de la pollution soufrée survenue au cours des trois dernières décennies, l'aérosol organique représente maintenant une part importante de l'aérosol atmosphérique. Cette fraction a une nature complexe et jusqu'à présent, moins de la moitié de ses constituants chimiques ont été identifiés. La fraction soluble des HUmic LIke Substances (HULISWS) représente une des familles importantes de l'aérosol organique soluble avec une contribution en masse comprise entre 20 et 50%. L'objectif de cette thèse est de développer une méthode de mesure des HULISWS dans la glace. L'étude de ces archives environnementales, ici une carotte de glace extraite au col du Dôme (4250 m, massif du Mont-Blanc, France), permet de remonter aux concentrations en HULISWS en Europe au cours de la période 1920-1988. L'étude des concentrations et de l'absorbance spécifique des HULISWS dans la carotte de glace a permis d'identifier deux sources distinctes suivant la saison et de suivre leur évolution au cours du XXème siècle. Les HULISWS sont issus de la combustion du bois en hiver, leur absorbance est forte et leurs concentrations sont faibles et stables tout au long du XXème siècle. En été, les HULISWS sont formés par des processus secondaires ayant pour précurseurs des espèces biogéniques organiques, leur absorbance spécifique est plus faible qu'en hiver et leurs concentrations plus fortes. Les teneurs estivales en HULISWS montrent une stabilité entre 1920 et 1950 puis une tendance à l'augmentation entre 1951 et 1970 associée vraisemblablement à une augmentation des émissions de composés organiques volatils depuis la biosphère.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Water Soluble HUmic LIke Substances dans la moyenne et basse troposphère Européenne : caractérisation et évolution passée</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>Missing Value</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stéphane Desobry, Albert Duquenoy, Bernard Cuq, Rémi Saurel, Muriel Jacquot</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bernard Cuq, Rémi Saurel</t>
+          <t xml:space="preserve"> Michel Legrand, Didier Voisin, Edith Parlanti</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Anne Monod, Eric Wolff</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4714,7 +4713,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Mass transfer intervening during the process of immersion influences the ... transfer phenomena and distribution of ions in the system solid/liquid</t>
+          <t>Les aérosols atmosphériques jouent un rôle important à la surface ... augmentation des émissions de composés organiques volatils depuis la biosphère.</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -4729,57 +4728,57 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thi tra my Bui</t>
+          <t xml:space="preserve">  Marc Duretz</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Khalil Hanna</t>
+          <t xml:space="preserve">  André Rist</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Chimie</t>
+          <t xml:space="preserve">  Métallurgie</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 22/11/2022</t>
+          <t xml:space="preserve">  Soutenance en 1989</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université de Rennes (2023-....)</t>
+          <t xml:space="preserve">  Châtenay-Malabry, Ecole centrale de Paris</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>The effects of fluid flow on chemical reactions at water/mineral interfaces</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Science de la Matière, des Molécules et Matériaux</t>
+          <t>Les performances du haut fourneau à plomb water-jacket sont limitées principalement par le rendement du transfert thermique du gaz vers la charge, et sont notamment très sensibles aux modalités de la combustion du coke. Or, des investigations menées dans les fours de la société METALEUROP (ex-PENARROYA) ont révélé des fluctuations incontrôlées de leur fonctionnement thermique. Nous cherchons à comprendre ces phénomènes pour aider à les maitriser. Nous mettons d'abord en évidence les régimes de diffusion qui gouvernent la gazéification d'un grain de coke dans le four à plomb, et qui font du calibre du coke son critère primordial de qualité. Puis, par des expériences de combustion à échelle 1, nous dressons les cartes de compositions du gaz et de température dans le massif de coke irrigue par une tuyère du Water-Jacket. Nous précisons le rôle des paramètres géométriques et aérodynamiques, dont l'influence masque couramment celle de la réactivité chimique du coke. Enfin, nous examinons par une simulation numérique les relations entre la combustion du coke et le transfert thermique dans le four a plomb. Nous analysons l'influence des caractéristiques du coke et des paramètres de conduite de la marche industrielle sur les performances du four (productivité, mise au mille, températures des produits de coulée et du gaz de gueulard). Nos conclusions concernent les critères et tests de qualité du coke, et la conduite du Water-Jacket. À cote du test actuel de réactivité du coke, nous proposons un test granulométrique et de résistance mécanique pour juger l'opportunité du criblage. Concernant la conduite du four, nous suggérons plusieurs voies d'amélioration: guidage des paramètres opératoires par le suivi en continu, chargement du coke tirant parti de la ségrégation granulométrique, réglage de la répartition du vent aux tuyères</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
+          <t>La combustion dans le four water-jacket à plomb : influence des caractéristiques du coke et des paramètres de conduite</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -4824,7 +4823,7 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Les performances du haut fourneau à plomb water-jacket sont limitées ... ségrégation granulométrique, réglage de la répartition du vent aux tuyères</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -4839,12 +4838,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  François Joseph Chatelon</t>
+          <t xml:space="preserve">  Peng Pu</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pierre Orenga</t>
+          <t xml:space="preserve">  Eliane Sutter, Nadhira Laidani</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4854,42 +4853,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques</t>
+          <t xml:space="preserve">  Génie des procédés et Technologies avancées</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1996</t>
+          <t xml:space="preserve">  Soutenance en 2012</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Corte</t>
+          <t xml:space="preserve">  Paris 6 en cotutelle avec Universita Degti Studi di Trento</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ce mémoire est consacré à l'étude d'un problème de shallow water en mer ouverte. Dans une première partie, nous exposons brièvement la modélisation du problème en formulation hauteur-vitesse. Puis, nous présentons un résultat d'existence de solutions faibles : nous montrons que si les données sont bien choisies, le problème variationnel associé admet des solutions. Pour démontrer ce théorème, nous donnons d'abord les estimations à priori vérifiées par les solutions, puis nous construisons des solutions approchées vérifiant ces majorations. Le point le plus délicat de cette démonstration est le passage à la limite. Les conditions aux limites envisagées sont de deux types. Des résultats d'existence sont énoncés dans le cas de conditions aux limites, utilisées habituellement en océanographie physique, portant sur la vitesse normale avec conditions de dissipation. Nous envisageons également le cas de conditions aux limites classiques de Dirichlet. Ensuite, à l'aide de résultats de régularité, nous montrons l'unicité des solutions. Ces résultats de régularité sont obtenus en utilisant une décomposition orthogonale particulière de l'espace de travail. Ces résultats permettent d'obtenir les majorations nécessaires à l'obtention de l'existence de solutions faibles d'un problème de shallow water bicouche. La méthode originale de résolution numérique est une méthode itérative combinant la méthode de Galerkin (associée à une base spéciale judicieusement choisie) et la méthode des caractéristiques. Dans un domaine à géométrie simplifiée, nous avons utilisé un cas analytique pour valider l'algorithme de résolution puis nous avons réalisé un calcul du champ de vitesse et de la hauteur d'eau lorsque le principal forcing extérieur est le vent.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Analyse d'un problème de shallow water</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Two types of TiO2 nano-tubular arrays with nanotubes (NT) aligned perpendicular to the titanium substrate were obtained by anodization of a titanium foil, in two different solutions (TiO2-NT(TB), TiO2-NT(EG)). In the dark, in the Na2SO4 solution, the EIS study of TiO2-NT (TB) anatase showed that a presence of a localized energy state in the gap which is the signature of the adsorption of molecular water. After UV exposure, the quasi irreversible disappearance of the localized energy states is related to photo-induced adsorbed water dissociation. Furthermore, the increase by a factor 112 of the capacity of the space charge layer was observed after UV exposure. This increase can be explained by the photo activation of the surface of NT, which was inactive before UV exposure. This activation is related to the dissociation of adsorbed molecular water and the insertion of hydrogen into the walls of NT. With a geometric model proposed, a carrier density of about 1018 cm-3 and 1020 cm-3 respectively before and after UV illumination were determined, confirming that the photo-induced activation of the wall of NT is linked to the phenomenon of doping due to hydrogen insertion. In the case of TiO2 –NT(EG), the contribution of adsorption of molecular water was not observed. The carrier density is about 1020cm-3 before and after illumination. In other words, these tubes of TiO2–NT(EG), are already activated before illumination. For a better identification of the chemical nature of the surface state in the case of TiO2–NT(TB), EIS measurements were performed in the same manner, but in acidic and basic media, in order to compare the behaviour to that observed in the Na2SO4 solution</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Etude électrochimique et photo-électrochimique des modes de conduction dans les films de TiO2 nanostructurés</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -4934,7 +4933,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>Ce mémoire est consacré à l'étude d'un problème de shallow ... hauteur d'eau lorsque le principal forcing extérieur est le vent.</t>
+          <t>Two types of TiO2 nano-tubular arrays with nanotubes (NT) aligned ... compare the behaviour to that observed in the Na2SO4 solution</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -4949,12 +4948,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jennifer Maalouf</t>
+          <t xml:space="preserve">  Ribhu Misra</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Brahim Selmaoui</t>
+          <t xml:space="preserve">  Sabine Carton</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4964,53 +4963,52 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Biologie-Santé-Santé Environnement-250031</t>
+          <t xml:space="preserve">  Sciences de Gestion</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le
-Soutenance le 21/09/2023</t>
+          <t xml:space="preserve">  Inscription en doctorat le 01/10/2023</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Amiens</t>
+          <t xml:space="preserve">  Université Grenoble Alpes</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Des inquiétudes croissantes ont été exprimées concernant les risques potentiels pour la santé de l'exposition aux champs de radiofréquence (RF) de faible intensité sur les systèmes biologiques. Alors que les effets thermiques de la RF sont bien connus, les effets non thermiques continuent de faire l'objet de débats. Un domaine contesté est l'impact potentiel des champs de RF de faible intensité sur la thermorégulation et le métabolisme du tissu adipeux. Comprendre la relation dose-réponse et comment différents niveaux d'exposition à la RF peuvent entraîner des réponses physiologiques variées est essentiel pour établir des lignes directrices de sécurité pour l'utilisation des dispositifs sans fil. Des études précédentes suggèrent que l'exposition aux champs de RF peut affecter la thermogenèse chez les rongeurs et modifier les mécanismes biologiques et physiologiques impliqués, impliquant potentiellement les récepteurs TRPM8. L'étude actuelle a exploré le rôle des récepteurs TRPM8 et TRP chauds (Potential Receptor Transient), y compris TRPV1, TRPV4 et TRPM2, en réponse à la RF. De plus, l'étude a examiné les effets dose-réponse des champs de RF de faible intensité sur le tissu adipeux en analysant l'expression de divers gènes thermorégulateurs et le rôle des mitochondries dans ces processus. Elle a évalué l'impact de l'antagoniste AMG2850 après 4 heures d'exposition à la RF, la spécificité de l'effet de l'antagoniste sur le TRPM8, et l'influence de la RF sur les récepteurs TRPV1, TRPV4 et TRPM2. Les températures intra-abdominales de 84 souris C57BL/6J de trois mois ont été enregistrées à l'aide de dispositifs Anipill après injection, les souris étant soit exposées, soit non exposées à un signal RF continu à 900 MHz avec un taux d'absorption spécifique (SAR) de 0,1 W/kg. Les 36 souris mâles (C57BL/6J) ont été divisées en groupes d'exposition et en groupes témoins. Les groupes d'exposition ont subi une exposition continue aux champs de RF à 900 MHz avec un SAR de 0,1 W/kg, 0,4 W/kg ou 4 W/kg pendant trois ou sept jours consécutifs, deux fois par jour pendant une heure chaque fois. Les résultats ont indiqué que l'exposition à la RF affecte instantanément les récepteurs TRPM8, quel que soit le type d'antagoniste utilisé. L'absence d'effets sur les récepteurs chauds soutient l'hypothèse que, chez les rongeurs, l'exposition à la RF stimule spécifiquement la "réponse au froid" via les récepteurs TRPM8 seulement. Les résultats impliquent que l'exposition à la RF peut modifier l'expression de divers marqueurs du tissu adipeux, certains effets étant dépendants de la dose et du temps. La diminution de l'expression de l'ARNm de la citrate synthase et du DIO2 dans le tissu adipeux brun (BAT) suggère des perturbations du métabolisme énergétique et de la thermorégulation en réponse à l'exposition aux radiations RF. De plus, l'expression de l'ARNm de S100B et de Slc6a8 dans le tissu adipeux blanc (WAT) a été trouvée dépendante du niveau de SAR. La réduction de l'expression de l'ARNm de PPARa, et de PRMD16 dans le WAT suggère d'autres perturbations potentielles du métabolisme des lipides et de l'homéostasie énergétique. Cependant, l'absence d'effet significatif sur le nombre de copies de l'ADNmt dans le WAT suggère que l'exposition à la RF à ces niveaux peut ne pas avoir d'impact significatif sur la biogenèse mitochondriale dans le WAT. Dans l'ensemble, l'étude souligne la nature dynamique et dépendante de la dose des réponses cellulaires à l'exposition aux radiations RF et l'impact potentiel de l'exposition aux radiations RF de faible intensité sur le tissu adipeux au niveau moléculaire. Ces résultats ont des implications pour le métabolisme énergétique, la thermorégulation, et la santé métabolique.</t>
+          <t xml:space="preserve">  École doctorale sciences de gestion (Grenoble ; 1997-....)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Effets de lexposition aux ondes radiofréquences : recherche des récepteurs thermiques et des voies de signalisation impliqués</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences, technologie et santé (Amiens)</t>
+          <t>L'activité collaborative est 'le développement organique de projets partagés entre des personnes sur la base de la confiance et de relations personnelles' (Irving et al., 2020, p. 1123). Elle émerge avec le développement d'une communauté basée sur des relations de confiance, (Spinuzzi et al., 2019) dans un 'bien commun affectif' qui doit être activement nourri et gouverné (Waters-Lynch &amp; Duff, 2021). Les individus peuvent délibérément éviter de collaborer, par exemple lorsqu'ils manquent de motivation (Irving et al., 2020) ou lorsque les normes sociales ne soutiennent pas les interactions informelles (Fayard &amp; Weeks, 2007). Les affects se présentent comme des barrières à la collaboration (Dahlman 2023). Ce projet vise à explorer les liens entre affects, informalité au sein des activités collaboratives des CoPL. Pour cela, nous faisons appel aux notions théoriques de coprésence et d'organisationnalité.</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Les visages multiples de la collaboration au sein des communautés en ligne : le rôle des affects et de l'informel</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yann Percherancier, Yves LE DRéAN, Brahim Selmaoui, Flavia Del vecchio</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yann Percherancier, Yves LE DRéAN</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -5045,7 +5043,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>Des inquiétudes croissantes ont été exprimées concernant les risques potentiels ... pour le métabolisme énergétique, la thermorégulation, et la santé métabolique.</t>
+          <t>L'activité collaborative est 'le développement organique de projets partagés entre ... nous faisons appel aux notions théoriques de coprésence et d'organisationnalité.</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -5060,12 +5058,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laurent Massé</t>
+          <t xml:space="preserve">  Xunde Li</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jean-Claude Faugères</t>
+          <t xml:space="preserve">  Philippe Brasseur</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5075,42 +5073,42 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Géologie et océanologie</t>
+          <t xml:space="preserve">  Sciences pharmaceutiques. Parasitologie</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1993</t>
+          <t xml:space="preserve">  Soutenance en 2000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bordeaux 1</t>
+          <t xml:space="preserve">  Rouen</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Des etudes sedimentologiques et geochimiques detaillees ont ete effectuees sur des prelevements realises dans les zones profondes de deux domaines oceaniques de l'atlantique ouest. Elles montrent que l'importance relative des facteurs controlant la repartition des flux sedimentes varie en fonction de l'aire geographique consideree. Le role de la morphologie et des variations climatiques est preferentiellement marque au niveau du prisme sud-barbade. En revanche, les circulations profondes, et en particulier l'antarctic bottom water en provenance des hautes latitudes sud, jouent un role majeur dans le bassin sud-bresilien. Une reconstitution paleohydrologique montre que les periodes d'intensification des circulations liees a cette masse d'eau montrent des liens complexes avec les changements climatiques globaux (periodes glaciaires et interglaciaires)</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sédimentation océanique profonde au quaternaire : flux sédimentés et paléocirculations dans l'Atlantique Sud-Ouest : bassin Sud-brésilien et prisme d'accrétion sud-Barbade</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Cryptosporidium parvum oocysts are widely distributed in the environment including natural waters and water supplies and causes both human and animal infection. Waterborne cryptosporidiosis has been identified as an emerging public health problem. This parasite is resistant to most currently used water disinfectants and no effective spécifie treatment has been available. Infectivity of oocysts recovered from waters should be evaluated for estimating the risks of contamination. Variable importance in outbreaks and significance in distribution had been documented for subgenotypes of C. Parvum. In the present study, A NMRI-suckling mice model was developed for evaluation of infectivity of C. Parvum oocysts and in vitro excystation was measured as viability. Infectivity of fourteen isolates of C. Panwm oocysts were investigated and all were infective to suckling mice. Influence of temperature and durations of storage on viability, infectivity and morphology of oocysts were studied. Infectivity of oocysts stored at +10°C decreased more rapidly than that of those stored at +4°C, more contracted size and more changes in external wall structure were observed on oocysts stored at +10°C. Using polypropylene cartridge filter and Gelman Envirochek capsule filters, local environmental waters and local distribution waters were filtered respectively. C. Parvum oocysts were detected in the condensed water samples by IFA. C. Parvum oocysts were also found from condensed mussel (Mytilus edulis) tissues by IFA, IMS and PCR-sequencing. Curative anticryptosporidial activity of nitazoxanide (NTZ) was evaluated in an immunosuppressed rat model and compared with the effects of sinefungin (SNF) and paromomycin (PRM). Although the inhibition rate was lower than that of SNF and PRM, NTZ exerted a long-lasting curative anti-C. Parrwm activity in the immunosuppressed rat. Using the 18S rDNA primers, PCR were performed on 6 isolates of C. Par-tiwm oocysts from clinic AIDS patients, 1 isolate from experimentally infected calf and 2 isolates from mussels. Séquence analysis were performed on the PCR products. Two isolates frome AIDS patients were human genotype (genotype 1), the other four isolates from AIDS patients and the isolates from calf were bovine (genotype 2). The two isolates from mussels were bovine genotype.</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Cryptosporidium parvum et environnement : épidémiologie et contrôle de l'environnement hydrique</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -5155,7 +5153,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>Des etudes sedimentologiques et geochimiques detaillees ont ete effectuees sur ... complexes avec les changements climatiques globaux (periodes glaciaires et interglaciaires)</t>
+          <t>Cryptosporidium parvum oocysts are widely distributed in the environment including ... (genotype 2). The two isolates from mussels were bovine genotype.</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -5170,12 +5168,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Séka Simplice Kouassi</t>
+          <t xml:space="preserve">  Qiong Wu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sylvie Rossignol, Jonas Andji</t>
+          <t xml:space="preserve">  Christophe Colin</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5185,57 +5183,57 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Matériaux céramiques et traitements de surface</t>
+          <t xml:space="preserve">  Sciences de l'univers</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2011</t>
+          <t xml:space="preserve">  Soutenance le 08/09/2014</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Limoges en cotutelle avec Abidjan</t>
+          <t xml:space="preserve">  Paris 11</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>L’utilisation des déchets de verre comme renforts ou liant (solution de water glass), pour l’élaboration de nouveaux matériaux, implique une meilleure compréhension de la réactivité des espèces siliceuses en milieu basique. Pour répondre à ces préoccupations, deux types d’études ont été développées : l’attaque basique de verre et la synthèse de matériaux consolidés à base de gel silicatés. Les diverses analyses (suivis gravimétrique et chimique, spectroscopie infrarouge, microscopie électronique à balayage) en fonction des différents paramètres (température, granulométrie du verre, agitation, nature de la base, temps. . ) ont révélé qu’il était possible de maîtriser la dissolution du verre et donc le rapport molaire Si/Na de la solution de water glass. Les études de consolidation des systèmes granulaires (silice-sable-gel) ont permis d’identifier des domaines dépendant de la granulométrie de SiO2. Les mécanismes de consolidation se font par une compétition entre du séchage par capillarité et des réactions de polycondensation entrainant des mécanismes de dissolution / précipitation des composés siliceux.</t>
+          <t xml:space="preserve">  Ecole doctorale Modélisation et Instrumentation en Physique, Energie, Géosciences et Environnement (Orsay, Essonne ; 2010-2015)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Etude de la dissolution d'un réseau silicaté en présence d'une solution alcaline</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Le but de cette étude est de retracer l’évolution de l’hydrologie dans la partie occidentale de l’Océan Pacifique subtropical en utilisant le proxy εNd analysé sur les foraminifères et sur les oxydes de ferromanganèse authigéniques dans les sédiments. Ceux-ci proviennent de carottes sédimentaires prélevées au nord de la Mer de Chine du Sud (MCS). Avant d’utiliser l’εNd dans les sédiments profonds de la MCS, 16 profils d’eau de mer, collectés au nord de la MCS et dans le Mer des Philippines, ont été analysés afin d’établir la distribution d’εNd des masses d’eau dans l’ouest du Pacifique tropical et dans la MCS, qui jusqu’à aujourd’hui n’était pas documentée. Les valeurs d’εNd des masses d’eau profondes et intermédiaires varient de -2,7 à -4,4 et augmentent légèrement avec la profondeur. Dans la mer des Philippines, les valeurs d’εNd de l’eau intermédiaire du Pacifique Nord (North Pacific Intermediate Water, NPIW) atteint -2.7±0.4 à moyenne profondeur (500 à 1400m). En-dessous de de 1800m, l’eau profonde Pacifique (Pacific Deep Water, PDW) est caractérisée par du Nd moins radiogénique (-4.1±0.5), indiquant l’intrusion de masses d’eau australes. Pour la plupart des stations du nord de la MCS, les masses d’eau en-dessous de 1500m (PDW) affichent des valeurs d’εNd homogènes (~ -4.1), similaires à celles de la PDW dans la Mer des Philippines. Les valeurs d'εNd pour l'eau intermédiaire de la mer de Chine du Sud (South China Sea Intermediate Water, SCSIW, 500-1500m) varient entre -3.0 et -3.9 dû au mélange vertical de la NPIW avec la PDW. Les valeurs d'εNd de l'eau de mer dans la MCS (-5.3 à -7.0) affichent des modifications locales dans des zones où l'eau s'écoule au-dessus de systèmes de dépôt sédimentaire. Ceci implique que "l'échange à la marge" avec des sédiments non radiogéniques (autour de -11) peut se produire dans le temps et dans l'espace sans modifier la composition isotopique du Nd de la PDW dans le Nord de la MCS. Dans un second temps, l’εNd extrait des foraminifères planctoniques G. ruber a été étudié sur la carotte MD05-2904, collectée à 2000m de profondeur sur la marge nord-ouest de la MCS. Cette étude a été conduite dans le but de retracer les variations hydrologiques depuis le Dernier Maximum Glaciaire (DMG) dans la partie occidentale du Pacifique Nord subtropical. Les enregistrements d'εNd ainsi obtenus couvrent les derniers 25 000 ans. Ils affichent une large gamme de valeurs de -4±0.2 à -6.7±0.3, suggérant d'importants changements dans la contribution de la NPDW (εNd=-4) et de la UCDW (Upper circumpolar Deep Water, εNd -6 to -8) dans la zone étudiée. Durant la déglaciation, les enregistrements d'εNd indiquent une diminution des excursions négatives de l'εNd impliquant une plus forte proportion de SSW (Southern-sourced Water) entre 17 et 15 ka BP ainsi qu'entre 10 et 8 ka BP. Ces intervalles de temps sont contemporains de l’évènement Heinrich 1 (HS1) et de l’Holocène inférieur. Les shifts négatifs centrés sur le HS1 coïncident avec un phénomène d'upwelling renforcé dans l'océan austral, associé à un déplacement vers le pôle des vents d'ouest. Ceci implique une augmentation de la formation de la SSW qui se propage dans l'Ouest du Pacifique subtropical. L'excursion négative de l'εNd durant l’Holocène inferieur (~10-8 cal ka BP) indique une plus grande proportion de SSW qui pourrait être associée avec une plus forte production de SSW, comme observé récemment dans l'atlantique Sud, et/ou avec une possible réduction de la NPIW. Nos données suggèrent que le schéma de circulation actuel dans la partie occidental du Pacifique subtropical s'est mis en place il y a 4600 ans.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  autre partenaire </t>
+          <t>Etude de l'hydrologie de la Mer de Chine du Sud depuis la dernière période glaciaire à partir de la composition isotopique du Nd analysé dans les foraminifères</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Christophe Colin, Giuseppe Siani, Laure Meynadier, Paolo Montagna, Pinxian Wang, Zhifei Liu</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Laure Meynadier, Paolo Montagna</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5265,7 +5263,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>L’utilisation des déchets de verre comme renforts ou liant (solution ... entrainant des mécanismes de dissolution / précipitation des composés siliceux.</t>
+          <t>Le but de cette étude est de retracer l’évolution de ... subtropical s'est mis en place il y a 4600 ans.</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -5280,67 +5278,67 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Zhujie Li</t>
+          <t xml:space="preserve">  Sereyvathana Sok</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathieu Salanne</t>
+          <t xml:space="preserve">  Dominique Wolbert</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Chimie physique</t>
+          <t xml:space="preserve">  Chimie</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 15/11/2018</t>
+          <t xml:space="preserve">  Inscription en doctorat le 01/12/2023</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sorbonne université</t>
+          <t xml:space="preserve">  Université de Rennes (2023-....)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Les électrolytes de type "water-in-salt" sont composés d'un sel dissous en très grande quantité dans de l'eau, au point que celle-ci devient minoritaire. Parmi ceux-ci les mélanges employant le bis(trifluoromethane) sulfonimide de lithium (LiTFSI) en tant que sels sont très prometteurs pour des applications de stockage électrochimique de l'énergie. Cependant les propriétés des liquides et des interfaces qu'ils forment ne sont pas encore bien connues. Au cours de cette thèse, nous avons réalisé des simulations de dynamique moléculaire de water-in-salts à base de LiTFSI sur une large gamme de concentration. Sa validité est fortement conditionnée par le champ de forces utilisé pour représenter les interactions entre les atomes, c'est pourquoi dans un premier temps nous avons testé une série de champs de forces issus de la littérature. Celui permettant de reproduire au mieux des mesures de viscosité et de coefficients d'auto-diffusion a alors été retenu. Nous avons ainsi pu déterminer la variation de la coordinence des ions lithium vis-à-vis des molécules d'eau et des ions TFSI avec la concentration. Nous avons pu observer que pour les systèmes les plus concentrés, une déshydratation partielle des ions lithium a lieu, ce qui impacte fortement la viscosité du milieu. Nous avons ensuite simulé des interfaces entre ces liquides et des électrodes de carbone à différents potentiels, ce qui nous a permis de déterminer la capacité de stockage. Nous avons observé une forte dissymétrie entre les électrodes positives et négatives, qui sont attribuées à la différence de taille très marquée entre les cations et les anions.</t>
+          <t xml:space="preserve">  Science de la Matière, des Molécules et Matériaux</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Électrolyte de type "water-in-salt" pour les supercondensateurs : étude par dynamique moléculaire</t>
+          <t xml:space="preserve">  Equipe de recherche </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Chimie physique et chimie analytique de Paris Centre (Paris ; 2000-....)</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Removal Organic Micropollutants by Coupling Simultaneous Continuous Adsorption and Sedimentation for Drinking Water Production</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Catherine Bessada, Olivier Fontaine</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joachim Dzubiella, Magali Duvail</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5375,7 +5373,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>Les électrolytes de type "water-in-salt" sont composés d'un sel dissous ... de taille très marquée entre les cations et les anions.</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
@@ -5390,12 +5388,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Stéphane Pous</t>
+          <t xml:space="preserve">  Julie Boisselier</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Xavier Carton, Pascal Lazure</t>
+          <t xml:space="preserve">  Emmanuel Pauthe</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5405,57 +5403,57 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Océanographie physique et Environnement</t>
+          <t xml:space="preserve">  Sciences de la vie et de la santé - Cergy</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2005</t>
+          <t xml:space="preserve">  Soutenance le 09/11/2016</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Brest</t>
+          <t xml:space="preserve">  Cergy-Pontoise</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>La circulation dans les golfes Persique et d'Oman est un système complexe et mal connu qui résulte de l'interaction de nombreux forçages à différentes échelles de temps. A l'échelle de quelques heures , la marée joue un rôle important. A l'échelle saisonnière et inter-annuelle, une circulation thermohaline, typique d'un bassin de concentration, se met en place. Elle est caractérisée par une circulation cyclonique à forte variabilité saisonnière et par l'interaction de deux masses d'eaux : une eau dense formée dans le Golfe Persique (Persian Gulfe Water) qui s'écoule sous la forme d'une veine dans le Golfe d'Oman et une eau plus légère en provenance des couches de surface de l'Océan Indien (Indian Ocean surface water). L'analyse des données de la campagne GOGP99, réalisée en automne 1999, montre l'existence des deux masses d'eaux PGW et IOSW, ainsi qu'une variabilité temporelle et spatiale importante des structures hydrologiques et courantologiques, l'évolution des caractéristiques de la veine d'eau PGW jusqu'en mer d'Arabie est précisée. Un modèle réaliste de la circulation dans les deux golfes est développé pour comprendre les différents aspects de la dynamique. La circulation dans le golfe persique, les interactions entre les masses d'eau PGW et IOSW, la formation puis le développement de l'eau PGW dans le Golfe d'Oman sont détaillés et une variabilité importante est mise en évidence. Une étude de processus précise la part des différents forçages. L'importance de la paramétrisation des flux de chaleur est mise en évidence. Finalement,une étude de sensibilité à la variation de certains forçages (fleuve, évaporation) et à la paramétrisation de la turbulence est réalisée.</t>
+          <t xml:space="preserve">  École doctorale Sciences et ingénierie (Cergy-Pontoise, Val d'Oise)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Dynamique océanique dans les golfes Persiques et d'Oman</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>En ingénierie tissulaire, la survie in vivo de cellules souches implantées au sein d’un biomatériau est limitée par les conditions d’un environnement ischémique qui se caractérise par un déficit en oxygène et en nutriments. Récemment, dans le cadre d’un projet de recherche dédié au développement d’un hydrogel composite à base de fibrine, biomatériau conçu pour améliorer la survie de cellules souches post-implantation, il a été mis en évidence la nécessité de contrôler dans le temps et l’espace la disponibilité du glucose au sein de ce matériau. Cet apport in situ de glucose est réalisé par dégradation contrôlée de l’amidon, un polymère de glucose. Cette production est assurée par action enzymatique d’un catalyseur spécifique de l’hydrolyse de l’amidon, l’amyloglucosidase (AMG).Toutefois, il convient de maitriser différents paramètres tels que la fuite de l’AMG en dehors de l’hydrogel ou encore sa perte d’activité au cours du temps. Dans ce contexte, l’encapsulation de l’AMG dans des nanoparticules d’un polymère biodégradable et biocompatible, ici l’acide poly(lactique-co-glycolique) (PLGA), devrait permettre le contrôle des paramètres susmentionnés.Des nanoparticules de type core-shell contenant l’AMG (NPe) ont été synthétisés par l’adaptation d’un protocole de double émulsion (water-oil-water). Différentes méthodes ont été développées pour déterminer les propriétés physico-chimiques et biochimiques des nanoparticules produites. Le protocole de synthèse a été optimisé afin de produire des nanoparticules reproductibles et stériles utilisables dans des hydrogels implantables in vivo.Le cahier des charges de l’hydrogel enrichi en amidon et en NPe impose un apport continu du glucose pendant 1 mois. La stabilité des nanoparticules a été étudiée en solution et dans les hydrogels. La production de glucose grâce à ces NPe a été investiguée en solution et en hydrogel mettant en avant l’intérêt de ces nanoparticules au sein du dispositif.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Mise en œuvre d’un système de confinement et de délivrance moléculaire pour la production in situ de glucose au sein d’un hydrogel conçu pour l'ingénierie tissulaire</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Emmanuel Pauthe, Adeline Gand</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Nicolas Blanchemain, Jean Coudane</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -5485,7 +5483,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>La circulation dans les golfes Persique et d'Oman est un ... évaporation) et à la paramétrisation de la turbulence est réalisée.</t>
+          <t>En ingénierie tissulaire, la survie in vivo de cellules souches ... en avant l’intérêt de ces nanoparticules au sein du dispositif.</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -5500,57 +5498,57 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Arnaud Duran</t>
+          <t xml:space="preserve">  Quentin Cerutti</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pascal Azerad, Fabien Marche</t>
+          <t xml:space="preserve">  Pascale Domingo, Guillaume Ribert</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques et modélisation</t>
+          <t xml:space="preserve">  Mecanique des fluides, energetique, thermique, combustion, acoustique</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 17/10/2014</t>
+          <t xml:space="preserve">  Inscription en doctorat le 01/10/2022</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Montpellier 2</t>
+          <t xml:space="preserve">  Normandie</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ce travail est consacré au développement de schémas numériques pour approcher les solutions de modèles d'écoulement type “depth averaged”. Dans un premier temps, nous détaillons la construction d'approches Volumes Finis pour le système Shallow Water avec termes sources sur maillages non structurés. En se basant sur une reformulation appropriée des équations, nous mettons en place un schéma équilibré et préservant la positivité de la hauteur d'eau, et suggérons des extensions MUSCL adaptées. La méthode est capable de gérer des topographies irrégulières et exhibe de fortes propriétés de stabilité. L'inclusion des termes de friction fait l'objet d'une analyse poussée, aboutissant à l'établissement d'une propriété type “Asymptotic Preserving” à travers l'amélioration d'un autre récent schéma Volumes Finis. La seconde composante de cette étude concerne les méthodes Elements Finis type Galerkin discontinu. Certaines des idées avancées dans le contexte Volumes Finis sont employées pour aborder le système Shallow Water surmaillages triangulaires. Des résultats numériques sont exposés et la méthode se révèle bien adaptée à la description d'une large variété d'écoulements. Partant de ces observations nous proposons finalement d'exploiter ces caractéristiques pour étendre l'approche à une nouvelle famille d'équations type Green-Nadghi. Des validations numériques sont également proposées pour valider le modèle numérique.</t>
+          <t xml:space="preserve">  École doctorale physique, sciences de l’ingénieur, matériaux, énergie (Saint-Etienne du Rouvray, Seine Maritime)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Simulation numérique de modèles d'écoulement type "depth averaged" : une classe de schémas Volumes Finis et Galerkin discontinu</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Information, Structures, Systèmes (Montpellier ; École Doctorale ; 2009-2014)</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Modeling and simulation of hydrogen combustion in the presence of water vapor</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Examinateurs / Examinatrices </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5560,7 +5558,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jean-Luc Guermond, Nicolas Seguin</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -5575,7 +5573,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Institut national des sciences appliquées Rouen Normandie (Saint-Etienne-du-Rouvray ; 1985-....)</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -5595,7 +5593,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Ce travail est consacré au développement de schémas numériques pour ... validations numériques sont également proposées pour valider le modèle numérique.</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -5610,72 +5608,73 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Son Ho van</t>
+          <t xml:space="preserve">  Jennifer Maalouf</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jean-Michel Herri, Baptiste Bouillot</t>
+          <t xml:space="preserve">  Brahim Selmaoui</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Génie des procédés</t>
+          <t xml:space="preserve">  Biologie-Santé-Santé Environnement-250031</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 19/07/2019</t>
+          <t xml:space="preserve">  Inscription en doctorat le
+Soutenance le 21/09/2023</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Lyon</t>
+          <t xml:space="preserve">  Amiens</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ces travaux de thèse ont pour but de compléter les connaissances actuelles sur la cristallisation des hydrates de cyclopentane dans les domaines de la désalinisation et du traitement de l’eau.Une étude préliminaire montre que les hydrates de cyclopentane sont des composés intéressants pour le dessalement de l’eau, malgré un certain nombre de verrous.Afin de permettre un développement de la voie hydrate, de nombreuses données d’équilibre d’hydrates de cyclopentane en présence de sels ont été obtenues (NaCl, KCl, NaCl-KCl, CaCl2, MgCl2, MgCl2-NaCl, MgCl2-NaCl-KCl, ou Na2SO4). Ces dernières ont ensuite été modélisés selon quatre approches thermodynamiques. L’approche ABOC, corrélant la stœchiométrie des hydrates de cyclopentane à l’activité de l’eau présente d’excellents résultats (erreur &lt; 0.2°C). En plus de ces données, la précipitation des sels a été observée, ce qui offre la possibilité de récupérer ces derniers sous forme cristallisée, en plus du traitement de l’eau.Un travail plus fondamental a été mené sur les mécanismes de cristallisation, les vitesses de croissance des cristaux et la morphologie des hydrates de cyclopentane dans l’eau pure et en présence de sels.Pour terminer, le CO2 a été ajouté comme additif pour permettre d’abaisser les conditions de cristallisation, et de coupler le traitement de l’eau à la capture du dioxide de carbone. Un outil de modélisation thermodynamique basé sur l’approche de van der Waals a été utilisée pour simuler ces équilibres avec une précision moyenne de 0.4°C.</t>
+          <t xml:space="preserve">  École doctorale Sciences, technologie et santé (Amiens)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Crystallization of cyclopentane hydrates in presence of brine and carbon dioxide for water treatment and desalination</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ed Sis 488</t>
+          <t>Des inquiétudes croissantes ont été exprimées concernant les risques potentiels pour la santé de l'exposition aux champs de radiofréquence (RF) de faible intensité sur les systèmes biologiques. Alors que les effets thermiques de la RF sont bien connus, les effets non thermiques continuent de faire l'objet de débats. Un domaine contesté est l'impact potentiel des champs de RF de faible intensité sur la thermorégulation et le métabolisme du tissu adipeux. Comprendre la relation dose-réponse et comment différents niveaux d'exposition à la RF peuvent entraîner des réponses physiologiques variées est essentiel pour établir des lignes directrices de sécurité pour l'utilisation des dispositifs sans fil. Des études précédentes suggèrent que l'exposition aux champs de RF peut affecter la thermogenèse chez les rongeurs et modifier les mécanismes biologiques et physiologiques impliqués, impliquant potentiellement les récepteurs TRPM8. L'étude actuelle a exploré le rôle des récepteurs TRPM8 et TRP chauds (Potential Receptor Transient), y compris TRPV1, TRPV4 et TRPM2, en réponse à la RF. De plus, l'étude a examiné les effets dose-réponse des champs de RF de faible intensité sur le tissu adipeux en analysant l'expression de divers gènes thermorégulateurs et le rôle des mitochondries dans ces processus. Elle a évalué l'impact de l'antagoniste AMG2850 après 4 heures d'exposition à la RF, la spécificité de l'effet de l'antagoniste sur le TRPM8, et l'influence de la RF sur les récepteurs TRPV1, TRPV4 et TRPM2. Les températures intra-abdominales de 84 souris C57BL/6J de trois mois ont été enregistrées à l'aide de dispositifs Anipill après injection, les souris étant soit exposées, soit non exposées à un signal RF continu à 900 MHz avec un taux d'absorption spécifique (SAR) de 0,1 W/kg. Les 36 souris mâles (C57BL/6J) ont été divisées en groupes d'exposition et en groupes témoins. Les groupes d'exposition ont subi une exposition continue aux champs de RF à 900 MHz avec un SAR de 0,1 W/kg, 0,4 W/kg ou 4 W/kg pendant trois ou sept jours consécutifs, deux fois par jour pendant une heure chaque fois. Les résultats ont indiqué que l'exposition à la RF affecte instantanément les récepteurs TRPM8, quel que soit le type d'antagoniste utilisé. L'absence d'effets sur les récepteurs chauds soutient l'hypothèse que, chez les rongeurs, l'exposition à la RF stimule spécifiquement la "réponse au froid" via les récepteurs TRPM8 seulement. Les résultats impliquent que l'exposition à la RF peut modifier l'expression de divers marqueurs du tissu adipeux, certains effets étant dépendants de la dose et du temps. La diminution de l'expression de l'ARNm de la citrate synthase et du DIO2 dans le tissu adipeux brun (BAT) suggère des perturbations du métabolisme énergétique et de la thermorégulation en réponse à l'exposition aux radiations RF. De plus, l'expression de l'ARNm de S100B et de Slc6a8 dans le tissu adipeux blanc (WAT) a été trouvée dépendante du niveau de SAR. La réduction de l'expression de l'ARNm de PPARa, et de PRMD16 dans le WAT suggère d'autres perturbations potentielles du métabolisme des lipides et de l'homéostasie énergétique. Cependant, l'absence d'effet significatif sur le nombre de copies de l'ADNmt dans le WAT suggère que l'exposition à la RF à ces niveaux peut ne pas avoir d'impact significatif sur la biogenèse mitochondriale dans le WAT. Dans l'ensemble, l'étude souligne la nature dynamique et dépendante de la dose des réponses cellulaires à l'exposition aux radiations RF et l'impact potentiel de l'exposition aux radiations RF de faible intensité sur le tissu adipeux au niveau moléculaire. Ces résultats ont des implications pour le métabolisme énergétique, la thermorégulation, et la santé métabolique.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  établissement opérateur d'inscription </t>
+          <t>Effets de lexposition aux ondes radiofréquences : recherche des récepteurs thermiques et des voies de signalisation impliqués</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
+          <t>Missing Value</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jean-Michel Herri, Baptiste Bouillot, Christelle Goutaudier, Béatrice Biscans, Praveen Linga</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Béatrice Biscans, Praveen Linga</t>
+          <t xml:space="preserve"> Yann Percherancier, Yves LE DRéAN, Brahim Selmaoui, Flavia Del vecchio</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Yann Percherancier, Yves LE DRéAN</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -5685,7 +5684,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SPIN-ENSMSE - Centre Sciences des Processus Industriels et Naturels / SPIN-ENSMSE - Centre Sciences des Processus Industriels et Naturels / SPIN-ENSMSE</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -5705,7 +5704,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>Ces travaux de thèse ont pour but de compléter les ... pour simuler ces équilibres avec une précision moyenne de 0.4°C.</t>
+          <t>Des inquiétudes croissantes ont été exprimées concernant les risques potentiels ... pour le métabolisme énergétique, la thermorégulation, et la santé métabolique.</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -5720,57 +5719,57 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Benoît Abadie</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  John-Joseph Armitage</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Hydrogéologie</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Inscription en doctorat le 04/03/2024</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Sorbonne université</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Dans les absorbeurs solaires classiques, le fluide caloporteur est chauffé au contact d'une paroi opaque métallique exposée au rayonnement solaire concentré (absorbeur surfacique). Le concept en rupture proposé consiste à remplacer ce tube métallique par un tube en verre et le caloporteur transparent (en général) dans le spectre solaire par une suspension de graphène dans l'eau. Dans ces conditions, l'absorption du rayonnement solaire ne se produit plus en surface mais dans le volume, il s'agit d'un absorbeur volumique. Des mesures préliminaires d'absorption spectrales réalisées avec de « l'eau de graphène » fournit par l'entreprise « Carbon Waters® » ont permis de valider le concept. Les travaux de thèse viseront à développer et évaluer la performance du collecteur solaire avec des modèles numériques ainsi qu'avec un prototype expérimental. L'étude d'un dispositif hydride CSP-PV sera aussi envisagé.</t>
+          <t xml:space="preserve">  École doctorale Géosciences, ressources naturelles et environnement (Paris ; 2000-....)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Développement d'un absorbeur solaire volumique utilisant un nanofluide pour un concentrateur linéaire</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Modélisation de l'écoulement de l'eau à l'échelle d'un petit bassin versant et son effet sur l'évolution du paysage.</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Hidden water and landscapr erosion: Understanding the link between storage, release, and catastrophic erosion</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -5815,7 +5814,7 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>Dans les absorbeurs solaires classiques, le fluide caloporteur est chauffé ... prototype expérimental. L'étude d'un dispositif hydride CSP-PV sera aussi envisagé.</t>
+          <t>Modélisation de l'écoulement de l'eau à l'échelle d'un petit bassin versant et son effet sur l'évolution du paysage.</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -5830,12 +5829,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mengdie Cai</t>
+          <t xml:space="preserve">  Friederike Hemmer</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Andrei Khodakov, Vitaly Ordomsky</t>
+          <t xml:space="preserve">  Frédéric Parol, Laurent Couillard-Labonnote, Gérard Brogniez</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5845,42 +5844,42 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Molécules et matière condensée</t>
+          <t xml:space="preserve">  Terre, enveloppes fluides</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 09/10/2015</t>
+          <t xml:space="preserve">  Soutenance le 07/12/2018</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Lille 1</t>
+          <t xml:space="preserve">  Université de Lille (2018-2021)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Des nouveaux catalyseurs bi-fonctionnels Cu-ZnO-Al2O3/ZSM-5 pour la synthèse directe du diméthyle éther (DME) à partir du gaz de synthèse ont été préparés par mélange physique, et ensuite caractérisés et évalués dans un réacteur à lit fixe. L'activité catalytique dans la synthèse de DME a été attribuée à des sites métalliques de cuivre et à l’acidité de la zéolite. Les cristaux de zéolite de petite taille favorisent une activité plus importante. La désactivation du catalyseur est fortement influencée par les sites acides localisés à la surface externe de la zéolite. Une acidité importante de la surface externe de ZSM-5 conduit à une désactivation rapide du catalyseur. Le frittage et la migration du cuivre font partie des mécanismes prédominants de la désactivation. Les sites acides à la surface de la zéolite ont été sélectivement neutralisés par silylation avec le tétraéthyle orthosilicate. Par conséquent, la stabilité du catalyseur et la productivité en DME ont été significativement améliorées. Le dioxyde de carbone est un produit indésirable de la synthèse directe du DME. Il est formé par la réaction Water-Gas-Shift. La promotion des catalyseurs Cu-Zn-Al /HZSM-5 avec de l’étain permet de modérer la réaction Water-Gas-Shift et d’augmenter la sélectivité en DME.</t>
+          <t xml:space="preserve">  École doctorale Sciences de la matière, du rayonnement et de l'environnement (Lille ; 1992-....)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Conception de nouveaux catalyseurs hybrides pour la synthèse directe du diméthyle éther à partir du gaz de synthèse</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences de la matière, du rayonnement et de l'environnement (Lille ; 1992-....)</t>
+          <t>Il est maintenant bien établi que les cirrus ont un impact important sur le climat. Cependant, l'estimation de cet effet est difficile car notre connaissance des propriétés microphysiques de ce type de nuage est encore incertaine. L'objectif de cette thèse est donc d’améliorer notre compréhension de la microphysique complexe du cirrus composé principalement de cristaux de glace de forme irrégulière et d'estimer ainsi un contenu en glace (ice water content, IWC) plus précis. Pour cela, nous avons développé un algorithme permettant de restituer le profil vertical d'IWC du cirrus. La méthodologie considère une synergie entre les mesures d'un lidar et celles d'un radiomètre infrarouge thermique (IRT) effectuées depuis le sol, via une méthode d'estimation optimale. Ce travail s’est déroulé en trois étapes: (1) Le contenu en glace intégré verticalement (ice water path, IWP) est estimé à partir des mesures passives IRT. (2) L'information sur la distribution verticale d'IWC à l'intérieur du nuage est obtenue avec les mesures actives du lidar. Cette restitution dépend fortement du rapport entre la rétrodiffusion et l'extinction des cristaux de glace obtenu avec un modèle microphysique. La fonction de phase du modèle utilisée pour définir ce rapport ne prend pas en compte le pic de rétrodiffusion. Nous montrons que cette hypothèse aboutit à des résultats non réalistes par rapport aux mesures IRT. (3) Par conséquent, les deux types d’informations sont combinées en synergie pour estimer, lors de la restitution des profils verticaux d'IWC, un facteur correctif permettant de rendre compte de ce pic de rétrodiffusion. Finalement, les résultats et les hypothèses associées sont discutés.</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Caractérisation des cirrus à partir de mesures de surface en utilisant la synergie entre lidar et radiomètre infrarouge thermique</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -5925,7 +5924,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>Des nouveaux catalyseurs bi-fonctionnels Cu-ZnO-Al2O3/ZSM-5 pour la synthèse directe du ... modérer la réaction Water-Gas-Shift et d’augmenter la sélectivité en DME.</t>
+          <t>Il est maintenant bien établi que les cirrus ont un ... rétrodiffusion. Finalement, les résultats et les hypothèses associées sont discutés.</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -5940,12 +5939,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Alexandre Paris</t>
+          <t xml:space="preserve">  Frédéric Bosseur</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Stéphane Abadie, Philippe Heinrich</t>
+          <t xml:space="preserve">  Pierre Orenga</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5955,42 +5954,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Géosciences</t>
+          <t xml:space="preserve">  Mathématiques</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 13/09/2021</t>
+          <t xml:space="preserve">  Soutenance en 1998</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pau</t>
+          <t xml:space="preserve">  Corte</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Les effondrements gravitaires sont la deuxième cause de génération de tsunamis après les séismes. Il est important de bien les comprendre afin de prévenir de futures catastrophes ou de développer les systèmes d’alerte. Pour cela, des modèles analogiques, en laboratoire, ou numériques sont utilisés. Dans la deuxième catégorie, de nombreux modèles existent et peuvent produire des résultats similaires pour un cas donné. Parmi eux, les modèles intégrés sur la profondeur qui utilisent par exemple les équations de type shallow water ou de Boussinesq, peuvent être opposés aux modèles Navier-Stokes. L’objectif de cette thèse est de comparer ces deux stratégies à l’aide de deux modèles spécifiques un modèle intégré sur la hauteur, AVALANCHE, et un modèle Navier-Stokes, OpenFOAM. Tout d’abord, les deux modèles sont calibrés grâce à deux benchmarks, un glissement subaérien et un submergé. Cette étude a montré que les deux modèles pouvaient reproduire les données expérimentales et que plusieurs combinaisons de paramètres permettaient d’obtenir les mêmes résultats. Ensuite, des études de sensibilité sont réalisées afin d’évaluer l’influence de la position initiale du glissement et de la pente, et d’observer le comportement des différentes équations (shallow water, Boussinesq ou Navier-Stokes) pendant les phases de génération et de propagation de la vague. Enfin, l’application des deux modèles à deux cas réels, le glissement et le tsunami du 17 juin 2017 dans le Karrat Fjord au Groenland et le tsunami généré par l’effondrement du volcan Anak Krakatau le 22 décembre 2018, en Indonésie, permet de les comparer entre eux.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Comparaison de modèles de tsunamis générés par glissements de terrain et exploration des champs d'application</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale sciences exactes et leurs applications (Pau, Pyrénées Atlantiques ; 1995-)</t>
+          <t>L'objectif de ce travail est l'étude des écoulements de fluides géophysiques dans des domaines à frontières ouvertes tels que détroits ou baies, ou se pose souvent le problème de la connaissance des conditions aux limites sur la vitesse et la hauteur d'eau. Les trois axes essentiels de cette étude sont la modélisation mathématique, l'analyse théorique des équations et leur résolution numérique. Concernant la modélisation, nous donnons les diverses hypothèses qui permettent d'établir les équations d'un modèle de Shallow Water en formulation hauteur-vitesse. Au niveau théorique, nous présentons les différentes techniques utilisées pour la détermination du gradient d'une fonctionnelle mesurant les écarts entre la solution désirée et la solution calculée, suivant les types de contrôle et d'observations considérés. Le principe général de la méthode repose sur l'utilisation des équations adjointes du modèle linéaire tangent. Si, dans le cas linéaire, nous avons pu donner les conditions nécessaires et suffisantes d'existence et d'unicité d'un contrôle optimal, dans le cas non linéaire, nous ne donnons que des résultats de régularité nécessaires sur la solution du problème de Shallow Water afin de montrer l'existence d'une solution du problème adjoint. Sur le plan numérique, nous utilisons une méthode de résolution spectrale aussi bien pour les équations de Shallow Water que pour les problèmes de contrôle. Dans le cas d'observations ponctuelles, nous proposons de déterminer le minimum de la fonctionnelle par une méthode d'approximation variationnelle en utilisant une base de l'espace des contrôles. Cette méthode s'est avérée bien adaptée et permet de conserver des temps de calcul raisonnables. Nous présentons enfin un certain nombre de résultats numériques obtenus dans les cas linéaire et non linéaire, tout d'abord sur une géométrie simplifiée puis sur le cas réel de la baie de Calvi (Corse).</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Détermination de conditions aux limites en mer ouverte par une méthode de contrôle optimal</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -6035,7 +6034,7 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>Les effondrements gravitaires sont la deuxième cause de génération de ... décembre 2018, en Indonésie, permet de les comparer entre eux.</t>
+          <t>L'objectif de ce travail est l'étude des écoulements de fluides ... sur le cas réel de la baie de Calvi (Corse).</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -6080,44 +6079,44 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t xml:space="preserve">  École doctorale Matériaux de Lyon (Villeurbanne ; 1991-....)</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  établissement opérateur d'inscription </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>L’objectif de cette thèse est de développer un réseau de nanofils GaAs (coeur) / oxyde (coquille) pour la photoélectrolyse de l'eau. Pour cela, la géométrie des nanofils GaAs a été d’abord optimisée en ajustant différents paramètres expérimentaux de la croissance auto-catalysée de ces nanofils par Épitaxie par Jets Moléculaires. Nous avons ensuite étudié systématiquement l'oxydation de surface des nanofils GaAs et son effet négatif sur la croissance de la coquille. Nous avons donc développé une méthode dite d'encapsulation / désencapsulation d'une couche d'arsenic (As) amorphe qui protège les facettes des NFs de l'oxydation. Une étude physico-chimique a montré l'effet bénéfique d'une telle méthode sur la croissance de la coquille. La croissance d'une coquille de SrTiO3 sur des nanofils de GaAs a ensuite été réalisée. Des caractérisations approfondies de la croissance de la coquille de SrTiO3 sur les NFs de GaAs ont été réalisées. La plus grande partie de la structure pérovskite SrTiO3 était en relation d'épitaxie avec le réseau cristallin de GaAs. La dernière partie de cette thèse concerne l’utilisation de tels réseaux de nanofil GaAs / oxyde pour les dispositifs PEC où l'oxyde sert de couche de passivation. L'influence du dopage et de la morphologie des nanofils GaAs a d'abord été étudiée. Les propriétés des réseaux de nanofils de GaAs / SrTiO3 et de GaAs / TiO2 servant de photoélectrodes dans des dispositifs PEC sont étudiées.</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Growth of semiconductor ( core) / functional oxide ( shell) nanowires : application to photoelectrochemical water splitting</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  École doctorale Matériaux de Lyon (Villeurbanne ; 1991-....)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  établissement opérateur d'inscription </t>
-        </is>
-      </c>
       <c r="K52" t="inlineStr">
         <is>
+          <t>Missing Value</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t xml:space="preserve"> Michel Gendry, José Penuelas</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t xml:space="preserve"> Anna Fontcuberta i Morral, Hélène Magnan</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Missing value</t>
-        </is>
-      </c>
       <c r="O52" t="inlineStr">
         <is>
           <t>Missing value</t>
@@ -6125,12 +6124,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
+          <t>Missing value</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
           <t xml:space="preserve"> INL - Institut des Nanotechnologies de Lyon, UMR5270 (Rhône)</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Missing value</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -6160,12 +6159,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Marc Pavec</t>
+          <t xml:space="preserve">  Christine Huguet</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Xavier Carton</t>
+          <t xml:space="preserve">  Pierre Coustillas</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6175,42 +6174,42 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Océanographie physique</t>
+          <t xml:space="preserve">  Études anglaises</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2007</t>
+          <t xml:space="preserve">  Soutenance en 1990</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Brest</t>
+          <t xml:space="preserve">  Lille 3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Les écoulements côtiers sont soumis à diverses sources d’instabilités, à l’origine de la formation de structures cohérentes, telles des tourbillons, dont le rôle est essentiel dans la circulation océanique et le transfert de propriétés dans l’océan. Trois configurations idéalisées de courant côtiers (frontal, quasi-géostrophique et shallow-water) sont étudiées dans cette thèse. Le mécanisme bien connu de l’instabilité barocline est mis en évidence sur chacun de ces écoulements et un autre mécanisme, celui de l’instabilité paramétrique est proposé. Il concerne des écoulements dont l’un des paramètres est soumis à une oscillation périodique. Le paramètre variable est la vitesse du courant dans l’exemple frontal, le transport ou la vorticité potentielle barocline dans l’exemple quasi-géostrophique, le courant barotrope dans le modèle shallow-water. Des calculs analytiques permettent de comparer les taux de croissance de ces deux instabilités et de montrer l’amplification de l’instabilité paramétrique au voisinage de la marginalité des systèmes vis-à-vis de l’instabilité barocline. Il est montré par intégration numérique que les effets de l’instabilité paramétrique sont de mème nature que ceux de l’instabilité paramétrique sur la configuration quasi-géostrophique. Le modèle shallow-water présente un front de densité représentatif du front d’Ouessant, Il est montré à partir de simulations numériques MICOM que le mécanisme de l’instabilité barocline permet d’expliquer en grande partie les instabilités observées le long du front. Les effets de l’instabilité paramétrique sont identifiés, mais il semble que leur impact soit faible.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Instabilités barocline et paramétrique des courants de bord, application au front d'Ouessant</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Etude critique d'"Esther Waters", roman réaliste de George Moore, publié à Londres en 1984. La première partie de cette étude est consacrée à une comparaison des diverses versions de l'oeuvre. George Moore révisa plusieurs fois son texte et tenta même de l'adapter pour la scène à deux reprises. Les origines du roman et l'accueil critique du public de l'époque sont également décrits.</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>George Moore : Esther Waters : étude critique</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -6255,7 +6254,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>Les écoulements côtiers sont soumis à diverses sources d’instabilités, à ... sont identifiés, mais il semble que leur impact soit faible.</t>
+          <t>Etude critique d'"Esther Waters", roman réaliste de George Moore, publié ... et l'accueil critique du public de l'époque sont également décrits.</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -6270,57 +6269,57 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Felix Margirier</t>
+          <t xml:space="preserve">  Adina N. Lazar</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laurent Mortier</t>
+          <t xml:space="preserve">  Anthony William Coleman</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Océanographie physique</t>
+          <t xml:space="preserve">  Chimie supramoléculaire</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2018</t>
+          <t xml:space="preserve">  Soutenance en 2006</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sorbonne université</t>
+          <t xml:space="preserve">  Lyon 1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>L¿explosion du nombre d¿observations in-situ collectées en Mer Méditerrranée au cours des 15 dernières années offre de nouveaux moyens d¿analyse et de suivi des masses d¿eaux. L¿accent à été mis sur la Méditerranée Nord-Occidentale, siège du phénomène dit de convection profonde et plus intensément observée. Notemment grâce aux observations à hautes résolutions temporelles et spatiales de gliders, un réchauffement et une salinification intense des Eaux Levantines Intermédiaires (LIW) à été mis en évidence. Des indicateurs de variabilité de la LIW ont été construits et sa circulation à été détaillée. En l¿absence de convection profonde depuis l¿hiver 2012/2013, le bassin a été envahi par ces eaux non diluées dans les eaux profondes et un nouvel état du bassin est observé. Afin de mieux comprendre comment la convection profonde régule la Méditerranée Occidentale, une étude de processus a été effectuée et les importances relatives du préconditionnement océanique et des flux atmosphériques ont été évaluées afin de discuter la possibilité d¿évènements convectifs profonds futurs. Pour la première fois, les propriétés physiques et biogéochimiques des plumes convectives ont été caractérisées et s¿inscrivent dans le nouveau paradigme de la convection profonde proposé.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Study of the physical and biogeochemical variability of water masses in the Mediterranean Sea</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences de l'environnement d'Île-de-France (Paris ; 1992-....)</t>
+          <t>The biological systems are incontestable models of supramoecular assemblies. A multidisciplinary structural approach on characteristics of natural or synthetic macromolecules as well as a study of intermolecular interactions controlling the self-assembly of these systems represents the object of this research work. The investigation of self-assemblies in solid state generated by water-soluble calixarenes with biolmolecules, such as amino acids, nucleic acids and other amine derivatives were charcaterised. Co-crystals of water-soluble calixarenes with drugs were further obtained, representing a great interest for pharmaceutical industry. A study of these complexes was also performed in suspension, leading to the formation of co-colloids, supramolecular systems of great importance in drug transport. Furthermore, the self-assembling of biological macromlecules on solid substrates reported to organised films specfic to each protein. These results would illustrate a potential application for medical diagnostic</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>L'assemblage supramoléculaire : de l'échelle moléculaire à l'échelle macroscopique</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Examinateurs / Examinatrices </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -6365,7 +6364,7 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>L¿explosion du nombre d¿observations in-situ collectées en Mer Méditerrranée au ... s¿inscrivent dans le nouveau paradigme de la convection profonde proposé.</t>
+          <t>The biological systems are incontestable models of supramoecular assemblies. A ... These results would illustrate a potential application for medical diagnostic</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -6380,67 +6379,67 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Abid Hussain</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Valérie Pinet</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Biologie Santé</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 20/10/2015</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Montpellier</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>LYL1 (Lymphoblastic leukemia-derived sequence 1) est un facteur de transcription basic hélice-boucle-hélice (bHLH) exprimé dans les lymphocytes B, les cellules myéloïdes et les cellules endothéliales (CE). Les souris déficientes pour Lyl1 (Lyl1-/-) sont viables et chez la souris adulte, LYL1 a un rôle majeur dans la maturation des vaisseaux sanguins nouvellement formés et dans le contrôle de la perméabilité vasculaire basale, suggérant l'importance de LYL1 dans le maintien de la quiescence et/ou stabilisation des CE. Les vaisseaux sanguins représentent une barrière entre le sang et le tissu conjonctif. Ils peuvent également jouer le rôle de niche vasculaire contenant des progéniteurs des différentes cellules murines (par exemple, des cellules hématopoïétiques, des cellules β-pancréatiques, des cellules neuronales, des cellules hépatiques et des cellules adipeuses). Les deux tissus adipeux, blancs et bruns (WAT et BAT), sont très vascularisés. Jusqu'à présent, rien n'était connu sur le rôle de LYL1 dans le tissu adipeux. Les résultats présentés dans cette thèse montrent que l'augmentation significative du poids corporel des mâles Lyl1-/- par rapport aux souris sauvages (WT), sous régime normal, n'est pas associée à des troubles métaboliques. Ils présentent également un poids plus élevé de tissus adipeux (WAT et BAT) et de plus grandes gouttelettes lipidiques. In vivo, la perte de Lyl1 accélère le processus de différenciation des cellules souches adipeuses (CSA), puisque les adipocytes blancs et bruns sont matures et actifs plus tôt. De plus, les CSA sont moins nombreuses dans les tissus adipeux, ce qui confirme que la perte de Lyl1 favorise la différenciation des CSA vers adipocytes matures. Nous avons également démontré que Lyl1 est exprimée dans les CSA et les pré-adipocytes, suggérant un rôle direct dans LYL1 dans la différenciation adipocytaire. D'autre part, les vaisseaux des WAT des souris Lyl1-/- sont mal recouverts de cellules murales et plus perméables, suggérant que la niche vasculaire des tissus adipeux pourrait être perturbée. Sous alimentation riche en graisses (HFD), le poids corporel et le poids du tissu adipeux sont plus faibles chez les souris Lyl1-/- par rapport à WT. De plus les souris Lyl1-/- présentent de plus petites gouttelettes lipidiques que les WT, sous HFD. Ces résultats préliminaires, suggèrent que les souris Lyl1-/- pourraient être protégées contre l'obésité induite par l'alimentation. Cependant d'autres expériences sont nécessaires pour valider ces résultats. Il existe probablement un mécanisme de compensation qui se met en place chez les souris Lyl1-/- sous HFD. Ce travail a démontré que, sans Lyl1, la différenciation adipocytaire est accélérée et que la niche vasculaire adipocytaire est perturbée.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rôle du facteur de transcription LYL1 dans la différentiation des adipocytes</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences Chimiques et Biologiques pour la Santé (Montpellier ; Ecole Doctorale ; ....-2014)</t>
+          <t>L'observation des océans depuis l'espace s’appuie pour partie sur les radars altimètres, freinés dans leur efﬁcacité par le manque de couverture spatiale et le faible pouvoir résolvant. Nous étudions dans ce travail les solutions technologiques permettant d'améliorer les caractéristiques de fauchée et de résolution de ces instruments, en dégageant de nouvelles perspectives scientiﬁques, notamment dans les domaines de l’altimétrie méso échelle et de l'hydrologie. Ce travail est constitué de trois axes. Le premier axe vise à évaluer les performances de nouveaux instruments radar altimètres à fauchée élargie par technique d'interférométrie, principalement pour l'océanographie. Le concept initial de l'instrument WSOA (Wide Swath Ocean Altimeter) a été revisité, permettant de dégager un point de fonctionnement optimal, au prix d’un léger ajustement des paramètres d’orbite et de quelques paramètres instrumentaux, sans pour autant délaisser les technologies existantes. Le second axe de la thèse est consacré à l'hydrologie et à l’étude des eaux continentales. À travers la proposition de mission WatER (Water Elevation Recovery Satellite Mission) à l'Agence Spatiale Européenne, nous avons imaginé une mission virtuelle officiant sur trois zones distinctes en Europe. Nous avons montré que les objectifs scientiﬁques exigeant des mesures sufﬁsamment précises de hauteur (&lt; 10 cm) et de pente (&lt; 10 µrad) étaient remplis. Le troisième axe de la thèse s’est enﬁn attaché à la manière d'utiliser au mieux les données altimétriques traditionnelles sur les zones d’eaux continentales. Une nouvelle méthode de traitement des formes d’ondes altimétriques nadir a été ébauchée. Les premiers résultats sont encourageants et poussent à poursuivre le développement de cette méthode.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Évaluation des performances des nouveaux instruments radar altimètres imageurs interférométriques spatiaux : application à l'océanographie et à l'hydrologie</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valérie Pinet, Danièle Noël, Nadine Binart, Christian Dani, Matthieu Lacroix</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nadine Binart, Christian Dani</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6475,7 +6474,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>LYL1 (Lymphoblastic leukemia-derived sequence 1) est un facteur de transcription ... est accélérée et que la niche vasculaire adipocytaire est perturbée.</t>
+          <t>L'observation des océans depuis l'espace s’appuie pour partie sur les ... encourageants et poussent à poursuivre le développement de cette méthode.</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
@@ -6490,57 +6489,57 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Michel Morisseau</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Directeur de thèse inconnu</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences de la Terre. Volcanologie, Géothermie</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1987</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 11</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A study of the products of hydro magmatic activity and their associated xenoliths has been made on the recent volcanic centers on the islands of Flores and Faial, in the Azores, in order to define the geothermal context. Petrography and volcano structural investigations on Flores have shown the complex evolution of the island. This was covered, among others, by two strato­ volcanoes affected by the formation of a caldera. These two volcanoes were built up by sodic alkaline magmas, evolving from basalt to trachyte by fractional crystallization. The last eruptive events, basaltic and hawaitic, have been dated at about 3 000 y BP. These eruptive events changed from magmatic (Strombolian) to explosive internal hydro magmatic activity due to the contact of magma with water from aquifers. Study of the xenoliths associated with this hydro magmatic activity permits to reconstruct the various sequences of eruptive activity and shows that magma­ water interactions took place at relatively shallows depths. It has been also possible to characterize, on one site, local high temperature hydrothermal alteration in the basement, already fossil at the time of the eruption, and probably developed along tectonic structures. On Faial, study of xenoliths associated with the last plinian eruption has revealed the evolution of the eruptive activity, which was first magmatic, then internal hydromagmatic. Hydrothermal alterations of high temperature in some xenoliths show the complexity of the hydrothermal systems developed during the different stages of the central volcano; these geothermal systems have been developed preferentially in brecciations. This internal hydro magmatic activity, due to contacts of water and magma, reveal the presence of confined aquifers, and so the possibility of the presence of geothermal reservoirs, that is showed by iron hydroxides aureole around some xenoliths, affected or not by hydrothermal alterations.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Les éruptions hydromagmatiques et les xénolites associés : signification géothermique : exemples de Flores et de Faial (Açores)</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  autre partenaire </t>
+          <t>Le modèle gyro-water-bag appliqué à l'étude des instabilités dans les plasmas magnétisés</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -6585,7 +6584,7 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>A study of the products of hydro magmatic activity and ... aureole around some xenoliths, affected or not by hydrothermal alterations.</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -6600,72 +6599,72 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Quentin Cerutti</t>
+          <t xml:space="preserve">  Yang Song</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pascale Domingo, Guillaume Ribert</t>
+          <t xml:space="preserve">  Frédéric Skoczylas, Catherine A. Davy</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mecanique des fluides, energetique, thermique, combustion, acoustique</t>
+          <t xml:space="preserve">  Génie civil</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 01/10/2022</t>
+          <t xml:space="preserve">  Soutenance le 24/06/2014</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Normandie</t>
+          <t xml:space="preserve">  Ecole centrale de Lille</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t xml:space="preserve">  École doctorale Sciences pour l'ingénieur (Lille)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Modeling and simulation of hydrogen combustion in the presence of water vapor</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale physique, sciences de l’ingénieur, matériaux, énergie (Saint-Etienne du Rouvray, Seine Maritime)</t>
+          <t>Dans le contexte du stockage profond des déchets radioactifs, il est important d'identifier l’hystérésis de saturation de la roche hôte, l'argilite du Callovo-Oxfordien, et sa capacité de scellement (en particulier, la porosité et la distribution de taille des pores). Tout d'abord, six cycles différents d'humidité relative sont destinés à évaluer l’hystérésis de saturation, qui n'est pas observée dans les cycles de faible amplitude. D'autre part, une nouvelle méthode est proposée pour la mesure de la porosité, qui utilise l'injection d'un gaz pour évaluer le volume des pores. Par rapport à la porosité par adsorption d'eau, l’injection de gaz fournit des porosités supérieures d’environ 5%. L'injection de gaz est également utilisée pour quantifier les isothermes de sorption-désorption, qui sont sensiblement différentes de celles obtenues par la méthode gravimétrique, avec un volume poreux accessible au gaz plus élevé pour une humidité relative &lt;43%. Enfin, par Microscopie Electronique à Balayage couplée à un Faisceau Ionique Focalisé (FIB/MEB), on reconstruit le réseau poreux 3D de l'argilite à partir de séries d'images 2D espacées de 10nm : la porosité et la distribution de taille des pores sont quantifiés jusqu’à 20nm, ainsi que l’orientation et l'anisotropie. Avec une résolution plus élevée (jusqu’à moins de 1nm), la Microscopie Electronique à Transmission (MET) montre une grande quantité de pores de l’ordre de quelques nm, situés entre les agrégats d'argile.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Water retention and fine microstructure of Bure argillite</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Jean Talandier, Jean-Dominique Barnichon</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Luc Dormieux, Paul Sardini</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6680,7 +6679,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Institut national des sciences appliquées Rouen Normandie (Saint-Etienne-du-Rouvray ; 1985-....)</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -6695,7 +6694,7 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Dans le contexte du stockage profond des déchets radioactifs, il ... de l’ordre de quelques nm, situés entre les agrégats d'argile.</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
@@ -6740,27 +6739,27 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t xml:space="preserve">  Ecole doctorale des sciences de la terre et de l'environnement (ED 413) (Strasbourg)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
+          <t xml:space="preserve">  Equipe de recherche </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Missing Value</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
           <t>Modeling of sea water introsion in a coastal aquifer in kuwait</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Ecole doctorale des sciences de la terre et de l'environnement (ED 413) (Strasbourg)</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
-        </is>
-      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -6820,12 +6819,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Rudy Klein</t>
+          <t xml:space="preserve">  Michel Morisseau</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Alain Ghizzo, Etienne Gravier</t>
+          <t xml:space="preserve">  Directeur de thèse inconnu</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6835,42 +6834,42 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Physique des plasmas</t>
+          <t xml:space="preserve">  Sciences de la Terre. Volcanologie, Géothermie</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 12/10/2009</t>
+          <t xml:space="preserve">  Soutenance en 1987</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Nancy 1</t>
+          <t xml:space="preserve">  Paris 11</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Les modèles fluides décrivant les plasmas chauds sont aujourd'hui bien développés. L'étude des micro-instabilités présentes dans ces plasmas nécessite cependant une description cinétique basée sur l'équation de Vlasov. Les modèles cinétiques étant très gourmands en ressources informatiques, une idée alternative est l'utilisation systématique des propriétés d'invariance des systèmes étudiés telles que la propriété d'invariance de la fonction de distribution le long des trajectoires dans l'espace des phases ou l'invariance adiabatique du moment magnétique dans les plasmas magnétisés. C'est dans ce cadre que nous appliquons un modèle water-bag à plusieurs types de problèmes : les ondes de dérive collisionnelles dans les colonnes de plasma magnétisé, les instabilités d'interchange, ITG, et Rayleigh-Taylor dans les cœurs de tokamaks. Ces études visent à permettre une meilleure compréhension de la turbulence et ainsi participer à la maîtrise du transport anormal qui dégrade le confinement dans les cœurs de tokamak.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Le modèle gyro-water-bag appliqué à l'étude des instabilités dans les plasmas magnétisés</t>
+          <t xml:space="preserve">  autre partenaire </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  EMMA</t>
+          <t>A study of the products of hydro magmatic activity and their associated xenoliths has been made on the recent volcanic centers on the islands of Flores and Faial, in the Azores, in order to define the geothermal context. Petrography and volcano structural investigations on Flores have shown the complex evolution of the island. This was covered, among others, by two strato­ volcanoes affected by the formation of a caldera. These two volcanoes were built up by sodic alkaline magmas, evolving from basalt to trachyte by fractional crystallization. The last eruptive events, basaltic and hawaitic, have been dated at about 3 000 y BP. These eruptive events changed from magmatic (Strombolian) to explosive internal hydro magmatic activity due to the contact of magma with water from aquifers. Study of the xenoliths associated with this hydro magmatic activity permits to reconstruct the various sequences of eruptive activity and shows that magma­ water interactions took place at relatively shallows depths. It has been also possible to characterize, on one site, local high temperature hydrothermal alteration in the basement, already fossil at the time of the eruption, and probably developed along tectonic structures. On Faial, study of xenoliths associated with the last plinian eruption has revealed the evolution of the eruptive activity, which was first magmatic, then internal hydromagmatic. Hydrothermal alterations of high temperature in some xenoliths show the complexity of the hydrothermal systems developed during the different stages of the central volcano; these geothermal systems have been developed preferentially in brecciations. This internal hydro magmatic activity, due to contacts of water and magma, reveal the presence of confined aquifers, and so the possibility of the presence of geothermal reservoirs, that is showed by iron hydroxides aureole around some xenoliths, affected or not by hydrothermal alterations.</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Les éruptions hydromagmatiques et les xénolites associés : signification géothermique : exemples de Flores et de Faial (Açores)</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Examinateurs / Examinatrices </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -6880,7 +6879,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Peter Beyer, Jean-Marcel Rax</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -6915,7 +6914,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>Les modèles fluides décrivant les plasmas chauds sont aujourd'hui bien ... anormal qui dégrade le confinement dans les cœurs de tokamak.</t>
+          <t>A study of the products of hydro magmatic activity and ... aureole around some xenoliths, affected or not by hydrothermal alterations.</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
@@ -6930,72 +6929,72 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Lazzat Amangaliyeva</t>
+          <t xml:space="preserve">  Youssef Bouargalne</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Eric Van hullebusch, Hossein Davarzani</t>
+          <t xml:space="preserve">  Carole Deleu</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences de l'univers</t>
+          <t xml:space="preserve">  Biologie et physiologie végétales</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 12/01/2023</t>
+          <t xml:space="preserve">  Soutenance le 10/06/2022</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université Paris Cité</t>
+          <t xml:space="preserve">  Rennes 1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t xml:space="preserve">  EGAAL</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Characterization and remediation by non-Newtonian fluids of soils contaminated with light hydrocarbons under water table variations</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  560 - SCIENCES DE LA TERRE ET DE L'ENVIRONNEMENT ET PHYSIQUE DE L'UNIVERS, PARIS</t>
+          <t>Les WSCPII, spécifiques des Brassicaceae, sont des protéines hydrosolubles non-photosynthétiques, qui peuvent se lier aux chlorophylles (Chls). Ces protéines font partie des inhibiteurs de protéases (IP) de type Kunitz et certaines sont surexprimées en réponse à des contraintes abiotiques. L’existence de telles protéines avec une double fonctionnalité de liaison aux Chls et/ou IP reste un sujet à débat et leurs rôles dans les processus physiologiques sont à ce jour très peu documentés. L’objectif de cette thèse est d’apporter des connaissances nouvelles sur ces protéines particulières par leur caractérisation fonctionnelle. Nous avons montré que BnD22, WSCPII majeure foliaire de colza, est une protéine bifonctionnelle capable d’inhiber les Cys protéases et de se lier aux Chls avec une affinité pour la Chla. Ces deux fonctions peuvent être simultanées avec un pouvoir d’inhibition accru lorsque les protéines sont complexées aux Chls. De plus, BnD22 n’est pas localisée dans le chloroplaste mais dans le réticulum endoplasmique et la vacuole. Par ailleurs, nos études phylogénétiques ont révélé chez le colza l’existence d’une famille multigénique divisée en groupes distincts en fonction de leur capacité ou non à se lier aux Chls. La présence des multicopies s’expliqueraient par des profils d'expression différents selon les organes et les stades de développement, et des propriétés fonctionnelles diverses ou redondantes. L’ensemble de ces travaux a permis de valider la diversité fonctionnelle naturelle (IP et/ou liaison aux Chls) des WSCPII du colza ce qui permettra à l’avenir de mieux appréhender les propriétés fonctionnelles des WSCPII et de comprendre leurs rôles physiologiques.</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
+          <t>Caractérisation fonctionnelle des protéines WSCP "Water Soluble Chlorophyll Proteins" du colza</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Philippe Etienne, Françoise Le Caherec</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Anne Repellin, Pierre Carol</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7025,7 +7024,7 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Les WSCPII, spécifiques des Brassicaceae, sont des protéines hydrosolubles non-photosynthétiques, ... propriétés fonctionnelles des WSCPII et de comprendre leurs rôles physiologiques.</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -7040,67 +7039,67 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Andrea Gilberto Filippini</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mario Ricchiuto, Philippe Bonneton</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques appliquées et calcul scientifique</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 14/12/2016</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bordeaux</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Over the last decades, there has been considerable attention in the accurate mathematical modeling and numerical simulations of free surface wave propagation in near-shore environments. A physical correct description of the large scale phenomena, which take place in the shallow water region, must account for strong nonlinear and dispersive effects, along with the interaction with complex topographies. First, a study on the behavior in nonlinear regime of different Boussinesq-type models is proposed, showing the advantage of using fully-nonlinear models with respect to weakly-nonlinear and weakly dispersive models (commonly employed). Secondly, a new flexible strategy for solving the fully-nonlinear and weakly-dispersive Green-Naghdi equations is presented, which allows to enhance an existing shallow water code by simply adding an algebraic term to the momentum balance and is particularly adapted for the use of hybrid techniques for wave breaking. Moreover, the first discretization of the Green-Naghdi equations on unstructured meshes is proposed via hybrid finite volume/ finite element schemes. Finally, the models and the methods developed in the thesis are deployed to study the physical problem of bore formation in convergent alluvial estuary, providing the first characterization of natural estuaries in terms of bore inception.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Simulation des écoulements à la surface libre dans des environnements côtiers et estuariens : développement numérique et application sur des maillages non-structurés</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Mathématiques et informatique (Talence, Gironde ; 1991-....)</t>
+          <t>La lumière solaire est une source d'énergie verte et renouvelable qui peut être utilisée en photocatalyse pour la dépollution de l'eau et de l'air, le « water splitting » et la production d'hydrogène. Nous avons montré que les nanostructures de polymères conjugués sont très prometteuses pour la photocatalyse sous UV et lumière visible.1-6 Les matériaux semi-conducteurs organiques émergent comme des candidats sérieux pour réaliser l'oxydation de l'eau et la photosynthèse artificielle.6 Le principal défi du projet de doctorat sera la conception de photocatalyseurs à base de polymères conjugués pour l'oxydation de l'eau et le « water splitting » et d'étudier le processus d'oxydation de l'eau. Les mésophases hexagonales et lamellaires, qui consistent en des systèmes quaternaires (tensioactif, eau salée, huile et co-tensioactif) sont utilisées comme modèles souples pour synthétiser des nanostructures de polymères conjugués. Ce projet multidisciplinaire se fera en étroite collaboration avec des scientifiques possédant une solide expertise en chimie physique, photocatalyse, électrochimie, science des matériaux et physique de la matière molle.</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Polymères conjugués nanostructurés pour l'oxydation de l'eau et le 'water spitting'</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mario Ricchiuto, Philippe Bonneton, David Lannes, Michel Benoit, Eleuterio F. Toro, Riadh Ata, Rodrigo Pedreros, Lisl Weynans</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Michel Benoit, Eleuterio F. Toro</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7135,7 +7134,7 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>Over the last decades, there has been considerable attention in ... first characterization of natural estuaries in terms of bore inception.</t>
+          <t>La lumière solaire est une source d'énergie verte et renouvelable ... électrochimie, science des matériaux et physique de la matière molle.</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
@@ -7150,12 +7149,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  JEAN MICHEL CHAPPELIER</t>
+          <t xml:space="preserve">  Charbel Mouawad</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jean-Noël Hallet</t>
+          <t xml:space="preserve">  Stéphane Desobry</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7165,57 +7164,57 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences biologiques et fondamentales appliquées. Psychologie</t>
+          <t xml:space="preserve">  Procédés biotechnologiques et alimentaires</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1997</t>
+          <t xml:space="preserve">  Soutenance le 23/10/2007</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Nantes</t>
+          <t xml:space="preserve">  Vandoeuvre-les-Nancy, INPL</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>L'etat viable non cultivable (vnc) d'une bacterie enteropathogene, campylobacter jejuni, a ete analyse sur trois souches presentant une perte des capacites a former des colonies, mais maintenant leur viabilite lorsqu'elles sont mises en suspension dans de l'eau filtree, sterilisee (microsom water). La viabilite des cellules viable non cultivable est etudie apres l'adaptation a c. Jejuni de deux techniques, la dvc et la double coloration ctc/dapi. Par sa rapidite et sa facilite d'interpretation, la coloration ctc/dapi apparait la plus interessante. La caracterisation de l'etat vnc aboutit aux resultats suivants : une reduction de la taille des cellules a l'etat vnc est observee par microscopie electronique a balayage, mais des cellules spiralees sont encore presentes apres trente jours d'incubation en microsom water. Les valeurs du ph interne, du potentiel de membrane et de la teneur en potassium diminuent chez les cellules vnc. De meme, les concentrations en atp et adp diminuent fortement, la charge energetique ultime des formes vnc n'etant pratiquement constituee que d'amp. Differentes experimentations permettent la mise en evidence d'une synthese de proteines dans les premieres heures d'incubation en microsom water, ces proteines interviennent dans la viabilite a long terme des cellules et dans l'acquisition d'une thermoresistance. Des inoculations de cellules vnc a des poussins, des souriceaux et des oeufs embryonnes, permettent un retour a l'etat cultivable de ces cellules. Les meilleurs resultats sont obtenus avec le modele oeuf embryonne. Des mesures d'indice d'association aux cellules hela, montrent une perte des capacites d'adhesion des cellules vnc. Toutefois, ces capacites sont restaurees apres passage sur les differents modeles animaux, indiquant le maintien de la pathogenicite de ces cellules. L'existence de cellules vnc de c. Jejuni capables de redevenir cultivable dans le tube digestif de differents animaux rend tout a fait probable l'intervention de ces cellules vnc dans les campylobacterioses digestives humaines.</t>
+          <t xml:space="preserve">  RP2E - Ecole Doctorale Sciences et Ingénierie des Ressources, Procédés, Produits, Environnement</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>L'etat viable non cultivable chez une bacterie responsable de toxi-infections alimentaires : campylobacter jejuni</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Mass transfer intervening during the process of immersion influences the final composition of the product. These transfers primarily depend on the size of the immersed products, as well as temperature, the concentration and the nature of the solution of immersion. The main objective of this work is to study the mass transfer phenomena (water loss and solid gain) in solid/liquid system constituted of vegetable product (eggplant) immerged in salt solution. We determined the kinetic studies of eggplant in different salts solutions with two concentrations (saturation and 20%) at 3°C. The physicochemical properties of solution and salt such as molar concentration, molecular weight and ionic type affected the mechanism of water loss and solid gain. Knowledge about interaction ions/vegetable pectin is important for new product formulation. Determination of partition coefficient of ion in equilibrium system showed that the main physicochemical properties of ions and solution are ionic radius, electronegativity, ionic force and molar concentration. Mathematical predictive model was developed to predict the partition coefficient of ions in food/ solution system. Molecular dynamics simulations using a dynamic force field have been carried out to investigate the absorption of ions (K+, Na+, Ca2+, Mg2+, Cl-) in pectin/water/ion/aqueous solution system. Four systems were used. The results showed that the ionic type (cation and anion) influence the type and number of interactions between pectin-ion and water-ion and then offered an explicit description transfer phenomena and distribution of ions in the system solid/liquid</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Transfert de matière dans un système solide/liquide "ions/eau/pectine" : interactions, partage ionique et simulation par dynamique moléculaire</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Stéphane Desobry, Albert Duquenoy, Bernard Cuq, Rémi Saurel, Muriel Jacquot</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Bernard Cuq, Rémi Saurel</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7245,7 +7244,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>L'etat viable non cultivable (vnc) d'une bacterie enteropathogene, campylobacter jejuni, ... l'intervention de ces cellules vnc dans les campylobacterioses digestives humaines.</t>
+          <t>Mass transfer intervening during the process of immersion influences the ... transfer phenomena and distribution of ions in the system solid/liquid</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
@@ -7260,12 +7259,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Lucia Benavente</t>
+          <t xml:space="preserve">  Monruedee Asavaplungkul Saisingha</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pierre Aimar, Patrice Bacchin</t>
+          <t xml:space="preserve">  Édith Parlier-Renault</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7275,52 +7274,52 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Génie des procédés et de l'environnement</t>
+          <t xml:space="preserve">  Histoire de l'art</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 03/11/2016</t>
+          <t xml:space="preserve">  Soutenance le 15/04/2015</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Toulouse 3</t>
+          <t xml:space="preserve">  Paris 4</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>La pénurie d'eau est devenue un des problèmes clés à résoudre, et pour y faire face, il est nécessaire de disposer d'unités de traitement de l'eau efficaces. Au cours des dernières décennies la technologie des membranes est devenue l'une des techniques les plus prometteuses pour le traitement de l'eau. Néanmoins, les membranes ont une durée de vie limitée et sont, par ailleurs, sujettes à des phénomènes de colmatage - le dépôt, l'adsorption et l'absorption de particules dans la structure de la membrane -, ce qui réduit leur productivité, et augmente les coûts opérationnels. Une approche pour minimiser ce problème consiste à modifier des membranes hydrophobes, mécaniquement et chimiquement stables, en y greffant des matériaux amphiphiles afin de réduire le colmatage. L'objectif principal de ce travail est de caractériser les propriétés anti-colmatage des membranes de PVDF (Polyvinylidene fluoride) modifiées avec différents types de copolymères PS-PEGMA (Polystyrene - Poly(ethylene glycol) methacrylate), tout d'abord par l'utilisation de techniques classiques, puis, par le développement et / ou l'adaptation de techniques microfluidiques couplés à la microscopie à fluorescence et l'utilisation de la cartographie par microspectroscopie infrarouge à transformée de Fourier (IRTF). La cartographie IRTF a permis de quantifier localement le greffage et de mettre en évidence l'hétérogénéité du greffage sur la membrane. Ces cartes, représentant l'importance du greffage sur la membrane, ont par ailleurs été corrélées au dépôt de protéines sur la surface. Des systèmes microfluidiques ont également été développés pour caractériser sous microscope à fluorescence l'adsorption de protéines fluorescentes sur une membrane en présence d'un débit. Cette étude permet de suivre in situ et en dynamique l'adsorption (lors de cycles de filtration) et la désorption (lors de cycles de rinçage) de protéines sur la membrane. Ces mesures locales ont été mises en regard avec des mesures de permeabilité lors de cycles filtrations/rinçage mettant en évidence un rôle anti-fouling en particulier pour les copolymères tri-blocs ou pour les copolymères à enchaînement aléatoire.</t>
+          <t xml:space="preserve">  École doctorale Histoire de l’art et archéologie (Paris ; 1992-....)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Low fouling membranes for water and bio tech applications</t>
+          <t xml:space="preserve">  Equipe de recherche </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Mécanique, énergétique, génie civil et procédés (Toulouse)</t>
+          <t>Le Râmakîen est une des œuvres littéraires les plus importantes du royaume thaïlandais. Reprenant l’épopée indienne de Vâlmîki, le Râmâyana, il revêt une grande importance à la cour royale et sa popularité est considérable dans toute l’Asie du Sud-Est. Au Wat Phra Kèo, ses épisodes ont été intégralement illustrés sur le mur de la galerie. La thèse ne prend en compte que les parties figurant les dix incarnations de Viṣṇu et la naissance des dieux hindous et des personnages de l’épopée. Ces épisodes nous amènent au prélude du Râmakîen et l’étude s’arrête au moment du retour du roi Jânaka à Mithilâ. Il nous a fallu opérer des rapprochements entre ces peintures et le Tamrâ Thewarûp, les albums d’iconographie brahmanique, ainsi que le Tamrâ Thewapâng, recueil de légendes sur la naissance des dieux et les incarnations de Viṣṇu. Ces rapprochements étaient nécessaires car tous les épisodes représentés à Wat Phra Kèo ne sont pas racontés dans le Râmakîen tel que le relate la version du roi Râma I. L’omniprésence des scènes empruntées à l’épopée, en particulier celles des dix incarnations de Viṣṇu et des dieux hindous dans les temples importants de Bangkok fondés par les rois ou par leurs proches au début de la période de Ratanakosin, s’explique par la grande importance accordée par ces souverains à l’incarnation de Viṣṇu en Râma. Le royaume thaïlandais adopta par ailleurs les rites brahmaniques pratiqués à la cour khmère. Une récapitulation des témoignages iconographiques sur l’épopée au Cambodge, au Laos et au Myanmar complète notre étude.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Le Râmâyana dans les peintures du temple du Buddha d'Émeraude (Wat Phra Kèo) à Bangkok : sources, contexte, prolongements</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Gilles Delouche, Valérie Zaleski</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7355,7 +7354,7 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>La pénurie d'eau est devenue un des problèmes clés à ... les copolymères tri-blocs ou pour les copolymères à enchaînement aléatoire.</t>
+          <t>Le Râmakîen est une des œuvres littéraires les plus importantes ... au Cambodge, au Laos et au Myanmar complète notre étude.</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -7370,57 +7369,57 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Marie Croquette</t>
+          <t xml:space="preserve">  Shuaishuai Deng</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Gérard Eldin</t>
+          <t xml:space="preserve">  Benjamin Loubet</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Océanographie physique</t>
+          <t xml:space="preserve">  Géosciences</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2007</t>
+          <t xml:space="preserve">  Inscription en doctorat le 01/10/2023</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Toulouse 3</t>
+          <t xml:space="preserve">  université Paris-Saclay</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>La variabilité et la dynamique de l'upwelling côtier du Nord du Pérou au Sud du Chili (50°S) et des courants associés (CPCC Chile Peru coastal Current et PCUC Peru-Chile Undercurrent) ont été étudiées à l'aide de données satellites et de modèles numériques. Les caractéristiques des variations le long de la côte sont séparées par une zone de transition autour de 20°S où les vents, l'upwelling et le PCUC sont particulièrement faibles. Les origines des eaux du PCUC et de l'upwelling ont également été étudiées à l'aide d'outils lagrangiens et les transports ont été quantifiés. Trois sources ont été identifiées : l'EUC (Equatorial Undercurrent), les SSCC (Southern Sub-Surface Counter Current) et une troisième source au Sud du Chili, liée à l'ESPIW (Eastern South Pacific Intermediate Water).</t>
+          <t xml:space="preserve">  École doctorale Sciences de l'environnement d'Île-de-France (Paris ; 1992-....)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Contribution à l'étude de l'upwelling du Pérou Chili</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Aerosols are deposited on leaf surfaces, which also receive ammonium nitrate foliar fertilizers. Both types of deposition cause the accumulation of hygroscopic substances on the leaves of plants. Recent experiments show that these substances cause the presence of microscopic water films on the surface of the leaves that pump the internal water from the leaves by a phenomenon identical to that of a wick. This effect is called stomatal hydraulic activation (HAS) affecting both the water and carbon balance of plants. Current models of biogeochemical transfers between vegetation and atmosphere have not accounted for these effects, resulting in significant biases when air pollution and foliar fertilizer application rates are not taken into account. The objective of this project is to examine the existing evidence of the effects of these hygroscopic deposition, gain an understanding of the relevant processes and integrate them into a large-scale dynamic vegetation model. The model will be used to assess the effects of this phenomenon on terrestrial water and carbon budgets at regional and global scales.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Neglected impacts of air pollution and foliar fertilizers on crop water use - a global modelling perspective</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -7455,7 +7454,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Université de Versailles-Saint-Quentin-en-Yvelines</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -7465,7 +7464,7 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>La variabilité et la dynamique de l'upwelling côtier du Nord ... du Chili, liée à l'ESPIW (Eastern South Pacific Intermediate Water).</t>
+          <t>Aerosols are deposited on leaf surfaces, which also receive ammonium ... terrestrial water and carbon budgets at regional and global scales.</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
@@ -7510,27 +7509,27 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>Missing value</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Missing value</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>Ce travail a eu pour but d'etudier le role oxydant de l'eau pendant les phases riches (pauvres en o#2) en catalyse de post-combustion automobile. Les reactions de vaporeformage du methane, du propene et du propane ainsi que la reaction de water gas shift ont ete realisees en presence ou non d'oxygene (oxyvaporeformage et oxywater gas shift) sur des catalyseurs a base de platine et de rhodium deposes sur alumine ou sur alumine-cerine. Le platine est le metal actif en oxydation des hydrocarbures en c#3. Il est egalement responsable de la conversion du co par water gas shift. Le vaporeformage des hydrocarbures est catalyse par le rhodium. L'oxyde de cerium est un tres bon promoteur des reactions d'oxydation par l'eau. La double interaction platine-rhodium et metal-cerine fait que la formulation du catalyseur bimetallique ptrhcea est la mieux adaptee a la conversion des hydrocarbures par h#2o. Deux phenomenes majeurs entrainent la desactivation des catalyseurs au cours des cycles d'oxyvaporeformage: le frittage des metaux et la penetration de rhodium dans l'alumine essentiellement a haute temperature en milieu oxydant et l'empoisonnement des catalyseurs par un depot carbone occasionne par une oxydation incomplete des hydrocarbures et provoquant une chute importante de l'activite en vaporeformage vers 600c. Neanmoins ces phenomenes de desactivation sont partiellement reversibles puisqu'il est possible de regenerer l'activite vaporeformante par un traitement reducteur a haute temperature (frittage) ou oxydant a basse temperature (depot carbone)</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Réactions de la vapeur d'eau en catalyse de post-combustion automobile</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Missing value</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Missing value</t>
-        </is>
-      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -7590,12 +7589,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Gilles Darblade</t>
+          <t xml:space="preserve">  ANNE LE CALVE</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Alain-Yves Leroux</t>
+          <t xml:space="preserve">  Louis Danicher</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7605,42 +7604,42 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques appliquées</t>
+          <t xml:space="preserve">  Sciences et techniques</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1997</t>
+          <t xml:space="preserve">  Soutenance en 1999</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bordeaux 1</t>
+          <t xml:space="preserve">  Université Louis Pasteur (Strasbourg) (1971-2008)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Les modeles shallow water multicouches sont des approximations adiabatiques des equations navier stokes. L'integration de ces modeles est generalement effectuee par des schemas aux differences finies ou des formulations elements finis. Ils comportent de serieuses difficultes mathematiques dues au couplage entre les couches et a l'ecriture non conservative des equations. Nous proposons, pour les modeles shallow water multicouches, une nouvelle methode d'integration numerique construite grace a des techniques de l'hyperbolique non lineaire. Nous abordons ensuite, pour des modeles shallow water, la resolution des conditions aux limites de frontieres ouvertes. Nous proposons une nouvelle methode: les couches parfaitement absorbantes. Nous appliquons cette methode a un modele shallow water linearise autour d'un etat quelconque et obtenons des resultats preliminaires prometteurs.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Méthodes numériques et conditions aux limites pour les modèles Shallow-Water multicouches</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Des procedes de synthese par polycondensation interfaciale ont ete mis au point pour obtenir des microcapsules ( = 1-10 m) et des minicapsules ( = 100-300 m) en polyamide semi-aromatique (pa 6-t) formees soit a partir d'une dispersion inverse (water-in-oil) soit a partir d'une dispersion directe (oil-in-water) grace a l'emploi de tensioactifs appropries. Des montages specifiques ont ete elabores pour synthetiser des membranes modeles plus faciles a caracteriser, realisables avec ou sans tensioactif : les millicapsules ( = 1-5 mm) et les films plans ( = ). La determination des caracteristiques de ces membranes (capsules et films plans) a ete effectuee : distribution en taille et composition en poids des capsules, morphologie et epaisseur de la membrane, caracteristiques intrinseques du polyamide lineaire semi-cristallin (longueur des chaines, temperature de transition vitreuse et de fusion). Cette etude a ete realisee en observant l'influence du temps de reaction, du taux de reticulation du polyamide et de la presence ou non du tensioactif. La permeabilite et la resistance mecanique des mini- et des microcapsules inverses ont egalement ete etudiees en fonction du diametre des capsules, de leur epaisseur et de la presence d'une fraction de reticulant dans leur membrane. Des minicapsules immergees dans une solution aqueuse de polyoxyethylene ont permis d'extraire ce solute. Le suivi de la liberation de macromolecules de polyacrylamide ou de polysaccharide, prealablement encapsulees, a montre que la diffusion de ces polymeres a travers la membrane des capsules depend de leur epaisseur et de leur diametre. Finalement, des observations qualitatives de la resistance mecanique de la membrane des mini- et des microcapsules inverses soumises a une irradiation ultrasonore et a d'autres sollicitations ont ete effectuees.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Synthese par polycondensation interfaciale de microcapsules en polyamide. Relations entre la structure controlee de la membrane et ses proprietes</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -7685,7 +7684,7 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Les modeles shallow water multicouches sont des approximations adiabatiques des ... autour d'un etat quelconque et obtenons des resultats preliminaires prometteurs.</t>
+          <t>Des procedes de synthese par polycondensation interfaciale ont ete mis ... une irradiation ultrasonore et a d'autres sollicitations ont ete effectuees.</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -7700,12 +7699,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Shuaishuai Deng</t>
+          <t xml:space="preserve">  Elena Bouvier</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Benjamin Loubet</t>
+          <t xml:space="preserve">  Kateryna Fatyeyeva, Stephane Marais</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7715,42 +7714,42 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Géosciences</t>
+          <t xml:space="preserve">  Chimie</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 01/10/2023</t>
+          <t xml:space="preserve">  Inscription en doctorat le 19/09/2023</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  université Paris-Saclay</t>
+          <t xml:space="preserve">  Normandie</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Aerosols are deposited on leaf surfaces, which also receive ammonium nitrate foliar fertilizers. Both types of deposition cause the accumulation of hygroscopic substances on the leaves of plants. Recent experiments show that these substances cause the presence of microscopic water films on the surface of the leaves that pump the internal water from the leaves by a phenomenon identical to that of a wick. This effect is called stomatal hydraulic activation (HAS) affecting both the water and carbon balance of plants. Current models of biogeochemical transfers between vegetation and atmosphere have not accounted for these effects, resulting in significant biases when air pollution and foliar fertilizer application rates are not taken into account. The objective of this project is to examine the existing evidence of the effects of these hygroscopic deposition, gain an understanding of the relevant processes and integrate them into a large-scale dynamic vegetation model. The model will be used to assess the effects of this phenomenon on terrestrial water and carbon budgets at regional and global scales.</t>
+          <t xml:space="preserve">  École doctorale normande de chimie (Caen)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Neglected impacts of air pollution and foliar fertilizers on crop water use - a global modelling perspective</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences de l'environnement d'Île-de-France (Paris ; 1992-....)</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Polymer barrier performance towards small molecules( water and gases ) of materials used in pharmaceutical industry</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -7775,7 +7774,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Université de Rouen Normandie (1966-....)</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -7790,12 +7789,12 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Université de Versailles-Saint-Quentin-en-Yvelines</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Aerosols are deposited on leaf surfaces, which also receive ammonium ... terrestrial water and carbon budgets at regional and global scales.</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -7810,57 +7809,57 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Vrinda Sharma</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Karen Macours</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Sciences economiques</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Inscription en doctorat le 23/10/2023</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Paris 1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>This project questions the importance of biodiversity in paddy fields in Cambodia. Its main hypothesis is that organisms belonging to the soil engineer functional group (earthworms and termites) positively impact rice growth and yield and its resistance to environmental stresses (such as drought). This question is crucial in Cambodia where the management of water is very problematic at the beginning of the rainy season, when rice growth can be severely constrained due to periods of drought that can affect the food and economic security of local populations.</t>
+          <t xml:space="preserve">  École doctorale d'Économie (Paris ; 2004-....)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>« Étude du lien entre biodiversité et productivité des rizières : le rôle des ingénieurs du sol »</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Climate change and the economics of water</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -7905,7 +7904,7 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>This project questions the importance of biodiversity in paddy fields ... can affect the food and economic security of local populations.</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -7920,12 +7919,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  HOURIA ADLI</t>
+          <t xml:space="preserve">  Rudy Klein</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Gérard Perret</t>
+          <t xml:space="preserve">  Alain Ghizzo, Etienne Gravier</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7935,47 +7934,47 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences biologiques et fondamentales appliquées. Psychologie</t>
+          <t xml:space="preserve">  Physique des plasmas</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1999</t>
+          <t xml:space="preserve">  Soutenance le 12/10/2009</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 13</t>
+          <t xml:space="preserve">  Nancy 1</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Les adipocytes expriment les 3 sous-types de recepteurs -adrenergiques (ar), 1-, 2- et 3-ar. Le 3-ar represente la population majoritaire dans les tissus adipeux brun (bat) et blanc (wat). Dans ces tissus, les hormones thyroidiennes (ht) augmentent la sensibilite -adrenergique aux catecholamines. L'amiodarone (am) est un anti-arythmique connu pour s'opposer aux effets des ht sur les -ar dans le cur. Dans notre travail nous avons etudie dans les 2 types de tissus adipeux : 1) les effets de la triiodothyronine (t3) sur l'expression et la fonction des -ar adipocytaires 2) l'interaction entre t3 et am. Dans le wat, nous avons montre que l'administration de la t3 a des rats euthyroidiens, augmente le nombre des 3-ar ainsi que la reponse et la sensibilite a l'agoniste 3-adrenergique. L'am n'antagonise pas ces effets de la t3. Dans le bat, la t3 diminue l'expression du 3-ar et ceci sans modifier l'activite de l'adenylyl cyclase en reponse a des agonistes 3-adrenergiques selectifs ou non. Cependant cette regulation negative du 3-ar est compensee par une augmentation de la quantite et de l'activite de gs et par une diminution de la quantite de gi. L'am s'oppose a la diminution du 3-ar induite par l'administration de la t3 a des rats thyroidectomises. A l'inverse de ce qui a ete observe dans le cur, l'am n'antagonise pas l'effet de la t3 sur l'expression du 1-ar. L'ensemble de ces resultats montre que : 1) la t3 module la transduction du message noradrenergique dans les tissus adipeux aux niveaux recepteur et post-recepteur 2) l'interaction entre t3 et am est tissu-specifique et depend du type du recepteur etudie. Nos travaux, en permettant une meilleure comprehension de la regulation des -ar adipocytaires contribuent a approfondir la physiologie du tissu adipeux. La connaissance de cette physiologie est indispensable a l'elaboration de nouvelles molecules pharmacologiques efficaces et denuees de toxicite dans le traitement de l'obesite.</t>
+          <t xml:space="preserve">  EMMA</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Regulation des recepteurs beta adrenergiques par les hormones thyroidiennes dans les tissus adipeux : interactions avec l'amiodarone</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Les modèles fluides décrivant les plasmas chauds sont aujourd'hui bien développés. L'étude des micro-instabilités présentes dans ces plasmas nécessite cependant une description cinétique basée sur l'équation de Vlasov. Les modèles cinétiques étant très gourmands en ressources informatiques, une idée alternative est l'utilisation systématique des propriétés d'invariance des systèmes étudiés telles que la propriété d'invariance de la fonction de distribution le long des trajectoires dans l'espace des phases ou l'invariance adiabatique du moment magnétique dans les plasmas magnétisés. C'est dans ce cadre que nous appliquons un modèle water-bag à plusieurs types de problèmes : les ondes de dérive collisionnelles dans les colonnes de plasma magnétisé, les instabilités d'interchange, ITG, et Rayleigh-Taylor dans les cœurs de tokamaks. Ces études visent à permettre une meilleure compréhension de la turbulence et ainsi participer à la maîtrise du transport anormal qui dégrade le confinement dans les cœurs de tokamak.</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Le modèle gyro-water-bag appliqué à l'étude des instabilités dans les plasmas magnétisés</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Examinateurs / Examinatrices </t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -7985,7 +7984,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Peter Beyer, Jean-Marcel Rax</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8015,7 +8014,7 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Les adipocytes expriment les 3 sous-types de recepteurs -adrenergiques (ar), ... efficaces et denuees de toxicite dans le traitement de l'obesite.</t>
+          <t>Les modèles fluides décrivant les plasmas chauds sont aujourd'hui bien ... anormal qui dégrade le confinement dans les cœurs de tokamak.</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -8030,12 +8029,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  François Touron</t>
+          <t xml:space="preserve">  Ayman Said</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Larbi Labraga</t>
+          <t xml:space="preserve">  Thomas Alazard</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8045,57 +8044,57 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mécanique</t>
+          <t xml:space="preserve">  Mathématiques fondamentales</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2011</t>
+          <t xml:space="preserve">  Soutenance le 17/06/2021</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Valenciennes</t>
+          <t xml:space="preserve">  université Paris-Saclay</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Ce travail de thèse concerne la sécurité routière, on s’intéresse plus particulièrement à un phénomène gênant la visibilité du conducteur appelé le Water Pull Back. Ce terme désigne le retour d’un film d’eau sur la partie essuyée du pare-brise, à la suite du mouvement descendant de l’essuie-glace côté conducteur. L’objectif est de développer un modèle simplifié du Water Pull Back permettant des études paramétriques qualitatives. Une première version bidimensionnelle est construite, elle combine un maillage dynamique pour simuler le déplacement de l’essuie-glace, un modèle diphasique pour prendre en compte la phase aqueuse, et un modèle de turbulence URANS. Dans ce modèle, trois thèmes clés interviennent: l’écoulement séparé en aval de l’essuie-glace, le mouillage dynamique sur le pare-brise, et le cisaillement du film d’eau par l’écoulement d’air turbulent. Les capacités du code de calcul sont évaluées sur chacun de ces thèmes par comparaison entre numérique et expérimental. Ce processus permet d’identifier les algorithmes et maillages les plus performants à utiliser dans le modèle 2D Water Pull Back, mais il souligne également les limitations de la modélisation URANS 2D. Les validations expérimentales sont faites dans la soufflerie subsonique du laboratoire TEMPO et dans un canal diphasique dédié à l’étude des films cisaillés.</t>
+          <t xml:space="preserve">  École doctorale de mathématiques Hadamard (Orsay, Essonne ; 2015-....)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Étude d’un film d’eau cisaillé par un écoulement d’air turbulent dans le sillage d’un obstacle 2D : application aux essuie-glaces</t>
+          <t xml:space="preserve">  référent </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>L'équation d'Euler à surface libre décrit l'évolution de l'interface séparant l'air d'un fluide parfait irrotationnel. C'est un système de deux équations couplées : l'équation d'Euler à l'intérieur du domaine et une équation cinématique qui décrit les déformations du domaine. Les 4 travaux qui constituent le corps de cette thèse peuvent être divisés en trois sujets connectés au problème de Cauchy du système des water waves. Dans le prolongement des travaux de [2, 4, 5, 7], où les auteurs ont montré que le problème de Cauchy pour le système des water waves est bien posé et que le flot est continu sur des espaces de Sobolev suffisamment réguliers, nous montrons :- Dans [60] que le système des water waves avec ou sans tension de surface est quasi-linéaire au sens le plus fort du terme, c'est-à-dire que le flow n'est pas uniformément continu. De plus, dans le cas avec tension de surface, nous montrons que pour avoir une estimation Lipschitz sur le flot, il faut au moins une perte de dérivée. Plus généralement, pour l'équation de Burgers avec terme dispersif de la forme, nous montrons qu'il faut au moins une perte de dérivées pour assurer un contrôle Lipschitz sur le flot.- Dans [61], nous montrons que les résultats obtenus dans [60] sont effectivement optimaux, c'est-à-dire que pour l'équation de Burgers avec un terme dispersif,alphain le flot est effectivement Lipschitz de pour des données initiales périodiques de moyenne nulle. Pour le système des water waves avec tension de surface en deux dimensions d'espace, nous montrons qu'après re-normalisation, le flot est bien Lipschitz au prix d'une perte de dérivés. Afin de démontrer les résultats dans [61], nous avons développé une généralisation para-différentielle d'une transformation de jauge complexe de type Cole-Hopf introduite pour la première fois par T. Tao pour l'équation de Benjamin-Ono. Dans [62], nous l'utilisons pour améliorer les résultats connus sur une conjecture numérique due à Saut et Klein dans [45] sur l'équation de Burgers dispersive. Ce qui, à la connaissance de l'auteur, est la première fois que la transformation de jauge est mise en œuvre à cette fin pour. Afin de démontrer les différents résultats dans [60, 61, 62], nous avons étudié et affiné différents résultats connus en calcul paradifférentiel. Plus précisément, dans [59], nous améliorons certaines estimations sur l'opérateur de paracomposition introduit par Alinhac, nous donnons une preuve du changement de variables dans le calcul paradifférentiel et enfin nous étudions comment le support du cut-off fréquentiel varie après la composition d'opérateurs para-différentiels.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Sur le flot de l’équation d’Euler à surface libre</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Isabelle Gallagher, Luc Molinet, Pierre Raphael, Nader Masmoudi, Tarek Elgindi</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Isabelle Gallagher, Luc Molinet</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -8110,7 +8109,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Centre Borelli (Gif-sur-Yvette, Essonne ; 2020-...)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -8125,7 +8124,7 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>Ce travail de thèse concerne la sécurité routière, on s’intéresse ... dans un canal diphasique dédié à l’étude des films cisaillés.</t>
+          <t>L'équation d'Euler à surface libre décrit l'évolution de l'interface séparant ... support du cut-off fréquentiel varie après la composition d'opérateurs para-différentiels.</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -8140,12 +8139,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Randall Cherry</t>
+          <t xml:space="preserve">  David Coulette</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Geneviève Fabre</t>
+          <t xml:space="preserve">  Nicolas Besse</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8155,57 +8154,57 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Lettres, sciences humaines et sociales</t>
+          <t xml:space="preserve">  Physique</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2002</t>
+          <t xml:space="preserve">  Soutenance le 06/12/2013</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 7</t>
+          <t xml:space="preserve">  Université de Lorraine</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Ce travail étudie la façon dont la chanteuse noire américaine, Ethel Waters (18961977), s'est forgée une carrière remarquable avec, comme toile de fond, le développement de la mouvance de négritude basée à Harlem et connue sous le nom de la "Renaissance de Harlem". Cette période, qui se situe entre 1920 et 1935, voit un engouement pour le blues qui anime la carrière d'Ethel Waters, en tant que vedette de disques chez Black Swan. Alors que la chanteuse trouve un public laudatif auprès de la masse ouvrière noire, les intellectuels et ténors de la mouvance de négritude, en revanche, dénient totalement l'importance de sa création musicale. Ce travail cherche à faire valoir sa musique face à ce manque de compréhension. Cette étude s'appuie sur des entretiens personnels avec des chanteurs et musicologues, l'autobiographie de l'artiste, mémoires de musiciens contemporains, et articles recueillis des journaux noirs de l'époque. Ce matériau permet de dégager la véritable dimension de sa légende en tant que Reine du Blues, face donc à une élite noire qui restait muette à son sujet. Après avoir tracé l'essor de la carrière d'Ethel Waters, il s'agit de décrire son apogée, atteinte dans les années trente -- au moment même où la Renaissance de Harlem se trouve en déclin -- lorsque la chanteuse se transforme en comédienne à Broadway. Constatant qu'Ethel Waters est de nos jours tombée dans l'oubli, il s'agit enfin de proposer des hypothèses pour expliquer son éclipse, à savoir: une critique qui, se basant sur des définitions génériques instables, n'arrive pas à cantonner l'artiste; et la persistance d'une certaine rancune chez la critique noire américaine, qui insiste sur le fait qu'Ethel Waters aurait "trahi" ses racines dans la communauté noire, en adoptant une personnalité et une musique "blanches", afin d'élargir son public. Ces résultats font apparaître que la dépréciation de la réputation d'E. Waters est due autant à l'ignorance de sa production, qui est restée longtemps inédite, qu'à la propagation de certains mythes à son égard.</t>
+          <t xml:space="preserve">  EMMA - Ecole Doctorale Energie - Mécanique - Matériaux</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Mythologie de la voix noire : Ethel Waters et la renaissance de Harlem</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Ce travail de recherche s'inscrit dans la problématique de la compréhension des phénomènes de transport turbulent de l'énergie et des particules au sein des plasmas de coeur des machines de fusion thermonucléaire par confinement magnétique. L'instabilité dite de gradient de température ionique, considérée comme une des sources majeures de transport turbulent, y est étudiée au moyen d'un modèle gyrocinétique. L'originalité de ce travail consiste en l'utilisation d'un modèle réduit, dit "Multi-Water-Bag", qui permet de réduire la dimension du problème tout en préservant les effets cinétiques. Ce modèle est développé dans deux types de géométries de champ de confinement. En géométrie cylindrique, l'évolution de l'instabilité est analysée au travers de trois modèles dynamiques : linéaire, quasi-linéaire et non-linéaire. L'analyse de stabilité linéaire permet d'obtenir les caractéristiques spectrales et géométriques de l'instabilité à partir d'une situation d'équilibre instable. Dans un deuxième temps, la confrontation par le biais de simulations numériques trois modèles dynamiques permet l'examen du développement de la turbulence, ainsi que les premières étapes de la saturation de l'instabilité. En géométrie torique, une analyse linéaire de stabilité est effectuée au moyen de deux méthodes, respectivement par intégration en temps et analyse spectrale, pour obtenir les caractéristiques des modes les plus instables. Pour chacune des géométries envisagées, les diverses méthodes numériques implémentées sont décrites et leurs performances évaluées. Une attention particulière est portée tout au long de ce travail à la mise en balance des coûts et bénéfices de la réduction Multi-Water-Bag</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Simulation numérique de modèles cinétiques réduits pour l'étude de la dynamique des plasmas de fusion par confinement magnétique</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Özgür Gürcan, Simon Labrunie, Séraphin Mefire, Yanick Sarazin</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Jacques Blum, Jean-Marcel Rax</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -8235,7 +8234,7 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Ce travail étudie la façon dont la chanteuse noire américaine, ... inédite, qu'à la propagation de certains mythes à son égard.</t>
+          <t>Ce travail de recherche s'inscrit dans la problématique de la ... en balance des coûts et bénéfices de la réduction Multi-Water-Bag</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
@@ -8250,72 +8249,72 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Julien El hajj</t>
+          <t xml:space="preserve">  Théodore Graul</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Samy Merabia, Gilles Ledoux</t>
+          <t xml:space="preserve">  Ange Nzihou</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Physique</t>
+          <t xml:space="preserve">  Génie des Procédés et de l'Environnement</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 05/10/2022</t>
+          <t xml:space="preserve">  Soutenance le 05/12/2023</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Lyon 1</t>
+          <t xml:space="preserve">  Ecole nationale des Mines d'Albi-Carmaux</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t xml:space="preserve">  École doctorale Mécanique, énergétique, génie civil et procédés (Toulouse)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Multiscale simulations of thermal transport around optically heated heterogeneous nanoparticles in water</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Physique et Astrophysique de Lyon (PHAST)</t>
+          <t>Ce travail propose une approche innovante pour la production, caractérisation et utilisation de catalyseurs biosourcés pour des applications dans les domaines de l'énergie et de l'environnement, afin de réduire le coût et l'impact des catalyseurs commerciaux actuellement utilisés. Le travail développé ici promeut une approche d'économie circulaire dans la mesure où des plantes issues de la phytoremédiation ont été employées pour la production de catalyseurs biosourcés, respectueux de l'environnement. Ces catalyseurs ont été utilisés pour produire des vecteurs énergétiques tels que l'hydrogène à partir des réactions de gaz à l'eau direct (water-gas shift, WGS) et indirect (reverse water-gas shift, RWGS), et pour la décomposition des polluants de NOx (deNOx). Les catalyseurs biosourcés ont été produits à partir de saule et fougère avec un contenu contrôlé en métaux introduit par imprégnation avant ou après pyrolyse à 800°C afin d'imiter l'hyperaccumulation (&gt;3 g métal /kg biocarbone) dans un support carboné poreux. Les catalyseurs ainsi produits ont été testés pour les réactions de deNOx, ainsi que dans WGS et RWGS, et les dispositifs expérimentaux associés ont été développés et optimisés pendant la thèse. Ils ont été caractérisés en termes de composition, structure et stabilité thermique, ceci avant et après utilisation. Pour les trois réactions, les catalyseurs ont montré une sélectivité et une conversion élevées et maintenues dans les conditions de réaction, facilitées par le contenu en métaux catalytiques dont l'activité a été renforcée par les métaux inhérents. La présence de fonctions oxygénées de surface et d'une surface spécifique élevée (&lt;419 m²/g) ont amélioré l'adsorption et la dissociation des gaz réactifs grâce à des sites supplémentaires formés par réduction et à une meilleure activité électronique. Avec ces caractéristiques, les catalyseurs biosourcés ont montré des performances meilleures que celles de catalyseurs références de la littérature en raison d'une meilleure stabilité ou activité catalytiques (conversion maintenue pour plus de 120h, énergie d'activation entre 0.5 et 186 kJ/mol, constante cinétique entre 1.9 x 10^-9 et 4.3 x 10^12. Le catalyseur de saule imprégné au Ni avant pyrolyse et le catalyseur bimétallique (Ni/Fe) de fougère ont montré les meilleures performances pour les réactions de deNOx, et RWGS et WGS, respectivement.</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
+          <t>Production de catalyseurs biosourcés pour élimination de NOx, WGS et RWGS</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Ange Nzihou, Marco Baratieri, Roger Gadiou, Pascal Fongarland, Laurent Van de Steene, María González Martínez</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Marco Baratieri, Roger Gadiou</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -8345,7 +8344,7 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Ce travail propose une approche innovante pour la production, caractérisation ... pour les réactions de deNOx, et RWGS et WGS, respectivement.</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -8360,12 +8359,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Seong Joon Byeon</t>
+          <t xml:space="preserve">  Marko Stipaničev</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Philippe Gourbesville</t>
+          <t xml:space="preserve">  Régine Basséguy</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8375,49 +8374,49 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Automatique, traitement du signal et des images</t>
+          <t xml:space="preserve">  Génie des procédés et de l'environnement</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 28/11/2014</t>
+          <t xml:space="preserve">  Soutenance le 27/08/2013</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Nice</t>
+          <t xml:space="preserve">  Toulouse, INPT</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>La Corée est régulièrement touchée par des inondations et des sécheresses majeures qui affectent l’environnement naturel et impactent très sérieusement les activités économiques du pays. La mise en réseau des différentes ressources et infrastructures selon le concept des Smart Water Grid peut permettre d’atténuer l’impact de ces évènements. Gérer de manière dynamique les réservoirs, collecter les précipitations en milieu urbain à l’aide de réservoirs qui peuvent être utilisés pour stocker et limiter l’effet du ruissellement sont des mesures qui peuvent contribuer significativement à améliorer la gestion de l’eau. De même, les ressources de surfaces, souterraines et issues des unités de purification ou de désalinisation peuvent être combinées et associées pour répondre à la demande. Cette approche est celle du concept de Smart Water Grid qui est l’objet de ce travail de recherche. La majorité des sites urbains en Corée sont alimentés à partir de ressources superficielles. Dans le cas de l’île de Youngiongdo qui accueille l’aéroport international d’Incheon et toutes les installations aéroportuaires, l’alimentation en eau est réalisé à partir du fleuve Han et après traitement. Cependant, le système d'approvisionnement en eau est particulièrement vulnérable puisque l’eau est acheminée à partir de la ville d’Incheon située sur le littoral continental. Aucune ressource n’est mobilisée sur l’ile. Cette recherche a permis de préciser le concept de Smart Water Grid et de développer un modèle global permettant d’évaluer la disponibilité des différentes ressources à l’aide de différents modèles hydrologiques et hydrauliques. Cette approche a été appliquée sur le site de Youngiongdo.</t>
+          <t xml:space="preserve">  École doctorale Mécanique, énergétique, génie civil et procédés (Toulouse)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Évaluation des besoins en eau et gestion raisonnée en milieu insulaire</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences et technologies de l'information et de la communication (Nice ; 1992-....)</t>
+          <t>L’objectif de ce projet, réalisé dans le cadre du réseau BIOCOR, est de fournir aux opérateurs intervenant dans les systèmes d’injection d’eau, un support amélioré d’aide à la décision. L’implication de composants biologiques dans la corrosion de l’acier au carbone ainsi que les synergies potentielles avec d’autres éléments (contrainte mécanique, propriétés intrinsèques du matériau…) ont été étudiées. Les travaux ont montré que la production du sulfure (une réelle menace pour l’acier) par voie biologique avait différentes origines dans l’eau de mer, les différents taux de production pouvant déterminer diverses cinétiques et morphologies de la corrosion. Les paramètres clé sont la disponibilité des accepteurs d’électrons et la température du milieu environnant. Les bactéries sulfato-réductrices (BSR) sont responsables d’attaques plus sévères que les bactéries sulfidogéniques ou du genre Clostridium, deux groupes identifiés dans le système étudié. L’activité microbienne affecte également les processus de minéralisation qui ont lieu naturellement à la surface de l’acier doux, conduisant à des architectures composées de minéraux à base de fer II et III, comme le sulfure de fer, la magnétite, les oxy-hydroxydes de fer, la chukanovite et la rouille verte (sulfatée ou carbonatée) ainsi que des dépôts calcaires. Les couches internes de ces structures peuvent constituer un habitat favorable, dans lequel les BSR peuvent se développer en utilisant le sulfate de la rouille verte sulfatée comme accepteur terminal d’électrons pour leur respiration dissimilatrice. Ce processus conduit à la dégradation continue de l’acier. Enfin, l’influence de la microstructure du matériau et l’impact du stress mécanique sur la biocorrosion ont été identifiés : les joints de grains et les inclusions jouent un rôle important dans les premières étapes de la corrosion, qui s’estompe avec le temps d’immersion. Un taux élevé de bactéries couplé à une contrainte mécanique conduit à une augmentation de la détérioration sans toutefois révéler des mécanismes nouveaux par rapport à l’absence de contrainte. De plus, l’activité sulfidogénique des bactéries ne semble pas conduire aux mécanismes de rupture par fissuration (Stress Corrosion Cracking). En conclusion, les résultats de ce travail indiquent les situations qui pourraient (ou non) conduire à s’écarter de la ‘fenêtre de sécurité’ pour un système donné.</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Improved decision support within biocorrosion management for Oil and Gas water injection systems</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
+          <t>Missing Value</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
           <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Philippe Gourbesville, Philippe Audra, Gye Woon Choi, Dongwook Kim, Seung Jin Maeng, Chang Soo Song</t>
-        </is>
-      </c>
       <c r="M73" t="inlineStr">
         <is>
           <t>Missing value</t>
@@ -8455,7 +8454,7 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>La Corée est régulièrement touchée par des inondations et des ... Cette approche a été appliquée sur le site de Youngiongdo.</t>
+          <t>L’objectif de ce projet, réalisé dans le cadre du réseau ... s’écarter de la ‘fenêtre de sécurité’ pour un système donné.</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
@@ -8470,57 +8469,57 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Friederike Hemmer</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Frédéric Parol, Laurent Couillard-Labonnote, Gérard Brogniez</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Terre, enveloppes fluides</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 07/12/2018</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université de Lille (2018-2021)</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Il est maintenant bien établi que les cirrus ont un impact important sur le climat. Cependant, l'estimation de cet effet est difficile car notre connaissance des propriétés microphysiques de ce type de nuage est encore incertaine. L'objectif de cette thèse est donc d’améliorer notre compréhension de la microphysique complexe du cirrus composé principalement de cristaux de glace de forme irrégulière et d'estimer ainsi un contenu en glace (ice water content, IWC) plus précis. Pour cela, nous avons développé un algorithme permettant de restituer le profil vertical d'IWC du cirrus. La méthodologie considère une synergie entre les mesures d'un lidar et celles d'un radiomètre infrarouge thermique (IRT) effectuées depuis le sol, via une méthode d'estimation optimale. Ce travail s’est déroulé en trois étapes: (1) Le contenu en glace intégré verticalement (ice water path, IWP) est estimé à partir des mesures passives IRT. (2) L'information sur la distribution verticale d'IWC à l'intérieur du nuage est obtenue avec les mesures actives du lidar. Cette restitution dépend fortement du rapport entre la rétrodiffusion et l'extinction des cristaux de glace obtenu avec un modèle microphysique. La fonction de phase du modèle utilisée pour définir ce rapport ne prend pas en compte le pic de rétrodiffusion. Nous montrons que cette hypothèse aboutit à des résultats non réalistes par rapport aux mesures IRT. (3) Par conséquent, les deux types d’informations sont combinées en synergie pour estimer, lors de la restitution des profils verticaux d'IWC, un facteur correctif permettant de rendre compte de ce pic de rétrodiffusion. Finalement, les résultats et les hypothèses associées sont discutés.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Caractérisation des cirrus à partir de mesures de surface en utilisant la synergie entre lidar et radiomètre infrarouge thermique</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences de la matière, du rayonnement et de l'environnement (Lille ; 1992-....)</t>
+          <t>LYL1 (Lymphoblastic leukemia-derived sequence 1) est un facteur de transcription basic hélice-boucle-hélice (bHLH) exprimé dans les lymphocytes B, les cellules myéloïdes et les cellules endothéliales (CE). Les souris déficientes pour Lyl1 (Lyl1-/-) sont viables et chez la souris adulte, LYL1 a un rôle majeur dans la maturation des vaisseaux sanguins nouvellement formés et dans le contrôle de la perméabilité vasculaire basale, suggérant l'importance de LYL1 dans le maintien de la quiescence et/ou stabilisation des CE. Les vaisseaux sanguins représentent une barrière entre le sang et le tissu conjonctif. Ils peuvent également jouer le rôle de niche vasculaire contenant des progéniteurs des différentes cellules murines (par exemple, des cellules hématopoïétiques, des cellules β-pancréatiques, des cellules neuronales, des cellules hépatiques et des cellules adipeuses). Les deux tissus adipeux, blancs et bruns (WAT et BAT), sont très vascularisés. Jusqu'à présent, rien n'était connu sur le rôle de LYL1 dans le tissu adipeux. Les résultats présentés dans cette thèse montrent que l'augmentation significative du poids corporel des mâles Lyl1-/- par rapport aux souris sauvages (WT), sous régime normal, n'est pas associée à des troubles métaboliques. Ils présentent également un poids plus élevé de tissus adipeux (WAT et BAT) et de plus grandes gouttelettes lipidiques. In vivo, la perte de Lyl1 accélère le processus de différenciation des cellules souches adipeuses (CSA), puisque les adipocytes blancs et bruns sont matures et actifs plus tôt. De plus, les CSA sont moins nombreuses dans les tissus adipeux, ce qui confirme que la perte de Lyl1 favorise la différenciation des CSA vers adipocytes matures. Nous avons également démontré que Lyl1 est exprimée dans les CSA et les pré-adipocytes, suggérant un rôle direct dans LYL1 dans la différenciation adipocytaire. D'autre part, les vaisseaux des WAT des souris Lyl1-/- sont mal recouverts de cellules murales et plus perméables, suggérant que la niche vasculaire des tissus adipeux pourrait être perturbée. Sous alimentation riche en graisses (HFD), le poids corporel et le poids du tissu adipeux sont plus faibles chez les souris Lyl1-/- par rapport à WT. De plus les souris Lyl1-/- présentent de plus petites gouttelettes lipidiques que les WT, sous HFD. Ces résultats préliminaires, suggèrent que les souris Lyl1-/- pourraient être protégées contre l'obésité induite par l'alimentation. Cependant d'autres expériences sont nécessaires pour valider ces résultats. Il existe probablement un mécanisme de compensation qui se met en place chez les souris Lyl1-/- sous HFD. Ce travail a démontré que, sans Lyl1, la différenciation adipocytaire est accélérée et que la niche vasculaire adipocytaire est perturbée.</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Rôle du facteur de transcription LYL1 dans la différentiation des adipocytes</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -8565,7 +8564,7 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Il est maintenant bien établi que les cirrus ont un ... rétrodiffusion. Finalement, les résultats et les hypothèses associées sont discutés.</t>
+          <t>LYL1 (Lymphoblastic leukemia-derived sequence 1) est un facteur de transcription ... est accélérée et que la niche vasculaire adipocytaire est perturbée.</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
@@ -8580,12 +8579,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  GERALDINE MATHIEU GIRARD</t>
+          <t xml:space="preserve">  JEAN MICHEL CHAPPELIER</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jean-Pierre Raymond</t>
+          <t xml:space="preserve">  Jean-Noël Hallet</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8595,42 +8594,42 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Physique</t>
+          <t xml:space="preserve">  Sciences biologiques et fondamentales appliquées. Psychologie</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1998</t>
+          <t xml:space="preserve">  Soutenance en 1997</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Toulouse 3</t>
+          <t xml:space="preserve">  Nantes</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Cette these est consacree a l'etude de problemes de controle frontiere (par des batteurs), pour des ecoulements dans un canal ouvert. Le modele est celui de la theorie shallow water (eau peu profonde) ou equations de saint-venant, muni de conditions de dirichlet non homogenes. Nous demontrons un resultat d'existence globale en temps pour les equations d'etat ecrites en coordonnees lagrangiennes de masse. Contrairement aux equations de la dynamique des gaz, (modele tres proche etudie entre autre par antontsev, kazhikov et monakhov), nous ne pouvons pas utiliser les methodes d'estimations a priori classiques. Ici, pour traiter les conditions aux limites non homogenes, nous supposons la hauteur d'eau bornee superieurement pour l'obtention d'une estimation d'energie. Les estimations sur la hauteur d'eau ne sont etablies qu'a posteriori. Nous etudions ensuite un probleme de controle associe a ces equations. Nous demontrons d'abord l'existence d'un controle optimal. Puis, des theoremes d'existence globale sont etablis pour les equations d'etat, obtenir d'estimations a priori globales, et nous utilisons alors une methode de point fixe. De ces resultats, nous deduisons des conditions necessaires d'optimalite. La deuxieme partie de ce travail est consacree a la mise en uvre d'un algorithme de calcul. Pour cela, nous discretisons les equations d'etat par un schema d'euler explicite en temps. En espace, la partie hyperbolique est discretisee par un schema de godunov, et la partie parabolique par un schema decentre amont. Nous developpons ensuite un algorithme de calcul de controles optimaux. Nous utilisons une methode de descente avec recherche du pas de descente par la methode de wolfe-powell. Les equations adjointes discretes sont deduites par une methode de lagrangien. Differents tests sont effectues sur le code de resolution directe. Pour les problemes de controle, nous cherchons a minimiser un critere mesurant la distance a un profil donne, et nous etudions en particulier des problemes de stabilisation.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Etude et controle des equations de la theorie shallow water en dimension un</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>L'etat viable non cultivable (vnc) d'une bacterie enteropathogene, campylobacter jejuni, a ete analyse sur trois souches presentant une perte des capacites a former des colonies, mais maintenant leur viabilite lorsqu'elles sont mises en suspension dans de l'eau filtree, sterilisee (microsom water). La viabilite des cellules viable non cultivable est etudie apres l'adaptation a c. Jejuni de deux techniques, la dvc et la double coloration ctc/dapi. Par sa rapidite et sa facilite d'interpretation, la coloration ctc/dapi apparait la plus interessante. La caracterisation de l'etat vnc aboutit aux resultats suivants : une reduction de la taille des cellules a l'etat vnc est observee par microscopie electronique a balayage, mais des cellules spiralees sont encore presentes apres trente jours d'incubation en microsom water. Les valeurs du ph interne, du potentiel de membrane et de la teneur en potassium diminuent chez les cellules vnc. De meme, les concentrations en atp et adp diminuent fortement, la charge energetique ultime des formes vnc n'etant pratiquement constituee que d'amp. Differentes experimentations permettent la mise en evidence d'une synthese de proteines dans les premieres heures d'incubation en microsom water, ces proteines interviennent dans la viabilite a long terme des cellules et dans l'acquisition d'une thermoresistance. Des inoculations de cellules vnc a des poussins, des souriceaux et des oeufs embryonnes, permettent un retour a l'etat cultivable de ces cellules. Les meilleurs resultats sont obtenus avec le modele oeuf embryonne. Des mesures d'indice d'association aux cellules hela, montrent une perte des capacites d'adhesion des cellules vnc. Toutefois, ces capacites sont restaurees apres passage sur les differents modeles animaux, indiquant le maintien de la pathogenicite de ces cellules. L'existence de cellules vnc de c. Jejuni capables de redevenir cultivable dans le tube digestif de differents animaux rend tout a fait probable l'intervention de ces cellules vnc dans les campylobacterioses digestives humaines.</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>L'etat viable non cultivable chez une bacterie responsable de toxi-infections alimentaires : campylobacter jejuni</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -8675,7 +8674,7 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Cette these est consacree a l'etude de problemes de controle ... donne, et nous etudions en particulier des problemes de stabilisation.</t>
+          <t>L'etat viable non cultivable (vnc) d'une bacterie enteropathogene, campylobacter jejuni, ... l'intervention de ces cellules vnc dans les campylobacterioses digestives humaines.</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
@@ -8690,12 +8689,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Viet dung Duong</t>
+          <t xml:space="preserve">  Mohammad Slim</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Hynd Remita</t>
+          <t xml:space="preserve">  Kwami Dodzi Zigah</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8705,42 +8704,42 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Chimie</t>
+          <t xml:space="preserve">  Chimie théorique, physique, analytique</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 01/10/2022</t>
+          <t xml:space="preserve">  Inscription en doctorat le 07/11/2023</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  université Paris-Saclay</t>
+          <t xml:space="preserve">  Poitiers</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>La lumière solaire est une source d'énergie verte et renouvelable qui peut être utilisée en photocatalyse pour la dépollution de l'eau et de l'air, le « water splitting » et la production d'hydrogène. Nous avons montré que les nanostructures de polymères conjugués sont très prometteuses pour la photocatalyse sous UV et lumière visible.1-6 Les matériaux semi-conducteurs organiques émergent comme des candidats sérieux pour réaliser l'oxydation de l'eau et la photosynthèse artificielle.6 Le principal défi du projet de doctorat sera la conception de photocatalyseurs à base de polymères conjugués pour l'oxydation de l'eau et le « water splitting » et d'étudier le processus d'oxydation de l'eau. Les mésophases hexagonales et lamellaires, qui consistent en des systèmes quaternaires (tensioactif, eau salée, huile et co-tensioactif) sont utilisées comme modèles souples pour synthétiser des nanostructures de polymères conjugués. Ce projet multidisciplinaire se fera en étroite collaboration avec des scientifiques possédant une solide expertise en chimie physique, photocatalyse, électrochimie, science des matériaux et physique de la matière molle.</t>
+          <t xml:space="preserve">  École doctorale Rosalind Franklin (Poitiers ; 2022-....)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Polymères conjugués nanostructurés pour l'oxydation de l'eau et le 'water spitting'</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences chimiques </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Préparation and analysis of photoelectrodes for water splitting</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -8755,7 +8754,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TEMiC</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -8780,12 +8779,12 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Faculté des sciences d'Orsay</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>La lumière solaire est une source d'énergie verte et renouvelable ... électrochimie, science des matériaux et physique de la matière molle.</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
@@ -8800,12 +8799,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ludovic Zimmerlin</t>
+          <t xml:space="preserve">  Babette Christelle Tchonang</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bruno Péault, Albert D. Donnenberg</t>
+          <t xml:space="preserve">  Pierre-Yves Le Traon, Mounir Benkiran</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8815,57 +8814,57 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thérapeutiques biotechnologiques</t>
+          <t xml:space="preserve">  Océan, Atmosphère, Climat</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2010</t>
+          <t xml:space="preserve">  Soutenance le 20/07/2021</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 7</t>
+          <t xml:space="preserve">  Toulouse 3</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Le tissu adipeux blanc (WAT) représente une source de cellules souches adultes adaptée à la thérapie régénérative. Les cellules souches dérivées du tissu adipeux (ADSC) partagent de nombreuses caractéristiques des cellules souches mésenchymateuses (MSC) qui sont dérivées de la moelle osseuse. Les ADSC semblent résider dans l'adventice des vaisseaux sanguins, mais leur identité in vivo reste ambiguë. Les péricytes peuvent engendrer des MSC humaines, mais les ADSC semblent se développer à partir d'une population CD34+ distincte. Nous avons démontré que ces deux populations sont adipogéniques et avons identifié une population intermédiaire supputée être amplificatrice transitoire. Le WAT peut être utilisé comme produit de comblement pour la reconstruction mammaire et la rétention de volume à long terme peut être assurée par l'addition d'ADSC. La lipoinjection et l'utilisation des ADSC après tumorectomie restent cependant controversées, leurs effets sur la dormance cancéreuse étant inconnus. Nous avons caractérisé le tissu mammaire humain sain et tumoral et y avons identifié une population CD90+CD44+, que nous suspectons représenter les cellules souches mammaires et les cellules souches cancéreuses putatives du sein. Nous avons étudié les effets des ADSC sur des fractions cellulaires tumorigéniques du cancer du sein. Bien que les ADSC augmentent la tumorigénicité des cellules cancéreuses larges (actives), elles ne semblent pas modifier celle de cellules initialement quieséentes. La greffe de cellules adipeuses assistée par l'injection d'ADSC pourrait donc être employée pour la reconstruction mammaire, tant que les cellules cancéreuses en cycle ont été préalablement éliminées.</t>
+          <t xml:space="preserve">  École doctorale Sciences de l’univers, de l’environnement et de l’espace (Toulouse)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Cellules souches multipotentes issues du tissu adipeux adulte humain : identification, isolement et application à la thérapie régénérative : interactions avec cellules initiatrices de tumeur isolées de carcinome mammaire</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>La mission SWOT (Surface Water Ocean Topography) qui sera lancée en 2022 doit permettre grâce à un nouveau système d’altimétrie à large fauchée d’observer beaucoup plus finement la topographie des océans (SSH). Cette capacité nouvelle d'observation pose d'importantes questions pour les communautés scientifique et océanographie opérationnelle : quelles améliorations sur l’analyse et la prévision océanique peuvent être attendues en assimilant les observations SWOT dans des modèles à haute résolution ? Afin de répondre à cette question, nous avons mené pour la première fois un ensemble d’Observing System Simulation Experiments (OSSEs) dans un système global d’assimilation de données au 1/12°. Les observations utilisées sont : les observations de trois altimètres nadir, les observations de SWOT, les observations in-situ (température et salinité) et de la température de surface de la mer. Les premières OSSEs menées montrent que par rapport aux trois altimètres nadir, les observations SWOT ont un impact équivalent sur les données d’analyse de la SSH, la température et la salinité mais améliorent les courants océaniques en profondeur et en surface. La combinaison des trois altimètres nadir et de SWOT améliore les analyses en permettant une légère réduction des erreurs d’analyse de la SSH et des courants océaniques. Ces résultats bien qu’intéressants sous estiment cependant le potentiel de SWOT. Plusieurs pistes pouvant améliorer l’impact de SWOT pour l’analyse et la prévision océanique ont été identifiées, ce qui nous a conduit à recalibrer les OSSEs et à améliorer le schéma d’assimilation afin de mieux représenter les différentes échelles contenues dans les observations de SWOT. Ces améliorations ont permis la réalisation d’un deuxième ensemble d’OSSEs pour lesquelles les observations de SWOT se sont avérées très efficaces. Par rapport à l’expérience assimilant uniquement trois altimètres nadir, l'ajout des observations SWOT réduit ainsi globalement la variance des erreurs d'analyse et de prévision de la SSH et de la vitesse d'environ 30 % et 20 % respectivement. Cette amélioration est plus forte pour les échelles océaniques inférieures à 200 km avec une réduction de la variance d’erreur d’analyse de la SSH supérieure à 40% en dehors des régions tropicales. Cette thèse montre ainsi que les données SWOT pourront être assimilées dans le futur système global d'analyse et de prévision à haute résolution de Mercator Ocean et du Copernicus Marine Service, avec un impact positif à toutes les latitudes et des performances excellentes. Elle souligne aussi l’importance du design et de la calibration des méthodes d’OSSEs et l’apport des améliorations des schémas d’assimilation de données afin d’obtenir des résultats les plus réalistes possibles.</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Contribution du satellite SWOT (Surface Water Ocean Topography) pour l'analyse et la prévision océanique</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Guillaume Charria</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Sabrina Speich, Pierre Brasseur</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -8895,7 +8894,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Le tissu adipeux blanc (WAT) représente une source de cellules ... que les cellules cancéreuses en cycle ont été préalablement éliminées.</t>
+          <t>La mission SWOT (Surface Water Ocean Topography) qui sera lancée ... de données afin d’obtenir des résultats les plus réalistes possibles.</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
@@ -8910,12 +8909,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Qiong Wu</t>
+          <t xml:space="preserve">  Mohamed Hédi Gadhoumi</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Christophe Colin</t>
+          <t xml:space="preserve">  Alain Poisson</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8925,52 +8924,52 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences de l'univers</t>
+          <t xml:space="preserve">  Terre, océan, espace</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 08/09/2014</t>
+          <t xml:space="preserve">  Soutenance en 1990</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 11</t>
+          <t xml:space="preserve">  Paris 6</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Le but de cette étude est de retracer l’évolution de l’hydrologie dans la partie occidentale de l’Océan Pacifique subtropical en utilisant le proxy εNd analysé sur les foraminifères et sur les oxydes de ferromanganèse authigéniques dans les sédiments. Ceux-ci proviennent de carottes sédimentaires prélevées au nord de la Mer de Chine du Sud (MCS). Avant d’utiliser l’εNd dans les sédiments profonds de la MCS, 16 profils d’eau de mer, collectés au nord de la MCS et dans le Mer des Philippines, ont été analysés afin d’établir la distribution d’εNd des masses d’eau dans l’ouest du Pacifique tropical et dans la MCS, qui jusqu’à aujourd’hui n’était pas documentée. Les valeurs d’εNd des masses d’eau profondes et intermédiaires varient de -2,7 à -4,4 et augmentent légèrement avec la profondeur. Dans la mer des Philippines, les valeurs d’εNd de l’eau intermédiaire du Pacifique Nord (North Pacific Intermediate Water, NPIW) atteint -2.7±0.4 à moyenne profondeur (500 à 1400m). En-dessous de de 1800m, l’eau profonde Pacifique (Pacific Deep Water, PDW) est caractérisée par du Nd moins radiogénique (-4.1±0.5), indiquant l’intrusion de masses d’eau australes. Pour la plupart des stations du nord de la MCS, les masses d’eau en-dessous de 1500m (PDW) affichent des valeurs d’εNd homogènes (~ -4.1), similaires à celles de la PDW dans la Mer des Philippines. Les valeurs d'εNd pour l'eau intermédiaire de la mer de Chine du Sud (South China Sea Intermediate Water, SCSIW, 500-1500m) varient entre -3.0 et -3.9 dû au mélange vertical de la NPIW avec la PDW. Les valeurs d'εNd de l'eau de mer dans la MCS (-5.3 à -7.0) affichent des modifications locales dans des zones où l'eau s'écoule au-dessus de systèmes de dépôt sédimentaire. Ceci implique que "l'échange à la marge" avec des sédiments non radiogéniques (autour de -11) peut se produire dans le temps et dans l'espace sans modifier la composition isotopique du Nd de la PDW dans le Nord de la MCS. Dans un second temps, l’εNd extrait des foraminifères planctoniques G. ruber a été étudié sur la carotte MD05-2904, collectée à 2000m de profondeur sur la marge nord-ouest de la MCS. Cette étude a été conduite dans le but de retracer les variations hydrologiques depuis le Dernier Maximum Glaciaire (DMG) dans la partie occidentale du Pacifique Nord subtropical. Les enregistrements d'εNd ainsi obtenus couvrent les derniers 25 000 ans. Ils affichent une large gamme de valeurs de -4±0.2 à -6.7±0.3, suggérant d'importants changements dans la contribution de la NPDW (εNd=-4) et de la UCDW (Upper circumpolar Deep Water, εNd -6 to -8) dans la zone étudiée. Durant la déglaciation, les enregistrements d'εNd indiquent une diminution des excursions négatives de l'εNd impliquant une plus forte proportion de SSW (Southern-sourced Water) entre 17 et 15 ka BP ainsi qu'entre 10 et 8 ka BP. Ces intervalles de temps sont contemporains de l’évènement Heinrich 1 (HS1) et de l’Holocène inférieur. Les shifts négatifs centrés sur le HS1 coïncident avec un phénomène d'upwelling renforcé dans l'océan austral, associé à un déplacement vers le pôle des vents d'ouest. Ceci implique une augmentation de la formation de la SSW qui se propage dans l'Ouest du Pacifique subtropical. L'excursion négative de l'εNd durant l’Holocène inferieur (~10-8 cal ka BP) indique une plus grande proportion de SSW qui pourrait être associée avec une plus forte production de SSW, comme observé récemment dans l'atlantique Sud, et/ou avec une possible réduction de la NPIW. Nos données suggèrent que le schéma de circulation actuel dans la partie occidental du Pacifique subtropical s'est mis en place il y a 4600 ans.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Etude de l'hydrologie de la Mer de Chine du Sud depuis la dernière période glaciaire à partir de la composition isotopique du Nd analysé dans les foraminifères</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ecole doctorale Modélisation et Instrumentation en Physique, Energie, Géosciences et Environnement (Orsay, Essonne ; 2010-2015)</t>
+          <t>Dans ces travaux, nous avons etabli les relations qui regissent: 1) la salinite pratique, le rapport de conductivite et la temperature; 2) la masse volumique, la salinite pratique et la temperature pour les eaux de mer de fortes salinites (voisine de 50) obtenues a partir de dilutions d'eau de mer normale (standard sea water) concentree. Les resultats de cette these permettent ainsi de determiner la salinite pratique et la masse volumique pour les eaux qui sont en dehors de l'echelle de la salinite pratique (eps 78) et de l'equation d'etat (eos 80), a partir des mesures conductimetriques par rapport a l'eau de mer normale de reference (standard sea water). Les ecarts de masse volumique entre les eaux de mer de forte salinite (canal de suez, golfe de suez et golfe arabo-persique) et l'eau de mer normale de reference ont ete evalues. Ces ecarts serviront a etablir les tables de corrections de la salinite et de la masse volumique inherents a la variation de la composition chimique entre ces eaux et l'eau de mer normale de reference. De plus, l'estimation des ecarts de masse volumique des eaux de ces regions permettent au modelisateur dynamicien, au nord de l'ocean indien, ou a une echelle plus reduite a la mer rouge, au golfe arabo-persique ainsi que dans les regions qui leurs sont contigues, d'avoir quantitativement les effets de ces ecarts a la reference en masse volumique: sur la densite, sur les profondeurs de melange et, implicitement, sur la sensibilite de leur modele vis-a-vis des ecarts de densite entre la densite definie a partir des mesures de routine (relativement a la composition chimique de l'eau de mer normale de reference), et celle mesuree directement sur les eaux de mer de ces regions</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Extension de l'echelle de salinite pratique (1978) et de l'equation d'etat (1980) pour les eaux de mer de fortes salinites; application aux eaux de mer, aux eaux du canal de suez, du golfe de suez et du golfe arabo-persique</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Christophe Colin, Giuseppe Siani, Laure Meynadier, Paolo Montagna, Pinxian Wang, Zhifei Liu</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Laure Meynadier, Paolo Montagna</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9005,7 +9004,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Le but de cette étude est de retracer l’évolution de ... subtropical s'est mis en place il y a 4600 ans.</t>
+          <t>Dans ces travaux, nous avons etabli les relations qui regissent: ... mesuree directement sur les eaux de mer de ces regions</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
@@ -9020,12 +9019,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Julien Guilhermet</t>
+          <t xml:space="preserve">  João Guilherme Caldas Steinstraesser</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Michel Legrand, Didier Voisin</t>
+          <t xml:space="preserve">  Antoine Rousseau, Vincent Guinot</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9035,62 +9034,62 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences de l'univers</t>
+          <t xml:space="preserve">  Mathématiques et modélisation</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 28/09/2012</t>
+          <t xml:space="preserve">  Soutenance le 01/10/2021</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Grenoble</t>
+          <t xml:space="preserve">  Montpellier</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Les aérosols atmosphériques jouent un rôle important à la surface de la Terre. Ils influencent les propriétés radiatives de l'atmosphère et représentent des composés importants pour les questions de qualité de l'air et de santé publique dans les régions polluées. Suite à la forte diminution de la pollution soufrée survenue au cours des trois dernières décennies, l'aérosol organique représente maintenant une part importante de l'aérosol atmosphérique. Cette fraction a une nature complexe et jusqu'à présent, moins de la moitié de ses constituants chimiques ont été identifiés. La fraction soluble des HUmic LIke Substances (HULISWS) représente une des familles importantes de l'aérosol organique soluble avec une contribution en masse comprise entre 20 et 50%. L'objectif de cette thèse est de développer une méthode de mesure des HULISWS dans la glace. L'étude de ces archives environnementales, ici une carotte de glace extraite au col du Dôme (4250 m, massif du Mont-Blanc, France), permet de remonter aux concentrations en HULISWS en Europe au cours de la période 1920-1988. L'étude des concentrations et de l'absorbance spécifique des HULISWS dans la carotte de glace a permis d'identifier deux sources distinctes suivant la saison et de suivre leur évolution au cours du XXème siècle. Les HULISWS sont issus de la combustion du bois en hiver, leur absorbance est forte et leurs concentrations sont faibles et stables tout au long du XXème siècle. En été, les HULISWS sont formés par des processus secondaires ayant pour précurseurs des espèces biogéniques organiques, leur absorbance spécifique est plus faible qu'en hiver et leurs concentrations plus fortes. Les teneurs estivales en HULISWS montrent une stabilité entre 1920 et 1950 puis une tendance à l'augmentation entre 1951 et 1970 associée vraisemblablement à une augmentation des émissions de composés organiques volatils depuis la biosphère.</t>
+          <t xml:space="preserve">  École doctorale Information, Structures, Systèmes (Montpellier ; 2015-....)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Water Soluble HUmic LIke Substances dans la moyenne et basse troposphère Européenne : caractérisation et évolution passée</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences de la terre, de l’environnement et des planètes (Grenoble, Isère, France ; 1992-....)</t>
+          <t>Cette thèse de doctorat porte sur l’étude du couplage des modèles de Saint-Venant non linéaires à différentes échelles, appliqué à la simulation numérique d’inondations urbaines. Des simulations précises dans ce domaine ont, en général, un coût computationnel prohibitif dû aux petites tailles de maille nécessaires pour la discrétisation spatiale de la géométrie urbaine et, par conséquent, les petits pas de temps restreints par des conditions de stabilité. Au cours des deux dernières décennies, des modèles de Saint-Venant à porosité ont été proposés comme une alternative, s’agissant des modèles à échelle élargie utilisant des mailles et des pas de temps plus grands, et capables de fournir des bonnes approximations globales aux solutions des modèles fins, avec un temps de calcul considérablement plus petit. Néanmoins, certains phénomènes à petite échelle ne sont pas capturés par ce type de modèle. Nous cherchons donc à formuler un modèle numérique couplant les modèles à petite et à large échelle, afin d’obtenir des solutions plus précises à l’intérieur des zones urbaines, toujours avec des temps de calcul plus petits par rapport à la simulation des modèles fins. La ligne directrice de ce travail est l’utilisation de méthodes itératives de parallélisation en temps, du type prédicteur-correcteur, qui s’adaptent naturellement à cette formulation fin/grossier. Nous nous concentrons sur la méthode Pararéel (parareal method), une des méthodes de parallélisation en temps les plus connues. Comme défi majeur, la parallélisation en temps présente en général des instabilités et une convergence lente dans le cadre de la résolution de problèmes hyperboliques ou dominés par l'advection, comme les équations de Saint-Venant. Nous considérons donc une variante de la méthode qui incorpore des modèles d’ordre réduit (Reduced-Order models - ROMs) formulés à la volée au cours des itérations de la méthode Pararéel, utilisant la décomposition orthogonale aux valeurs propres (Proper Orthogonal Decomposition - POD) et la méthode d'interpolation empirique (Empirical Interpolation Method - EIM), et capable d’améliorer la stabilité et la convergence de la méthode pour la résolution de problèmes hyperboliques non linéaires. Nous étudions les limitations de cette méthode Pararéel basée sur des ROMs et nous proposons des modifications qui fournissent des améliorations additionnelles à la stabilité et la convergence : l’enrichissement des données d’entrée pour les techniques de réduction de modèle ; la formulation des ROMs locaux en temps ; et l’incorporation d’une méthode Pararéel adaptative proposée récemment dans la littérature. La méthode Pararéel originale et celle basée sur des modèles réduits, y compris les modifications proposées, sont comparées et évaluées en termes de stabilité, convergence vers la solution du modèle fin et accélération de la simulation numérique obtenue dans une implémentation parallèle. Dans un premier temps, les méthodes et améliorations proposées sont formulées, étudiées et implémentées en considérant des simulations numériques couplant les équations de Saint-Venant classiques (sans le concept de porosité) à différentes échelles. Après cette étude initiale, nous appliquons les méthodes au couplage des équations classiques et des équations à porosité, pour la simulation d’inondations urbaines.</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
+          <t>Couplage de modèles 'shallow water' à porosité à différentes échelles en présence d'anisotropie</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
+          <t>Missing Value</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
           <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Michel Legrand, Didier Voisin, Edith Parlanti</t>
-        </is>
-      </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anne Monod, Eric Wolff</t>
+          <t xml:space="preserve"> Antoine Rousseau, Vincent Guinot, Sandra Soares-Frazão, Martin Gander, Cristián ESCAURIAZA, Olga Mula Hernandez, Laurent Debreu</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Martin Gander, Cristián ESCAURIAZA</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Littoral, Environnement, Modèles et Outils Numériques (Montpellier)</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -9115,7 +9114,7 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Les aérosols atmosphériques jouent un rôle important à la surface ... augmentation des émissions de composés organiques volatils depuis la biosphère.</t>
+          <t>Cette thèse de doctorat porte sur l’étude du couplage des ... et des équations à porosité, pour la simulation d’inondations urbaines.</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
@@ -9130,12 +9129,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Min Wang</t>
+          <t xml:space="preserve">  Julien El hajj</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Marc Robert</t>
+          <t xml:space="preserve">  Samy Merabia, Gilles Ledoux</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9145,53 +9144,52 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Chimie</t>
+          <t xml:space="preserve">  Physique</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 12/10/2016
-Soutenance le 31/10/2019</t>
+          <t xml:space="preserve">  Inscription en doctorat le 05/10/2022</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université Paris Cité</t>
+          <t xml:space="preserve">  Lyon 1</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t xml:space="preserve">  Physique et Astrophysique de Lyon (PHAST)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hybrid systems comprising cobalt complexes for highly efficient electrocatalytic reduction of CO² in water.</t>
+          <t xml:space="preserve">  Equipe de recherche </t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  388 - CHIMIE PHYSIQUE ET CHIMIE ANALYTIQUE DE PARIS CENTRE</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Equipe de recherche </t>
+          <t>Multiscale simulations of thermal transport around optically heated heterogeneous nanoparticles in water</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clement Comminges</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inke Siewert, Ally Aukauloo</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9201,7 +9199,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UNIVERSITE PARIS DIDEROT</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -9241,12 +9239,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ayman Said</t>
+          <t xml:space="preserve">  Tomasz Bobinski</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thomas Alazard</t>
+          <t xml:space="preserve">  Agnès Maurel, Philippe Petitjeans, Vincent Pagneux</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9256,57 +9254,57 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques fondamentales</t>
+          <t xml:space="preserve">  Dynamique des fluides et des transferts</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 17/06/2021</t>
+          <t xml:space="preserve">  Soutenance le 27/06/2016</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  université Paris-Saclay</t>
+          <t xml:space="preserve">  Paris 6</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>L'équation d'Euler à surface libre décrit l'évolution de l'interface séparant l'air d'un fluide parfait irrotationnel. C'est un système de deux équations couplées : l'équation d'Euler à l'intérieur du domaine et une équation cinématique qui décrit les déformations du domaine. Les 4 travaux qui constituent le corps de cette thèse peuvent être divisés en trois sujets connectés au problème de Cauchy du système des water waves. Dans le prolongement des travaux de [2, 4, 5, 7], où les auteurs ont montré que le problème de Cauchy pour le système des water waves est bien posé et que le flot est continu sur des espaces de Sobolev suffisamment réguliers, nous montrons :- Dans [60] que le système des water waves avec ou sans tension de surface est quasi-linéaire au sens le plus fort du terme, c'est-à-dire que le flow n'est pas uniformément continu. De plus, dans le cas avec tension de surface, nous montrons que pour avoir une estimation Lipschitz sur le flot, il faut au moins une perte de dérivée. Plus généralement, pour l'équation de Burgers avec terme dispersif de la forme, nous montrons qu'il faut au moins une perte de dérivées pour assurer un contrôle Lipschitz sur le flot.- Dans [61], nous montrons que les résultats obtenus dans [60] sont effectivement optimaux, c'est-à-dire que pour l'équation de Burgers avec un terme dispersif,alphain le flot est effectivement Lipschitz de pour des données initiales périodiques de moyenne nulle. Pour le système des water waves avec tension de surface en deux dimensions d'espace, nous montrons qu'après re-normalisation, le flot est bien Lipschitz au prix d'une perte de dérivés. Afin de démontrer les résultats dans [61], nous avons développé une généralisation para-différentielle d'une transformation de jauge complexe de type Cole-Hopf introduite pour la première fois par T. Tao pour l'équation de Benjamin-Ono. Dans [62], nous l'utilisons pour améliorer les résultats connus sur une conjecture numérique due à Saut et Klein dans [45] sur l'équation de Burgers dispersive. Ce qui, à la connaissance de l'auteur, est la première fois que la transformation de jauge est mise en œuvre à cette fin pour. Afin de démontrer les différents résultats dans [60, 61, 62], nous avons étudié et affiné différents résultats connus en calcul paradifférentiel. Plus précisément, dans [59], nous améliorons certaines estimations sur l'opérateur de paracomposition introduit par Alinhac, nous donnons une preuve du changement de variables dans le calcul paradifférentiel et enfin nous étudions comment le support du cut-off fréquentiel varie après la composition d'opérateurs para-différentiels.</t>
+          <t xml:space="preserve">  École doctorale Sciences mécaniques, acoustique, électronique et robotique de Paris (2000-....)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sur le flot de l’équation d’Euler à surface libre</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale de mathématiques Hadamard (Orsay, Essonne ; 2015-....)</t>
+          <t>Cette thèse porte sur l’étude numérique et expérimentale de l’utilisation de métamatériaux pour le contrôle des ondes à la surface de l’eau. Dans la première partie, nous avons montré comment focaliser les ondes à la surface de l’eau en utilisant une analogie existant avec des métamatériaux électromagnétiques de permittivité diélectrique quasi nulle qualifiés de ”epsilon-near-zero”. Cela a permis d’adapter le motif de phase à l’interface circulaire entre deux domaines présentant un contraste élevé de profondeur d’eau. L’analogie a donné lieu a un comportement fortement non linéaire des ondes, qui se manifeste par la génération d’une cascade de points focaux associés à des sous-multiples de longueurs d’onde par rapport à l’onde incidente. La deuxième application envisagée des métamatériaux pour les ondes à la surface est de rendre invisible les défauts géométriques d’un guide pour un observateur situé en champ lointain. Dans le premier projet lié au cloaking, des guides d’onde possédant différentes sections transverses ont été analysés. L’efficacité de la bathymétrie, donnée par la cartographie conformationnelle, a été evaluée numériquement en termes de propriétés de diffusion. Dans le second projet, nous avons montré numériquement comment rendre invisible un cylindre qui est décalé de l’axe d’un guide d’onde. Utiliser une bathymétrie de cloaking lisse autour du cylindre permet de reduire de manière significative la dispersion dans une large gamme de frequences. Des experiences réalisées avec des bathymétries conformes aux simulations ont confirmé une augmentation de la transmission par rapport à un scenario de référence avec fond plat.</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  référent </t>
+          <t>Metamaterials for water waves</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Isabelle Gallagher, Luc Molinet, Pierre Raphael, Nader Masmoudi, Tarek Elgindi</t>
+          <t xml:space="preserve">  Examinateurs / Examinatrices </t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Isabelle Gallagher, Luc Molinet</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Sébastien Guenneau, Richard Porter</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -9316,7 +9314,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Centre Borelli (Gif-sur-Yvette, Essonne ; 2020-...)</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -9336,7 +9334,7 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>L'équation d'Euler à surface libre décrit l'évolution de l'interface séparant ... support du cut-off fréquentiel varie après la composition d'opérateurs para-différentiels.</t>
+          <t>Cette thèse porte sur l’étude numérique et expérimentale de l’utilisation ... par rapport à un scenario de référence avec fond plat.</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
@@ -9351,57 +9349,57 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Christine Huguet</t>
+          <t xml:space="preserve">  Fanny Faroux</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pierre Coustillas</t>
+          <t xml:space="preserve">  Claudine Eizykman, Dominique Fournier-willoughby</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Études anglaises</t>
+          <t xml:space="preserve">  Arts</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1990</t>
+          <t xml:space="preserve">  Inscription en doctorat le 25/11/2010</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Lille 3</t>
+          <t xml:space="preserve">  Paris 8</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Etude critique d'"Esther Waters", roman réaliste de George Moore, publié à Londres en 1984. La première partie de cette étude est consacrée à une comparaison des diverses versions de l'oeuvre. George Moore révisa plusieurs fois son texte et tenta même de l'adapter pour la scène à deux reprises. Les origines du roman et l'accueil critique du public de l'époque sont également décrits.</t>
+          <t xml:space="preserve">  ED Esthetique, sciences et technologie des Arts</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>George Moore : Esther Waters : étude critique</t>
+          <t xml:space="preserve">  Equipe de recherche </t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Une nouvelle forme du mauvais goût : l'oeuvre cinématographieque de John Waters 1969-2011.</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -9446,7 +9444,7 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>Etude critique d'"Esther Waters", roman réaliste de George Moore, publié ... et l'accueil critique du public de l'époque sont également décrits.</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -9461,12 +9459,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Gaston Vergara</t>
+          <t xml:space="preserve">  HOURIA ADLI</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Marius Tucsnak, Franck Sueur</t>
+          <t xml:space="preserve">  Gérard Perret</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9476,52 +9474,52 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques appliquées et calcul scientifique</t>
+          <t xml:space="preserve">  Sciences biologiques et fondamentales appliquées. Psychologie</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 20/10/2021</t>
+          <t xml:space="preserve">  Soutenance en 1999</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bordeaux</t>
+          <t xml:space="preserve">  Paris 13</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Cette thèse porte sur l'étude de certains modèles d'interaction fluide-structure dans des régimes d'eau peu profonde.En particulier, le manuscrit apporte des contributions sur les interactions entre un fluide et des corps rigides fixes et flottants.Dans une première partie, nous commençons par étudier la modélisation mathématique et les simulations d'une colonne d'eau oscillante. Dans ce dispositif, les vagues viennent du rivage, heurtent une marche basse, puis atteignent une chambre pour changer le volume d'air et entraîner une turbine qui produit de l'électricité.Dans cette première approche, une pression atmosphérique constante est supposée sur la surface libre du fluide à l'intérieur de la chambre.Les vagues régies par les équations unidimensionnelles des eaux peu profondes en présence de ce dispositif sont essentiellement reformulées sous la forme de deux problèmes de transmission : le premier est associé à une marche devant la structure, et le second est lié à l'interaction vagues-structure.D'autre part, en considérant la notion d'invariants de Riemann pour obtenir la version discrétisée des conditions de transmission, nous implémentons le schéma de Lax-Friedrichs pour obtenir des solutions numériques du modèle.De plus, en utilisant le concept de contrôlabilité du profil nodal, nous abordons le problème de la contrôlabilité frontière du système.Enfin, nous clôturons la première partie de la thèse en proposant un deuxième modèle non linéaire d'un dispositif à colonne d'eau oscillante impliquant une condition de transmission qui décrit un flux de pression d'air dépendant du temps à l'intérieur de la chambre, qui est obtenu en considérant l'équation de Bernoulli à surface libre et les propriétés relatives au régime des eaux peu profondes.Dans la deuxième partie, nous étudions quelques modèles décrivant le mouvement vertical d'un solide flottant à la surface libre d'un fluide visqueux peu profond.Cette structure rigide est supposée être contrôlée par une force verticale exercée via un actionneur.Nous commençons par prouver que le modèle est bien posé en considérant des espaces fonctionnels adéquats et des opérateurs convenables entre eux. En obtenant une forme explicite de la fonction de transfert associée, nous prouvons quelques résultats sur la stabilité input-output du système.Enfin, nous étudions une équation intégro-différentielle de type Cummins décrivant le mouvement d'une structure partiellement immergée flottant dans un fluide visqueux sur un domaine non-borné.Sur la base des résultats de stabilité de Matignon pour les systèmes fractionnaires, on trouve des solutions explicites du système, conduisant à une description precise de leur comportement en temps long.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Modelling, analysis and control of some water waves-rigid body interactions</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Mathématiques et informatique (Talence, Gironde ; 1991-....)</t>
+          <t>Les adipocytes expriment les 3 sous-types de recepteurs -adrenergiques (ar), 1-, 2- et 3-ar. Le 3-ar represente la population majoritaire dans les tissus adipeux brun (bat) et blanc (wat). Dans ces tissus, les hormones thyroidiennes (ht) augmentent la sensibilite -adrenergique aux catecholamines. L'amiodarone (am) est un anti-arythmique connu pour s'opposer aux effets des ht sur les -ar dans le cur. Dans notre travail nous avons etudie dans les 2 types de tissus adipeux : 1) les effets de la triiodothyronine (t3) sur l'expression et la fonction des -ar adipocytaires 2) l'interaction entre t3 et am. Dans le wat, nous avons montre que l'administration de la t3 a des rats euthyroidiens, augmente le nombre des 3-ar ainsi que la reponse et la sensibilite a l'agoniste 3-adrenergique. L'am n'antagonise pas ces effets de la t3. Dans le bat, la t3 diminue l'expression du 3-ar et ceci sans modifier l'activite de l'adenylyl cyclase en reponse a des agonistes 3-adrenergiques selectifs ou non. Cependant cette regulation negative du 3-ar est compensee par une augmentation de la quantite et de l'activite de gs et par une diminution de la quantite de gi. L'am s'oppose a la diminution du 3-ar induite par l'administration de la t3 a des rats thyroidectomises. A l'inverse de ce qui a ete observe dans le cur, l'am n'antagonise pas l'effet de la t3 sur l'expression du 1-ar. L'ensemble de ces resultats montre que : 1) la t3 module la transduction du message noradrenergique dans les tissus adipeux aux niveaux recepteur et post-recepteur 2) l'interaction entre t3 et am est tissu-specifique et depend du type du recepteur etudie. Nos travaux, en permettant une meilleure comprehension de la regulation des -ar adipocytaires contribuent a approfondir la physiologie du tissu adipeux. La connaissance de cette physiologie est indispensable a l'elaboration de nouvelles molecules pharmacologiques efficaces et denuees de toxicite dans le traitement de l'obesite.</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Regulation des recepteurs beta adrenergiques par les hormones thyroidiennes dans les tissus adipeux : interactions avec l'amiodarone</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marius Tucsnak, Franck Sueur, Yann Le Gorrec, Martin Gugat, Takéo Takahashi, Ludovick Gagnon, Hans J. Zwart</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Martin Gugat, Takéo Takahashi</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -9556,7 +9554,7 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Cette thèse porte sur l'étude de certains modèles d'interaction fluide-structure ... à une description precise de leur comportement en temps long.</t>
+          <t>Les adipocytes expriment les 3 sous-types de recepteurs -adrenergiques (ar), ... efficaces et denuees de toxicite dans le traitement de l'obesite.</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
@@ -9571,67 +9569,67 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Babette Christelle Tchonang</t>
+          <t xml:space="preserve">  Hugo Laval</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pierre-Yves Le Traon, Mounir Benkiran</t>
+          <t xml:space="preserve">  Sylvain Chambon, Guillaume Wantz</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Océan, Atmosphère, Climat</t>
+          <t xml:space="preserve">  Electronique</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 20/07/2021</t>
+          <t xml:space="preserve">  Inscription en doctorat le 25/10/2021</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Toulouse 3</t>
+          <t xml:space="preserve">  Bordeaux</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>La mission SWOT (Surface Water Ocean Topography) qui sera lancée en 2022 doit permettre grâce à un nouveau système d’altimétrie à large fauchée d’observer beaucoup plus finement la topographie des océans (SSH). Cette capacité nouvelle d'observation pose d'importantes questions pour les communautés scientifique et océanographie opérationnelle : quelles améliorations sur l’analyse et la prévision océanique peuvent être attendues en assimilant les observations SWOT dans des modèles à haute résolution ? Afin de répondre à cette question, nous avons mené pour la première fois un ensemble d’Observing System Simulation Experiments (OSSEs) dans un système global d’assimilation de données au 1/12°. Les observations utilisées sont : les observations de trois altimètres nadir, les observations de SWOT, les observations in-situ (température et salinité) et de la température de surface de la mer. Les premières OSSEs menées montrent que par rapport aux trois altimètres nadir, les observations SWOT ont un impact équivalent sur les données d’analyse de la SSH, la température et la salinité mais améliorent les courants océaniques en profondeur et en surface. La combinaison des trois altimètres nadir et de SWOT améliore les analyses en permettant une légère réduction des erreurs d’analyse de la SSH et des courants océaniques. Ces résultats bien qu’intéressants sous estiment cependant le potentiel de SWOT. Plusieurs pistes pouvant améliorer l’impact de SWOT pour l’analyse et la prévision océanique ont été identifiées, ce qui nous a conduit à recalibrer les OSSEs et à améliorer le schéma d’assimilation afin de mieux représenter les différentes échelles contenues dans les observations de SWOT. Ces améliorations ont permis la réalisation d’un deuxième ensemble d’OSSEs pour lesquelles les observations de SWOT se sont avérées très efficaces. Par rapport à l’expérience assimilant uniquement trois altimètres nadir, l'ajout des observations SWOT réduit ainsi globalement la variance des erreurs d'analyse et de prévision de la SSH et de la vitesse d'environ 30 % et 20 % respectivement. Cette amélioration est plus forte pour les échelles océaniques inférieures à 200 km avec une réduction de la variance d’erreur d’analyse de la SSH supérieure à 40% en dehors des régions tropicales. Cette thèse montre ainsi que les données SWOT pourront être assimilées dans le futur système global d'analyse et de prévision à haute résolution de Mercator Ocean et du Copernicus Marine Service, avec un impact positif à toutes les latitudes et des performances excellentes. Elle souligne aussi l’importance du design et de la calibration des méthodes d’OSSEs et l’apport des améliorations des schémas d’assimilation de données afin d’obtenir des résultats les plus réalistes possibles.</t>
+          <t xml:space="preserve">  École doctorale des sciences physiques et de l’ingénieur (Talence, Gironde ; 1995-....)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Contribution du satellite SWOT (Surface Water Ocean Topography) pour l'analyse et la prévision océanique</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences de l’univers, de l’environnement et de l’espace (Toulouse)</t>
+          <t>Ce projet fait partie du projet ANR WATER-PV dédié au développement d'encre colloïdales en base aqueuse pour la fabrication de cellules photovoltaïques organiques à forte efficacité. Dans la première partie de ce travail de thèse, nous étudierons le transport de charge à l'échelle de la nanoparticule unique puis dans des assemblages de nanoparticules, en utilisant des transistors organiques à effet de champ. Dans la seconde partie, des cellules solaires organiques seront fabriquées à partir des dispersions aqueuses et leur performances corrélées au transport de charge étudié précédemment.</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Contrôle de la morphologie de nanoparticules de semi-conducteurs organiques pour des cellules solaires photovoltaïques fabriquées par encres aqueuses.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guillaume Charria</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sabrina Speich, Pierre Brasseur</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -9641,7 +9639,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> ÉLectronique ORGAnique (ELORGA)</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -9666,7 +9664,7 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>La mission SWOT (Surface Water Ocean Topography) qui sera lancée ... de données afin d’obtenir des résultats les plus réalistes possibles.</t>
+          <t>Ce projet fait partie du projet ANR WATER-PV dédié au ... et leur performances corrélées au transport de charge étudié précédemment.</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
@@ -9681,12 +9679,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Hélène Giouse</t>
+          <t xml:space="preserve">  Thomas Meunier</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Marcel Arnould</t>
+          <t xml:space="preserve">  Xavier Carton, Desmond Barton</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9696,42 +9694,38 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Terre, océan, espace</t>
+          <t xml:space="preserve">  Océanographie physique</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1987</t>
+          <t xml:space="preserve">  Soutenance en 2011</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris, ENMP</t>
+          <t xml:space="preserve">  Brest</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>La presence d'argile dispersee dans les reservoirs de petrole greseux pose un probleme d'interpretation des diagraphies de resistivite a cause de leur conductivite de surface. On presente une revue bibliographique des phenomenes physiques mis en jeu au sein du reservoir et une analyse critique des formations existantes: on examine en particulier les formules de waxman et smits et celle du dual water. L'etude experimentale des proprietes petrophysiques des roches magasins met en evidence l'importance de la texture de l'argile. Une nouvelle equation "double conducteur-double effet" est proposee. Des mesures de resistivite sur echantillons partiellement satures en huile ont montre qu'il est necessaire de distinguer plusieurs domaines de saturation en eau avec des lois differentes</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Proprietes petrophysiques et resistivite des gres argileux petroliferes</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Missing value</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Missing value</t>
-        </is>
-      </c>
+          <t>Cette thèse traite de la dynamique des filaments d’upwelling. Trois mécanismes de formation sont étudiés au travers de deux études de processus et de données in-situ et télédétectées. L’impact de la topographie de fond sur la génération et le piégeage de filaments sont étudiés à l’aide d’un modèle shallow water à deux couches. Il est montré que la génération d’anomalie de vorticité potentielle piégée au dessus d’un promontoire induit une circulation permanente qui pince le front et l’entraîne loin au large. La sensibilité du processus à de nombreux paramètres est étudIée. L'interaction entre un jet de surface et un courant profond séparés par une couche intermédiaire sans anomalie de PV est également étudiée à l’aide d’un modèle shallow water. Une analyse de stabilité linéaire montre que ce système de courant est instable barocliniquement et qu’il existe toujours une longueur d’onde instable quelle que soit l’épaisseur de la couche intermédiaire. Il est montré que l’interaction entre des structures vorticales profondes et un front de surface stable peut générer des méandres et des filaments. Enfin, la dynamique des filaments d’upwelling au large de Cap Blanc (Mauritanie) est étudiée à l’aide de données in-situ et télédétectées. La présence de tourbillons issus du front du Cap Vert joue un rôle clé dans la formation des filaments. La topographie semble également jouer un rôle important, avec la formation d’un anticyclone au dessus d’un large promontoire. De manière générale, il est montré que les filaments d’upwelling résultent de l’interaction de structures vorticales et d’un front côtier.</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -9776,7 +9770,7 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>La presence d'argile dispersee dans les reservoirs de petrole greseux ... plusieurs domaines de saturation en eau avec des lois differentes</t>
+          <t>Cette thèse traite de la dynamique des filaments d’upwelling. Trois ... résultent de l’interaction de structures vorticales et d’un front côtier.</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
@@ -9791,72 +9785,72 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ribhu Misra</t>
+          <t xml:space="preserve">  Xavier Lhebrard</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sabine Carton</t>
+          <t xml:space="preserve">  François Bouchut</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences de Gestion</t>
+          <t xml:space="preserve">  Mathématiques</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 01/10/2023</t>
+          <t xml:space="preserve">  Soutenance le 27/04/2015</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Université Grenoble Alpes</t>
+          <t xml:space="preserve">  Paris Est</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>L'activité collaborative est 'le développement organique de projets partagés entre des personnes sur la base de la confiance et de relations personnelles' (Irving et al., 2020, p. 1123). Elle émerge avec le développement d'une communauté basée sur des relations de confiance, (Spinuzzi et al., 2019) dans un 'bien commun affectif' qui doit être activement nourri et gouverné (Waters-Lynch &amp; Duff, 2021). Les individus peuvent délibérément éviter de collaborer, par exemple lorsqu'ils manquent de motivation (Irving et al., 2020) ou lorsque les normes sociales ne soutiennent pas les interactions informelles (Fayard &amp; Weeks, 2007). Les affects se présentent comme des barrières à la collaboration (Dahlman 2023). Ce projet vise à explorer les liens entre affects, informalité au sein des activités collaboratives des CoPL. Pour cela, nous faisons appel aux notions théoriques de coprésence et d'organisationnalité.</t>
+          <t xml:space="preserve">  École doctorale Mathématiques, Sciences et Technologies de l'Information et de la Communication (Champs-sur-Marne, Seine-et-Marne ; 2015-....)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Les visages multiples de la collaboration au sein des communautés en ligne : le rôle des affects et de l'informel</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale sciences de gestion (Grenoble ; 1997-....)</t>
+          <t>Nous élaborons et analysons mathématiquement des approximations numériques par des méthodes de type volumes finis de solutions faibles de systèmes hyperboliques pour des écoulements géophysiques. Dans une première partie nous approchons les solutions du système de la magnétohydrodynamique en faible épaisseur avec un fond plat. Nous développons un schéma de type Godunov utilisant un solveur de Riemann approché défini via une méthode de relaxation. Des expressions explicites sont établies pour les vitesses de relaxation, qui permettent d'obtenir un schéma satisfaisant un ensemble de bonnes propriétés de consistance et de stabilité. Il conserve la masse, préserve la positivité de la hauteur de fluide, vérifie une inégalité d'entropie discrète, résout les discontinuités de contact même résonantes, donne des vitesses de propagations contrôlées par les données initiales. Des tests numériques sont effectués, validant les résultats théoriques énoncés. Dans une seconde partie nous approchons les solutions du système de la magnétohydrodynamique en faible épaisseur avec fond variable. Nous développons un schéma équilibre pour certains états stationnaires au repos. Nous utilisons la méthode de reconstruction hydrostatique, avec des états reconstruits pour la hauteur d'eau et les composantes du champ magnétique. Nous trouvons des termes correctifs pour les flux numériques par rapport au cadre habituel, et nous prouvons que le schéma obtenu préserve la positivité de la hauteur d'eau, vérifie une inégalité d'entropie semi-discrète et est consistant. Des tests numériques sont effectués, validant les résultats théoriques. Dans une troisième partie nous établissons la convergence d'un schéma cinétique avec reconstruction hydrostatique pour le système de Saint-Venant avec topographie. De nouvelles estimations sur le gradient des solutions approchées sont obtenues par l'analyse de la dissipation d'énergie. La convergence est obtenue par la méthode de compacité par compensation, sous des hypothèses sur les données initiales et la régularité du fond</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Analyse de quelques schémas numériques pour des problèmes de shallow water</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> François Bouchut, Jacques Sainte-Marie, Robert Eymard</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Christophe Berthon, Christian Peter Klingenberg</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -9886,7 +9880,7 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>L'activité collaborative est 'le développement organique de projets partagés entre ... nous faisons appel aux notions théoriques de coprésence et d'organisationnalité.</t>
+          <t>Nous élaborons et analysons mathématiquement des approximations numériques par des ... hypothèses sur les données initiales et la régularité du fond</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
@@ -9901,12 +9895,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Adina N. Lazar</t>
+          <t xml:space="preserve">  Seong Joon Byeon</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Anthony William Coleman</t>
+          <t xml:space="preserve">  Philippe Gourbesville</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9916,52 +9910,52 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Chimie supramoléculaire</t>
+          <t xml:space="preserve">  Automatique, traitement du signal et des images</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2006</t>
+          <t xml:space="preserve">  Soutenance le 28/11/2014</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Lyon 1</t>
+          <t xml:space="preserve">  Nice</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>The biological systems are incontestable models of supramoecular assemblies. A multidisciplinary structural approach on characteristics of natural or synthetic macromolecules as well as a study of intermolecular interactions controlling the self-assembly of these systems represents the object of this research work. The investigation of self-assemblies in solid state generated by water-soluble calixarenes with biolmolecules, such as amino acids, nucleic acids and other amine derivatives were charcaterised. Co-crystals of water-soluble calixarenes with drugs were further obtained, representing a great interest for pharmaceutical industry. A study of these complexes was also performed in suspension, leading to the formation of co-colloids, supramolecular systems of great importance in drug transport. Furthermore, the self-assembling of biological macromlecules on solid substrates reported to organised films specfic to each protein. These results would illustrate a potential application for medical diagnostic</t>
+          <t xml:space="preserve">  École doctorale Sciences et technologies de l'information et de la communication (Nice ; 1992-....)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>L'assemblage supramoléculaire : de l'échelle moléculaire à l'échelle macroscopique</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>La Corée est régulièrement touchée par des inondations et des sécheresses majeures qui affectent l’environnement naturel et impactent très sérieusement les activités économiques du pays. La mise en réseau des différentes ressources et infrastructures selon le concept des Smart Water Grid peut permettre d’atténuer l’impact de ces évènements. Gérer de manière dynamique les réservoirs, collecter les précipitations en milieu urbain à l’aide de réservoirs qui peuvent être utilisés pour stocker et limiter l’effet du ruissellement sont des mesures qui peuvent contribuer significativement à améliorer la gestion de l’eau. De même, les ressources de surfaces, souterraines et issues des unités de purification ou de désalinisation peuvent être combinées et associées pour répondre à la demande. Cette approche est celle du concept de Smart Water Grid qui est l’objet de ce travail de recherche. La majorité des sites urbains en Corée sont alimentés à partir de ressources superficielles. Dans le cas de l’île de Youngiongdo qui accueille l’aéroport international d’Incheon et toutes les installations aéroportuaires, l’alimentation en eau est réalisé à partir du fleuve Han et après traitement. Cependant, le système d'approvisionnement en eau est particulièrement vulnérable puisque l’eau est acheminée à partir de la ville d’Incheon située sur le littoral continental. Aucune ressource n’est mobilisée sur l’ile. Cette recherche a permis de préciser le concept de Smart Water Grid et de développer un modèle global permettant d’évaluer la disponibilité des différentes ressources à l’aide de différents modèles hydrologiques et hydrauliques. Cette approche a été appliquée sur le site de Youngiongdo.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Évaluation des besoins en eau et gestion raisonnée en milieu insulaire</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Philippe Gourbesville, Philippe Audra, Gye Woon Choi, Dongwook Kim, Seung Jin Maeng, Chang Soo Song</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -9996,7 +9990,7 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>The biological systems are incontestable models of supramoecular assemblies. A ... These results would illustrate a potential application for medical diagnostic</t>
+          <t>La Corée est régulièrement touchée par des inondations et des ... Cette approche a été appliquée sur le site de Youngiongdo.</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
@@ -10011,53 +10005,57 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thomas Meunier</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Xavier Carton, Desmond Barton</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Océanographie physique</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2011</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Brest</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Cette thèse traite de la dynamique des filaments d’upwelling. Trois mécanismes de formation sont étudiés au travers de deux études de processus et de données in-situ et télédétectées. L’impact de la topographie de fond sur la génération et le piégeage de filaments sont étudiés à l’aide d’un modèle shallow water à deux couches. Il est montré que la génération d’anomalie de vorticité potentielle piégée au dessus d’un promontoire induit une circulation permanente qui pince le front et l’entraîne loin au large. La sensibilité du processus à de nombreux paramètres est étudIée. L'interaction entre un jet de surface et un courant profond séparés par une couche intermédiaire sans anomalie de PV est également étudiée à l’aide d’un modèle shallow water. Une analyse de stabilité linéaire montre que ce système de courant est instable barocliniquement et qu’il existe toujours une longueur d’onde instable quelle que soit l’épaisseur de la couche intermédiaire. Il est montré que l’interaction entre des structures vorticales profondes et un front de surface stable peut générer des méandres et des filaments. Enfin, la dynamique des filaments d’upwelling au large de Cap Blanc (Mauritanie) est étudiée à l’aide de données in-situ et télédétectées. La présence de tourbillons issus du front du Cap Vert joue un rôle clé dans la formation des filaments. La topographie semble également jouer un rôle important, avec la formation d’un anticyclone au dessus d’un large promontoire. De manière générale, il est montré que les filaments d’upwelling résultent de l’interaction de structures vorticales et d’un front côtier.</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
+          <t>Missing value</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Missing value</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Ce travail est consacré au développement de schémas numériques pour approcher les solutions de modèles d'écoulement type “depth averaged”. Dans un premier temps, nous détaillons la construction d'approches Volumes Finis pour le système Shallow Water avec termes sources sur maillages non structurés. En se basant sur une reformulation appropriée des équations, nous mettons en place un schéma équilibré et préservant la positivité de la hauteur d'eau, et suggérons des extensions MUSCL adaptées. La méthode est capable de gérer des topographies irrégulières et exhibe de fortes propriétés de stabilité. L'inclusion des termes de friction fait l'objet d'une analyse poussée, aboutissant à l'établissement d'une propriété type “Asymptotic Preserving” à travers l'amélioration d'un autre récent schéma Volumes Finis. La seconde composante de cette étude concerne les méthodes Elements Finis type Galerkin discontinu. Certaines des idées avancées dans le contexte Volumes Finis sont employées pour aborder le système Shallow Water surmaillages triangulaires. Des résultats numériques sont exposés et la méthode se révèle bien adaptée à la description d'une large variété d'écoulements. Partant de ces observations nous proposons finalement d'exploiter ces caractéristiques pour étendre l'approche à une nouvelle famille d'équations type Green-Nadghi. Des validations numériques sont également proposées pour valider le modèle numérique.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Simulation numérique de modèles d'écoulement type "depth averaged" : une classe de schémas Volumes Finis et Galerkin discontinu</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -10102,7 +10100,7 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>Cette thèse traite de la dynamique des filaments d’upwelling. Trois ... résultent de l’interaction de structures vorticales et d’un front côtier.</t>
+          <t>Ce travail est consacré au développement de schémas numériques pour ... validations numériques sont également proposées pour valider le modèle numérique.</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
@@ -10117,12 +10115,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Yang Song</t>
+          <t xml:space="preserve">  Ludovic Zimmerlin</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Frédéric Skoczylas, Catherine A. Davy</t>
+          <t xml:space="preserve">  Bruno Péault, Albert D. Donnenberg</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10132,52 +10130,52 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Génie civil</t>
+          <t xml:space="preserve">  Thérapeutiques biotechnologiques</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 24/06/2014</t>
+          <t xml:space="preserve">  Soutenance en 2010</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ecole centrale de Lille</t>
+          <t xml:space="preserve">  Paris 7</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Dans le contexte du stockage profond des déchets radioactifs, il est important d'identifier l’hystérésis de saturation de la roche hôte, l'argilite du Callovo-Oxfordien, et sa capacité de scellement (en particulier, la porosité et la distribution de taille des pores). Tout d'abord, six cycles différents d'humidité relative sont destinés à évaluer l’hystérésis de saturation, qui n'est pas observée dans les cycles de faible amplitude. D'autre part, une nouvelle méthode est proposée pour la mesure de la porosité, qui utilise l'injection d'un gaz pour évaluer le volume des pores. Par rapport à la porosité par adsorption d'eau, l’injection de gaz fournit des porosités supérieures d’environ 5%. L'injection de gaz est également utilisée pour quantifier les isothermes de sorption-désorption, qui sont sensiblement différentes de celles obtenues par la méthode gravimétrique, avec un volume poreux accessible au gaz plus élevé pour une humidité relative &lt;43%. Enfin, par Microscopie Electronique à Balayage couplée à un Faisceau Ionique Focalisé (FIB/MEB), on reconstruit le réseau poreux 3D de l'argilite à partir de séries d'images 2D espacées de 10nm : la porosité et la distribution de taille des pores sont quantifiés jusqu’à 20nm, ainsi que l’orientation et l'anisotropie. Avec une résolution plus élevée (jusqu’à moins de 1nm), la Microscopie Electronique à Transmission (MET) montre une grande quantité de pores de l’ordre de quelques nm, situés entre les agrégats d'argile.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Water retention and fine microstructure of Bure argillite</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences pour l'ingénieur (Lille)</t>
+          <t>Le tissu adipeux blanc (WAT) représente une source de cellules souches adultes adaptée à la thérapie régénérative. Les cellules souches dérivées du tissu adipeux (ADSC) partagent de nombreuses caractéristiques des cellules souches mésenchymateuses (MSC) qui sont dérivées de la moelle osseuse. Les ADSC semblent résider dans l'adventice des vaisseaux sanguins, mais leur identité in vivo reste ambiguë. Les péricytes peuvent engendrer des MSC humaines, mais les ADSC semblent se développer à partir d'une population CD34+ distincte. Nous avons démontré que ces deux populations sont adipogéniques et avons identifié une population intermédiaire supputée être amplificatrice transitoire. Le WAT peut être utilisé comme produit de comblement pour la reconstruction mammaire et la rétention de volume à long terme peut être assurée par l'addition d'ADSC. La lipoinjection et l'utilisation des ADSC après tumorectomie restent cependant controversées, leurs effets sur la dormance cancéreuse étant inconnus. Nous avons caractérisé le tissu mammaire humain sain et tumoral et y avons identifié une population CD90+CD44+, que nous suspectons représenter les cellules souches mammaires et les cellules souches cancéreuses putatives du sein. Nous avons étudié les effets des ADSC sur des fractions cellulaires tumorigéniques du cancer du sein. Bien que les ADSC augmentent la tumorigénicité des cellules cancéreuses larges (actives), elles ne semblent pas modifier celle de cellules initialement quieséentes. La greffe de cellules adipeuses assistée par l'injection d'ADSC pourrait donc être employée pour la reconstruction mammaire, tant que les cellules cancéreuses en cycle ont été préalablement éliminées.</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Cellules souches multipotentes issues du tissu adipeux adulte humain : identification, isolement et application à la thérapie régénérative : interactions avec cellules initiatrices de tumeur isolées de carcinome mammaire</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Président / Présidente </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jean Talandier, Jean-Dominique Barnichon</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Luc Dormieux, Paul Sardini</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -10212,7 +10210,7 @@
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>Dans le contexte du stockage profond des déchets radioactifs, il ... de l’ordre de quelques nm, situés entre les agrégats d'argile.</t>
+          <t>Le tissu adipeux blanc (WAT) représente une source de cellules ... que les cellules cancéreuses en cycle ont été préalablement éliminées.</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
@@ -10227,12 +10225,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sutha Leenawat</t>
+          <t xml:space="preserve">  Andrea Gilberto Filippini</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Flora Blanchon</t>
+          <t xml:space="preserve">  Mario Ricchiuto, Philippe Bonneton</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10242,57 +10240,57 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Histoire de l'art et archéologie</t>
+          <t xml:space="preserve">  Mathématiques appliquées et calcul scientifique</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2001</t>
+          <t xml:space="preserve">  Soutenance le 14/12/2016</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 4</t>
+          <t xml:space="preserve">  Bordeaux</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Au XIX ième siècle, la Thai͏̈lande dut faire face à la menace des puissances occidentales. Le Souverain thai͏̈ décida d'ouvrir son pays à toutes les connaissance occidentales pouvant civiliser son royaume. La réforme sociale et culturelle provoqua la découverte de l'art pictural occidental sous la forme de tableaux, d'estampes, de photographies et d'illustrations de livres déclenchant en Thai͏̈lande un nouveau mouvement de l'art pictural occidental. Ce nouveau style de peinture fut créé par le moine peintre Inkhong représentant des scènes symboliques des vertus du Bouddha dans le monastère Borom Niwat (1836). Impressionnés par ce nouveau style de peinture, les peintres réalisèrent de telles peintures murales dans tous les monastères de cette époque. Le Wat Sommanat Viharn (1853), le Wat Pathum Wanarum (1861) et le Wat Rajapradit (1864) en sont les meilleurs exemples. Leurs nouvelles caractéristiques sont adaptées du modèle occidental : l'utilisation es trois dimensions, la perspective dans le paysage, l'introduction de volumes, de profondeurs et de tonalités sombres.</t>
+          <t xml:space="preserve">  École doctorale Mathématiques et informatique (Talence, Gironde ; 1991-....)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>La peinture murale de l'école de Bangkok pendant la seconde moitié du XIXeme siècle</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Over the last decades, there has been considerable attention in the accurate mathematical modeling and numerical simulations of free surface wave propagation in near-shore environments. A physical correct description of the large scale phenomena, which take place in the shallow water region, must account for strong nonlinear and dispersive effects, along with the interaction with complex topographies. First, a study on the behavior in nonlinear regime of different Boussinesq-type models is proposed, showing the advantage of using fully-nonlinear models with respect to weakly-nonlinear and weakly dispersive models (commonly employed). Secondly, a new flexible strategy for solving the fully-nonlinear and weakly-dispersive Green-Naghdi equations is presented, which allows to enhance an existing shallow water code by simply adding an algebraic term to the momentum balance and is particularly adapted for the use of hybrid techniques for wave breaking. Moreover, the first discretization of the Green-Naghdi equations on unstructured meshes is proposed via hybrid finite volume/ finite element schemes. Finally, the models and the methods developed in the thesis are deployed to study the physical problem of bore formation in convergent alluvial estuary, providing the first characterization of natural estuaries in terms of bore inception.</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Simulation des écoulements à la surface libre dans des environnements côtiers et estuariens : développement numérique et application sur des maillages non-structurés</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Mario Ricchiuto, Philippe Bonneton, David Lannes, Michel Benoit, Eleuterio F. Toro, Riadh Ata, Rodrigo Pedreros, Lisl Weynans</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Michel Benoit, Eleuterio F. Toro</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -10322,7 +10320,7 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>Au XIX ième siècle, la Thai͏̈lande dut faire face à ... paysage, l'introduction de volumes, de profondeurs et de tonalités sombres.</t>
+          <t>Over the last decades, there has been considerable attention in ... first characterization of natural estuaries in terms of bore inception.</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
@@ -10337,12 +10335,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Benoît Abadie</t>
+          <t xml:space="preserve">  Bahar Salavati</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  John-Joseph Armitage</t>
+          <t xml:space="preserve">  Daniel Schertzer</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10352,42 +10350,42 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Hydrogéologie</t>
+          <t xml:space="preserve">  Sciences et Techniques de l'Environnement</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 04/03/2024</t>
+          <t xml:space="preserve">  Inscription en doctorat le 01/10/2011</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sorbonne université</t>
+          <t xml:space="preserve">  Paris Est</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Modélisation de l'écoulement de l'eau à l'échelle d'un petit bassin versant et son effet sur l'évolution du paysage.</t>
+          <t xml:space="preserve">  SIE - Sciences, Ingénierie et Environnement</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Hidden water and landscapr erosion: Understanding the link between storage, release, and catastrophic erosion</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Géosciences, ressources naturelles et environnement (Paris ; 2000-....)</t>
+          <t>Managing water in urban areas has become a major concern due to increase of (peri-)urban population, continuous increase of pollution and increased exposure to climatic changes. In managing stormwater and wastewater and integrating the management train within urban green assets there exists a variety of modelling and planning tools that also remain very fragmented and still require deeper understanding of the multi-scale dynamics and interactions of urban water cycle processes. In urban modelling there are several software packages in public domain, like TREX to simulate the surface processes, SWMM to simulate the drainage and VS2DT to simulate the sub-surface processes. However there are significant gaps such as the integration of SUDS and FR elements, infiltration and interaction with urban ground water infrastructure, are just a few areas which should be further improved. With this prospective, Multi-Hydro has been developed at Leesu, to act as a catalyser in identifying gaps in exiting analytical and modelling tools, developing gluing routines that enable modelling of interactions of urban water systems components for the next generation of urban water systems'. Multi-Hydro is currently implemented at 10 m resolution on several case-study watersheds in Paris area. The input/output data of Multi-Hydro are in GIS format. Ongoing work demonstrated that hydrological responses to rainfall strongly depend on local characteristics of soil, such as water storage capacity and infiltration rates. The type and density of vegetation cover and land-use characteristics are also important to understand hydrologic response to rainfall. The goal of this PhD thesis is to increase knowledge on infiltration as one of hydrological aspect that influenced by land use change becomes an essential aspect to be considered in the (peri-)urban planning development. The measurement of the infiltration process and quantification of its spatial variability is difficult mainly due to inherent differences with the measurement methods and the scales at which they are applied. The PhD fellow will develop an effective method for estimating the distribution of the infiltration zones based on spatial analysis using Multi-Hydro and GIS technology. This will help to reveal linkage between infiltrations measured at the point or plot scales and the infiltration and runoff processes at watershed scale. Specific tasks are to:  perform literature review;  perform point scale infiltration measurements for selected types of land use within the case-study watersheds;  investigate the interactions between land-use type and infiltration measurements;  develop a schematisation procedure taking into account spatial differences in infiltration and land use;  develop an effective method for estimating the distribution of the infiltration zones based on spatial analysis using GIS technology;  use Multi-Hydro to quantify the effects of the spatial variability of infiltration rates on computed runoffs;  explore promising use of infiltration zone mapping for the (peri-)urban planning development.</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>APPLICATION OF DIFFERENT SPATIAL ANALYSIS ON DEVELOPING INFILTRATION ZONE MAPPING</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -10407,7 +10405,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Equipe SIE</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -10432,7 +10430,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Modélisation de l'écoulement de l'eau à l'échelle d'un petit bassin versant et son effet sur l'évolution du paysage.</t>
+          <t>Managing water in urban areas has become a major concern ... use of infiltration zone mapping for the (peri-)urban planning development.</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -10447,12 +10445,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Tomasz Bobinski</t>
+          <t xml:space="preserve">  Saied Dardour</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Agnès Maurel, Philippe Petitjeans, Vincent Pagneux</t>
+          <t xml:space="preserve">  Françoise Charbit, Philippe Moulin</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10462,42 +10460,42 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Dynamique des fluides et des transferts</t>
+          <t xml:space="preserve">  Sciences de l'environnement</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 27/06/2016</t>
+          <t xml:space="preserve">  Soutenance en 2007</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 6</t>
+          <t xml:space="preserve">  Aix-Marseille 3</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Cette thèse porte sur l’étude numérique et expérimentale de l’utilisation de métamatériaux pour le contrôle des ondes à la surface de l’eau. Dans la première partie, nous avons montré comment focaliser les ondes à la surface de l’eau en utilisant une analogie existant avec des métamatériaux électromagnétiques de permittivité diélectrique quasi nulle qualifiés de ”epsilon-near-zero”. Cela a permis d’adapter le motif de phase à l’interface circulaire entre deux domaines présentant un contraste élevé de profondeur d’eau. L’analogie a donné lieu a un comportement fortement non linéaire des ondes, qui se manifeste par la génération d’une cascade de points focaux associés à des sous-multiples de longueurs d’onde par rapport à l’onde incidente. La deuxième application envisagée des métamatériaux pour les ondes à la surface est de rendre invisible les défauts géométriques d’un guide pour un observateur situé en champ lointain. Dans le premier projet lié au cloaking, des guides d’onde possédant différentes sections transverses ont été analysés. L’efficacité de la bathymétrie, donnée par la cartographie conformationnelle, a été evaluée numériquement en termes de propriétés de diffusion. Dans le second projet, nous avons montré numériquement comment rendre invisible un cylindre qui est décalé de l’axe d’un guide d’onde. Utiliser une bathymétrie de cloaking lisse autour du cylindre permet de reduire de manière significative la dispersion dans une large gamme de frequences. Des experiences réalisées avec des bathymétries conformes aux simulations ont confirmé une augmentation de la transmission par rapport à un scenario de référence avec fond plat.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Metamaterials for water waves</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences mécaniques, acoustique, électronique et robotique de Paris (2000-....)</t>
+          <t>Ce travail porte sur la modélisation, la simulation et l'optimisation du couplage entre les réacteurs nucléaires, de type réacteur à eau sous pression et réacteur haute température modulaire, et les procédés de dessalement de type distillation à effets multiples et osmose inverse. Les concepts de réacteurs considérés dans cette étude sont PWR (Pressurized Water Reactor) et GTMHR (Gas Turbine Modular Helium Reactor). Les procédés de dessalement retenus sont MED (Multi Effect Distillation) et SWRO (Sea Water Reverse Osmosis). Ces configurations couplées n'ont pas fait l'objet d'études poussées jusqu'à présent. Un outil logiciel EXCELEES de modélisation thermodynamique des systèmes couplés, basé sur le solveur d'équations algébriques EES (Engineering Equation Solver), a été développé. Des modèles des systèmes de conversion d'énergie et des procédés de dessalement membranaires et à base de distillation ont été développés. Basés sur le premier et le deuxième principes de la thermodynamique, ces modèles ont permis de déterminer le point de fonctionnement optimal des systèmes couplés. L'analyse thermodynamique a été complétée par une première évaluation économique. Basée sur l'utilisation de l'outil logiciel DEEP de l'Agence Internationale à l'Energie Atomique, cette évaluation a confirmé l'intérêt d'utiliser ce type de réacteurs pour le dessalement. Un outil de modélisation des procédés thermiques de dessalement en régime dynamique a été également développé. Cet outil a été appliqué à l'étude de la dynamique d'une installation existante et a donné des résultats satisfaisants. Une première vérification de sûreté a été enfin effectuée. Les transitoires pouvant mettre en péril le système intégré ont été identifiés. Un ensemble de mesures visant à consolider la sûreté ont été proposés.</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Contribution à l'optimisation du couplage des réacteurs nucléaires aux procédés de dessalement</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Examinateurs / Examinatrices </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -10507,7 +10505,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sébastien Guenneau, Richard Porter</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -10542,7 +10540,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Cette thèse porte sur l’étude numérique et expérimentale de l’utilisation ... par rapport à un scenario de référence avec fond plat.</t>
+          <t>Ce travail porte sur la modélisation, la simulation et l'optimisation ... de mesures visant à consolider la sûreté ont été proposés.</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -10557,57 +10555,57 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mohamed Hédi Gadhoumi</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Alain Poisson</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Terre, océan, espace</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1990</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 6</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Dans ces travaux, nous avons etabli les relations qui regissent: 1) la salinite pratique, le rapport de conductivite et la temperature; 2) la masse volumique, la salinite pratique et la temperature pour les eaux de mer de fortes salinites (voisine de 50) obtenues a partir de dilutions d'eau de mer normale (standard sea water) concentree. Les resultats de cette these permettent ainsi de determiner la salinite pratique et la masse volumique pour les eaux qui sont en dehors de l'echelle de la salinite pratique (eps 78) et de l'equation d'etat (eos 80), a partir des mesures conductimetriques par rapport a l'eau de mer normale de reference (standard sea water). Les ecarts de masse volumique entre les eaux de mer de forte salinite (canal de suez, golfe de suez et golfe arabo-persique) et l'eau de mer normale de reference ont ete evalues. Ces ecarts serviront a etablir les tables de corrections de la salinite et de la masse volumique inherents a la variation de la composition chimique entre ces eaux et l'eau de mer normale de reference. De plus, l'estimation des ecarts de masse volumique des eaux de ces regions permettent au modelisateur dynamicien, au nord de l'ocean indien, ou a une echelle plus reduite a la mer rouge, au golfe arabo-persique ainsi que dans les regions qui leurs sont contigues, d'avoir quantitativement les effets de ces ecarts a la reference en masse volumique: sur la densite, sur les profondeurs de melange et, implicitement, sur la sensibilite de leur modele vis-a-vis des ecarts de densite entre la densite definie a partir des mesures de routine (relativement a la composition chimique de l'eau de mer normale de reference), et celle mesuree directement sur les eaux de mer de ces regions</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Extension de l'echelle de salinite pratique (1978) et de l'equation d'etat (1980) pour les eaux de mer de fortes salinites; application aux eaux de mer, aux eaux du canal de suez, du golfe de suez et du golfe arabo-persique</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Hybrid systems comprising cobalt complexes for highly efficient electrocatalytic reduction of CO² in water.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -10652,7 +10650,7 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>Dans ces travaux, nous avons etabli les relations qui regissent: ... mesuree directement sur les eaux de mer de ces regions</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
@@ -10667,57 +10665,57 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Isabelle Coste-Villena</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jean-Michel Pinon</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Médecine. Biologie parasitaire</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2004</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Reims</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Waterborne parasitic diseases are well identified, but they are few evaluated at present in France. Detection of main parasites, as Cryptosporidium oocysts and Giardia cysts, in water is well standardized. Because convergent problematic between oocysts of Cryptosporidium and Toxoplasma gondii we evaluate its implication in waterborne parasitic risks. After an experimental evaluation of risk, we describe the strategy to rapid detection of T. Gondii oocysts in water. We developed a methodology used for Cryptosporidium and Giardia detection: filtration of water samples, purification and elution of parasites, detection by bioassay and molecular biology. We then applied and validated this method in experimental and environmental conditions. We report our experience of 3 years survey in Champagne-Ardenne Region. Toxoplasmic DNA was present in 5% of samples. We purpose techniques assays for development of sentry detection method valuable in environmental conditions by sanitary authorities.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Risques environnementaux parasitaires d'origine hydrique et incidence de Toxoplasma Gondii</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Le but de ce travail est de construire une nouvelle classe de schémas de type Godunov préservant toutes les solutions stationnaires du système de Saint-Venant avec terme source de topographie. Dans un premier temps, nous rappelons des éléments sur les propriétés et l’algèbre du modèle étudié. Ensuite, nous dérivons deux schémas de type Godunov. Le premier schéma préserve la positivé de la hauteur d’eau, capture toutes les solutions stationnaires et traite les transitions entre zones mouillées et zones sèches. Cependant, ce schéma capture également des chocs stationnaires non entropiques. Le deuxième schéma développé permet de corriger le défaut d’entropie. Ce schéma préserve la positivé de la hauteur d’eau et capture toutes les solutions stationnaires sans transition de régime entre écoulement fluvial et écoulement torrentiel. De plus, ce second schéma ne capture pas les chocs stationnaires non entropiques. Des critères de stabilité faible entropique ont été établis pour les deux schémas. Enfin, nous proposons une extension du second ordre de type MUSCL qui préserve tous les états stationnaires et des expériences numériques sont présentées afin de confirmer nos propos.</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Contributions aux schémas préservant des solutions stationnaires à vitesse non nulle pour les équations shallow-water.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -10762,7 +10760,7 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>Waterborne parasitic diseases are well identified, but they are few ... sentry detection method valuable in environmental conditions by sanitary authorities.</t>
+          <t>Le but de ce travail est de construire une nouvelle ... des expériences numériques sont présentées afin de confirmer nos propos.</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
@@ -10777,12 +10775,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Alexandre Lillo</t>
+          <t xml:space="preserve">  Hui Zhu</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Catherine Ribot, Jamie Benidickson</t>
+          <t xml:space="preserve">  Nicolas Burq, Thomas Alazard</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10792,57 +10790,57 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Droit Public</t>
+          <t xml:space="preserve">  Mathématiques fondamentales</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance le 28/08/2020</t>
+          <t xml:space="preserve">  Soutenance le 27/03/2019</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Montpellier en cotutelle avec Université d'Ottawa. Faculté de droit</t>
+          <t xml:space="preserve">  Université Paris-Saclay (ComUE)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Bien que le Canada soit perçu comme un pays riche en eau, ce statut privilégié doit être démystifié. Les problématiques à cet égard se multiplient : inondations printanières dans la vallée de l’Outaouais, sécheresses dans le sud des Prairies, phénomènes d’eutrophisation dans les Grands Lacs, contaminations du fleuve Saint-Laurent, qualité désastreuse de l’eau dans les réserves autochtones, etc. Les enjeux relatifs à l’eau ont des impacts de plus en plus larges. Leurs étendues géographiques s’accroissent et leurs répercussions sur l’environnement humain et non-humain s’aggravent. Il n’y a plus de doutes ; le Canada fait désormais face à une crise émergente de l’eau.D’un point de vue juridique, ces problématiques génèrent des défis extrêmement complexes. En effet, puisque chacun des ordres de gouvernements à une capacité d’agir à l’égard des questions relatives à l’eau, les mécanismes de gestion sont caractérisés par une nature profondément interjuridictionnelle. Il en résulte des initiatives sectorielles, une action fragmentée et un manque important d’harmonisation entre les acteurs de l’eau. Si le droit canadien de l’eau s’est largement développé à partir des années soixante, les outils législatifs, réglementaires et politiques demeurent multiples et dispersés. De ce fait, le Canada n’est toujours pas équipé pour pleinement répondre aux enjeux contemporains de l’eau et aux processus de gestion qu’ils requièrent. En raison de ce constat, des appels répétés en faveur d’une stratégie nationale de l’eau au Canada ont été formulés par la doctrine et les experts en la matière.Face à la nécessité de tenir compte des enjeux canadiens de l’eau, notre thèse cherche à déterminer de quelles manières il est possible de concilier la nécessaire mise en œuvre d’une stratégie nationale de l’eau au Canada avec les spécificités de l’environnement hydrosocial en présence. L’analyse conceptuelle de la gestion de l’eau et l’étude contextuelle de l’environnement hydrosocial canadien révèlent certains obstacles à la mise en œuvre d’une stratégie nationale : quelle échelle, quels agents et quelle logique de régulation devraient articuler la construction juridique d’un cadre de gestion de l’eau au Canada ? Afin de répondre à ces interrogations, nous avons élaboré douze principes directeurs visant à poser les pierres fondatrices d’un régime juridique de l’eau adapté aux réalités canadiennes. À l’heure où les réflexions gouvernementales sur une future agence canadienne de l’eau sont engagées, notre thèse préconise un modèle institutionnel pancanadien fondé sur l’échelle du bassin versant, issu de la coopération intergouvernementale et maintenu par une collaboration entre les acteurs de l’eau représentative des dynamiques territoriales.</t>
+          <t xml:space="preserve">  École doctorale de mathématiques Hadamard (Orsay, Essonne ; 2015-....)</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>The Shape of Water : La construction d’un cadre juridique de gestion de l’eau au Canada</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Droit et Science politique (Montpellier ; 2010-....)</t>
+          <t>Dans cette thèse, nous étudions les théories étroitement liées du contrôle, de la stabilisation et de la propagation des singularités, pour des équations aux dérivées partielles dispersives linéaires et non-linéaires. Les résultats principaux proviennent des travaux de l’auteur:[1] Zhu, H., 2016. Stabilization of damped waves on spheres and Zoll surfaces of revolution. ESAIM : Control, Optimisation and Calculus of Variations (ESAIM: COCV), à paraître.[2] Zhu, H., 2017. Control of three dimensional water waves. arXiv preprint arXiv:1712.06130.[3] Zhu, H., 2018. Propagation of singularities for gravity-capillary water waves. arXiv preprint arXiv:1810.09339.Dans [1], nous avons étudié la stabilisation des ondes amorties sur les surfaces de révolution de Zoll. Nous avons donné un exemple où la région d’amortissement est à la limite de la condition du contrôle géométrique, alors que les ondes amorties présentent une décroissance exponentielle uniforme de l’énergie. Cet exemple généralise un résultat de Lebeau. Dans [2], nous avons étudié la contrôlabilité du système des ondes de surface avec tension superficielle. Nous avons démontré, en dimensions arbitraires, la contrôlabilité exacte pour des petites données spatialement périodiques à condition du contrôle géométriques. Ce résultat généralise le travail de Alazard, Baldi et Han-Kwan en dimension deux. Dans [3], nous avons étudié la propagation des singularités pour des ondes de surface avec tension superficielle. Nous avons défini le front d’onde quasi-homogène, généralisant le front d’onde de Hörmander et le front d’onde homogène de Nakamura et démontré des résultats de propagation des fronts d’onde quasi-homogènes par le système des ondes de surface avec tension superficielle. Comme corollaires, nous avons obtenu des effets régularisants locaux et micro-locaux pour les données initiales présentant une décroissance spatiale suffisante.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Contrôle, stabilisation et propagation des singularités pour des EDP dispersives</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Examinateurs / Examinatrices </t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Florian Linditch, Geneviève Parent</t>
+          <t xml:space="preserve"> Nicolas Burq, Thomas Alazard, David Lannes, Jean-Marc Delort, Daniel Tătaru, Gigliola Staffilani, Frédéric Rousset</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Jean-Marc Delort, Daniel Tătaru</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -10867,12 +10865,12 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Université Paris-Sud (1970-2019)</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>Bien que le Canada soit perçu comme un pays riche ... collaboration entre les acteurs de l’eau représentative des dynamiques territoriales.</t>
+          <t>Dans cette thèse, nous étudions les théories étroitement liées du ... micro-locaux pour les données initiales présentant une décroissance spatiale suffisante.</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
@@ -10887,57 +10885,57 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laura Gouriou</t>
+          <t xml:space="preserve">  Mengdie Cai</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Géraldine Gouhier</t>
+          <t xml:space="preserve">  Andrei Khodakov, Vitaly Ordomsky</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Chimie</t>
+          <t xml:space="preserve">  Molécules et matière condensée</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 28/09/2022</t>
+          <t xml:space="preserve">  Soutenance le 09/10/2015</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Normandie</t>
+          <t xml:space="preserve">  Lille 1</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t xml:space="preserve">  École doctorale Sciences de la matière, du rayonnement et de l'environnement (Lille ; 1992-....)</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>New Ferromagnetic nanoparticles for water remediation</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale normande de chimie (Caen)</t>
+          <t>Des nouveaux catalyseurs bi-fonctionnels Cu-ZnO-Al2O3/ZSM-5 pour la synthèse directe du diméthyle éther (DME) à partir du gaz de synthèse ont été préparés par mélange physique, et ensuite caractérisés et évalués dans un réacteur à lit fixe. L'activité catalytique dans la synthèse de DME a été attribuée à des sites métalliques de cuivre et à l’acidité de la zéolite. Les cristaux de zéolite de petite taille favorisent une activité plus importante. La désactivation du catalyseur est fortement influencée par les sites acides localisés à la surface externe de la zéolite. Une acidité importante de la surface externe de ZSM-5 conduit à une désactivation rapide du catalyseur. Le frittage et la migration du cuivre font partie des mécanismes prédominants de la désactivation. Les sites acides à la surface de la zéolite ont été sélectivement neutralisés par silylation avec le tétraéthyle orthosilicate. Par conséquent, la stabilité du catalyseur et la productivité en DME ont été significativement améliorées. Le dioxyde de carbone est un produit indésirable de la synthèse directe du DME. Il est formé par la réaction Water-Gas-Shift. La promotion des catalyseurs Cu-Zn-Al /HZSM-5 avec de l’étain permet de modérer la réaction Water-Gas-Shift et d’augmenter la sélectivité en DME.</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Conception de nouveaux catalyseurs hybrides pour la synthèse directe du diméthyle éther à partir du gaz de synthèse</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -10967,7 +10965,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Université de Rouen Normandie (1966-....)</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -10982,7 +10980,7 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Des nouveaux catalyseurs bi-fonctionnels Cu-ZnO-Al2O3/ZSM-5 pour la synthèse directe du ... modérer la réaction Water-Gas-Shift et d’augmenter la sélectivité en DME.</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
@@ -10997,12 +10995,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Arunabha Kundu</t>
+          <t xml:space="preserve">  Randall Cherry</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Henri Delmas</t>
+          <t xml:space="preserve">  Geneviève Fabre</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11012,42 +11010,42 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Génie des procédés et environnement</t>
+          <t xml:space="preserve">  Lettres, sciences humaines et sociales</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 2004</t>
+          <t xml:space="preserve">  Soutenance en 2002</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Toulouse, INPT</t>
+          <t xml:space="preserve">  Paris 7</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Two investigations on three phase reactors are reported : liquid flow maldistribution and partial wetting of the catalyst in trickle bed reactors, and effects of adding small amounts of organic phase on gas to aqueous phase mass transfer in a bubble column. Radial distribution of the liquid flow is investigated in a 0. 152 m in diameter fixed bed of 5 successive catalysts of various shape and size, and various trickling liquids (water, water+additives, kerosene). A model has been derived based on force balance on each fluid phase and compared to experimental results including previous works. This model was extended to partial wetting, characterised by tracer analysis. In bubble column, oxygen to water mass transer was shown to be highly influenced by adding only 1% oil fraction. 7 organic liquids were used showing more than 300% mass transfer enhancement with alkanes and conversely 50% reduction with more water soluble components, these effects being mainly relatde to bubble size.</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Réacteurs à trois phases : A, hydrodynamique et mouillage partiel en lit fixe : B, absorption en colonne à bulles gaz-liquide-liquide</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Ce travail étudie la façon dont la chanteuse noire américaine, Ethel Waters (18961977), s'est forgée une carrière remarquable avec, comme toile de fond, le développement de la mouvance de négritude basée à Harlem et connue sous le nom de la "Renaissance de Harlem". Cette période, qui se situe entre 1920 et 1935, voit un engouement pour le blues qui anime la carrière d'Ethel Waters, en tant que vedette de disques chez Black Swan. Alors que la chanteuse trouve un public laudatif auprès de la masse ouvrière noire, les intellectuels et ténors de la mouvance de négritude, en revanche, dénient totalement l'importance de sa création musicale. Ce travail cherche à faire valoir sa musique face à ce manque de compréhension. Cette étude s'appuie sur des entretiens personnels avec des chanteurs et musicologues, l'autobiographie de l'artiste, mémoires de musiciens contemporains, et articles recueillis des journaux noirs de l'époque. Ce matériau permet de dégager la véritable dimension de sa légende en tant que Reine du Blues, face donc à une élite noire qui restait muette à son sujet. Après avoir tracé l'essor de la carrière d'Ethel Waters, il s'agit de décrire son apogée, atteinte dans les années trente -- au moment même où la Renaissance de Harlem se trouve en déclin -- lorsque la chanteuse se transforme en comédienne à Broadway. Constatant qu'Ethel Waters est de nos jours tombée dans l'oubli, il s'agit enfin de proposer des hypothèses pour expliquer son éclipse, à savoir: une critique qui, se basant sur des définitions génériques instables, n'arrive pas à cantonner l'artiste; et la persistance d'une certaine rancune chez la critique noire américaine, qui insiste sur le fait qu'Ethel Waters aurait "trahi" ses racines dans la communauté noire, en adoptant une personnalité et une musique "blanches", afin d'élargir son public. Ces résultats font apparaître que la dépréciation de la réputation d'E. Waters est due autant à l'ignorance de sa production, qui est restée longtemps inédite, qu'à la propagation de certains mythes à son égard.</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Mythologie de la voix noire : Ethel Waters et la renaissance de Harlem</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -11092,7 +11090,7 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Two investigations on three phase reactors are reported : liquid ... soluble components, these effects being mainly relatde to bubble size.</t>
+          <t>Ce travail étudie la façon dont la chanteuse noire américaine, ... inédite, qu'à la propagation de certains mythes à son égard.</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -11107,62 +11105,62 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Marc Duretz</t>
+          <t xml:space="preserve">  Felix Margirier</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  André Rist</t>
+          <t xml:space="preserve">  Laurent Mortier</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Thèse de doctorat</t>
+          <t xml:space="preserve">  Projet de thèse</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Métallurgie</t>
+          <t xml:space="preserve">  Océanographie physique</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1989</t>
+          <t xml:space="preserve">  Soutenance en 2018</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Châtenay-Malabry, Ecole centrale de Paris</t>
+          <t xml:space="preserve">  Sorbonne université</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Les performances du haut fourneau à plomb water-jacket sont limitées principalement par le rendement du transfert thermique du gaz vers la charge, et sont notamment très sensibles aux modalités de la combustion du coke. Or, des investigations menées dans les fours de la société METALEUROP (ex-PENARROYA) ont révélé des fluctuations incontrôlées de leur fonctionnement thermique. Nous cherchons à comprendre ces phénomènes pour aider à les maitriser. Nous mettons d'abord en évidence les régimes de diffusion qui gouvernent la gazéification d'un grain de coke dans le four à plomb, et qui font du calibre du coke son critère primordial de qualité. Puis, par des expériences de combustion à échelle 1, nous dressons les cartes de compositions du gaz et de température dans le massif de coke irrigue par une tuyère du Water-Jacket. Nous précisons le rôle des paramètres géométriques et aérodynamiques, dont l'influence masque couramment celle de la réactivité chimique du coke. Enfin, nous examinons par une simulation numérique les relations entre la combustion du coke et le transfert thermique dans le four a plomb. Nous analysons l'influence des caractéristiques du coke et des paramètres de conduite de la marche industrielle sur les performances du four (productivité, mise au mille, températures des produits de coulée et du gaz de gueulard). Nos conclusions concernent les critères et tests de qualité du coke, et la conduite du Water-Jacket. À cote du test actuel de réactivité du coke, nous proposons un test granulométrique et de résistance mécanique pour juger l'opportunité du criblage. Concernant la conduite du four, nous suggérons plusieurs voies d'amélioration: guidage des paramètres opératoires par le suivi en continu, chargement du coke tirant parti de la ségrégation granulométrique, réglage de la répartition du vent aux tuyères</t>
+          <t xml:space="preserve">  École doctorale Sciences de l'environnement d'Île-de-France (Paris ; 1992-....)</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>La combustion dans le four water-jacket à plomb : influence des caractéristiques du coke et des paramètres de conduite</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>L¿explosion du nombre d¿observations in-situ collectées en Mer Méditerrranée au cours des 15 dernières années offre de nouveaux moyens d¿analyse et de suivi des masses d¿eaux. L¿accent à été mis sur la Méditerranée Nord-Occidentale, siège du phénomène dit de convection profonde et plus intensément observée. Notemment grâce aux observations à hautes résolutions temporelles et spatiales de gliders, un réchauffement et une salinification intense des Eaux Levantines Intermédiaires (LIW) à été mis en évidence. Des indicateurs de variabilité de la LIW ont été construits et sa circulation à été détaillée. En l¿absence de convection profonde depuis l¿hiver 2012/2013, le bassin a été envahi par ces eaux non diluées dans les eaux profondes et un nouvel état du bassin est observé. Afin de mieux comprendre comment la convection profonde régule la Méditerranée Occidentale, une étude de processus a été effectuée et les importances relatives du préconditionnement océanique et des flux atmosphériques ont été évaluées afin de discuter la possibilité d¿évènements convectifs profonds futurs. Pour la première fois, les propriétés physiques et biogéochimiques des plumes convectives ont été caractérisées et s¿inscrivent dans le nouveau paradigme de la convection profonde proposé.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Study of the physical and biogeochemical variability of water masses in the Mediterranean Sea</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Examinateurs / Examinatrices </t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -11202,7 +11200,7 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>Les performances du haut fourneau à plomb water-jacket sont limitées ... ségrégation granulométrique, réglage de la répartition du vent aux tuyères</t>
+          <t>L¿explosion du nombre d¿observations in-situ collectées en Mer Méditerrranée au ... s¿inscrivent dans le nouveau paradigme de la convection profonde proposé.</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
@@ -11217,57 +11215,57 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Vrinda Sharma</t>
+          <t xml:space="preserve">  Gilles Darblade</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Karen Macours</t>
+          <t xml:space="preserve">  Alain-Yves Leroux</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences economiques</t>
+          <t xml:space="preserve">  Mathématiques appliquées</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 23/10/2023</t>
+          <t xml:space="preserve">  Soutenance en 1997</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Paris 1</t>
+          <t xml:space="preserve">  Bordeaux 1</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Climate change and the economics of water</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale d'Économie (Paris ; 2004-....)</t>
+          <t>Les modeles shallow water multicouches sont des approximations adiabatiques des equations navier stokes. L'integration de ces modeles est generalement effectuee par des schemas aux differences finies ou des formulations elements finis. Ils comportent de serieuses difficultes mathematiques dues au couplage entre les couches et a l'ecriture non conservative des equations. Nous proposons, pour les modeles shallow water multicouches, une nouvelle methode d'integration numerique construite grace a des techniques de l'hyperbolique non lineaire. Nous abordons ensuite, pour des modeles shallow water, la resolution des conditions aux limites de frontieres ouvertes. Nous proposons une nouvelle methode: les couches parfaitement absorbantes. Nous appliquons cette methode a un modele shallow water linearise autour d'un etat quelconque et obtenons des resultats preliminaires prometteurs.</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Méthodes numériques et conditions aux limites pour les modèles Shallow-Water multicouches</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -11312,7 +11310,7 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>Missing Value</t>
+          <t>Les modeles shallow water multicouches sont des approximations adiabatiques des ... autour d'un etat quelconque et obtenons des resultats preliminaires prometteurs.</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
@@ -11327,12 +11325,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Frédéric Bosseur</t>
+          <t xml:space="preserve">  Arunabha Kundu</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Pierre Orenga</t>
+          <t xml:space="preserve">  Henri Delmas</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11342,42 +11340,42 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Mathématiques</t>
+          <t xml:space="preserve">  Génie des procédés et environnement</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Soutenance en 1998</t>
+          <t xml:space="preserve">  Soutenance en 2004</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Corte</t>
+          <t xml:space="preserve">  Toulouse, INPT</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>L'objectif de ce travail est l'étude des écoulements de fluides géophysiques dans des domaines à frontières ouvertes tels que détroits ou baies, ou se pose souvent le problème de la connaissance des conditions aux limites sur la vitesse et la hauteur d'eau. Les trois axes essentiels de cette étude sont la modélisation mathématique, l'analyse théorique des équations et leur résolution numérique. Concernant la modélisation, nous donnons les diverses hypothèses qui permettent d'établir les équations d'un modèle de Shallow Water en formulation hauteur-vitesse. Au niveau théorique, nous présentons les différentes techniques utilisées pour la détermination du gradient d'une fonctionnelle mesurant les écarts entre la solution désirée et la solution calculée, suivant les types de contrôle et d'observations considérés. Le principe général de la méthode repose sur l'utilisation des équations adjointes du modèle linéaire tangent. Si, dans le cas linéaire, nous avons pu donner les conditions nécessaires et suffisantes d'existence et d'unicité d'un contrôle optimal, dans le cas non linéaire, nous ne donnons que des résultats de régularité nécessaires sur la solution du problème de Shallow Water afin de montrer l'existence d'une solution du problème adjoint. Sur le plan numérique, nous utilisons une méthode de résolution spectrale aussi bien pour les équations de Shallow Water que pour les problèmes de contrôle. Dans le cas d'observations ponctuelles, nous proposons de déterminer le minimum de la fonctionnelle par une méthode d'approximation variationnelle en utilisant une base de l'espace des contrôles. Cette méthode s'est avérée bien adaptée et permet de conserver des temps de calcul raisonnables. Nous présentons enfin un certain nombre de résultats numériques obtenus dans les cas linéaire et non linéaire, tout d'abord sur une géométrie simplifiée puis sur le cas réel de la baie de Calvi (Corse).</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Détermination de conditions aux limites en mer ouverte par une méthode de contrôle optimal</t>
+          <t>Missing value</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Two investigations on three phase reactors are reported : liquid flow maldistribution and partial wetting of the catalyst in trickle bed reactors, and effects of adding small amounts of organic phase on gas to aqueous phase mass transfer in a bubble column. Radial distribution of the liquid flow is investigated in a 0. 152 m in diameter fixed bed of 5 successive catalysts of various shape and size, and various trickling liquids (water, water+additives, kerosene). A model has been derived based on force balance on each fluid phase and compared to experimental results including previous works. This model was extended to partial wetting, characterised by tracer analysis. In bubble column, oxygen to water mass transer was shown to be highly influenced by adding only 1% oil fraction. 7 organic liquids were used showing more than 300% mass transfer enhancement with alkanes and conversely 50% reduction with more water soluble components, these effects being mainly relatde to bubble size.</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Réacteurs à trois phases : A, hydrodynamique et mouillage partiel en lit fixe : B, absorption en colonne à bulles gaz-liquide-liquide</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -11422,7 +11420,7 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>L'objectif de ce travail est l'étude des écoulements de fluides ... sur le cas réel de la baie de Calvi (Corse).</t>
+          <t>Two investigations on three phase reactors are reported : liquid ... soluble components, these effects being mainly relatde to bubble size.</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
@@ -11437,72 +11435,72 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Valentin Wiener</t>
+          <t xml:space="preserve">  Gaston Vergara</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Christophe Genthon, Alexis Berne</t>
+          <t xml:space="preserve">  Marius Tucsnak, Franck Sueur</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Projet de thèse</t>
+          <t xml:space="preserve">  Thèse de doctorat</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sciences du climat, de l'atmosphère et des océans, terrestres et planétaire</t>
+          <t xml:space="preserve">  Mathématiques appliquées et calcul scientifique</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Inscription en doctorat le 01/10/2021</t>
+          <t xml:space="preserve">  Soutenance le 20/10/2021</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sorbonne université</t>
+          <t xml:space="preserve">  Bordeaux</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>AWACA (Atmospheric Water Cycle over Antarctica : Past, Present and Future) est un nouveau projet financé par l'ERC visant à mieux observer, comprendre et modéliser l'eau dans l'atmosphère en interaction avec la surface de neige en Antarctique. Le but est d'accroître notre confiance dans les prévisions des changements futurs et l'impact sur le niveau mondial de la mer.</t>
+          <t xml:space="preserve">  École doctorale Mathématiques et informatique (Talence, Gironde ; 1991-....)</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Météorologie de surface en Antarctique.</t>
+          <t xml:space="preserve">  Laboratoire </t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  École doctorale Sciences de l'environnement d'Île-de-France (Paris ; 1992-....)</t>
+          <t>Cette thèse porte sur l'étude de certains modèles d'interaction fluide-structure dans des régimes d'eau peu profonde.En particulier, le manuscrit apporte des contributions sur les interactions entre un fluide et des corps rigides fixes et flottants.Dans une première partie, nous commençons par étudier la modélisation mathématique et les simulations d'une colonne d'eau oscillante. Dans ce dispositif, les vagues viennent du rivage, heurtent une marche basse, puis atteignent une chambre pour changer le volume d'air et entraîner une turbine qui produit de l'électricité.Dans cette première approche, une pression atmosphérique constante est supposée sur la surface libre du fluide à l'intérieur de la chambre.Les vagues régies par les équations unidimensionnelles des eaux peu profondes en présence de ce dispositif sont essentiellement reformulées sous la forme de deux problèmes de transmission : le premier est associé à une marche devant la structure, et le second est lié à l'interaction vagues-structure.D'autre part, en considérant la notion d'invariants de Riemann pour obtenir la version discrétisée des conditions de transmission, nous implémentons le schéma de Lax-Friedrichs pour obtenir des solutions numériques du modèle.De plus, en utilisant le concept de contrôlabilité du profil nodal, nous abordons le problème de la contrôlabilité frontière du système.Enfin, nous clôturons la première partie de la thèse en proposant un deuxième modèle non linéaire d'un dispositif à colonne d'eau oscillante impliquant une condition de transmission qui décrit un flux de pression d'air dépendant du temps à l'intérieur de la chambre, qui est obtenu en considérant l'équation de Bernoulli à surface libre et les propriétés relatives au régime des eaux peu profondes.Dans la deuxième partie, nous étudions quelques modèles décrivant le mouvement vertical d'un solide flottant à la surface libre d'un fluide visqueux peu profond.Cette structure rigide est supposée être contrôlée par une force verticale exercée via un actionneur.Nous commençons par prouver que le modèle est bien posé en considérant des espaces fonctionnels adéquats et des opérateurs convenables entre eux. En obtenant une forme explicite de la fonction de transfert associée, nous prouvons quelques résultats sur la stabilité input-output du système.Enfin, nous étudions une équation intégro-différentielle de type Cummins décrivant le mouvement d'une structure partiellement immergée flottant dans un fluide visqueux sur un domaine non-borné.Sur la base des résultats de stabilité de Matignon pour les systèmes fractionnaires, on trouve des solutions explicites du système, conduisant à une description precise de leur comportement en temps long.</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Laboratoire </t>
+          <t>Modelling, analysis and control of some water waves-rigid body interactions</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t>Missing Value</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve">  Président / Présidente </t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Missing value</t>
+          <t xml:space="preserve"> Marius Tucsnak, Franck Sueur, Yann Le Gorrec, Martin Gugat, Takéo Takahashi, Ludovick Gagnon, Hans J. Zwart</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EMC3</t>
+          <t xml:space="preserve"> Martin Gugat, Takéo Takahashi</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -11532,7 +11530,7 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>AWACA (Atmospheric Water Cycle over Antarctica : Past, Present and ... futurs et l'impact sur le niveau mondial de la mer.</t>
+          <t>Cette thèse porte sur l'étude de certains modèles d'interaction fluide-structure ... à une description precise de leur comportement en temps long.</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
